--- a/data/hotels_by_city/Dallas/Dallas_shard_665.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_665.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="650">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1880 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r542471119-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>223890</t>
+  </si>
+  <si>
+    <t>542471119</t>
+  </si>
+  <si>
+    <t>11/21/2017</t>
+  </si>
+  <si>
+    <t>Overall good</t>
+  </si>
+  <si>
+    <t>Very generous breakfast and adequate hotel.  Clean and comfortable.  Avoid having a room that faces the alliance airport as the jet engines are loud.  Would stay again in a quieter room.  No other complaints.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r514767528-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>514767528</t>
+  </si>
+  <si>
+    <t>08/18/2017</t>
+  </si>
+  <si>
+    <t>5 Woman Trip</t>
+  </si>
+  <si>
+    <t>We were 5 women visiting the Ft. Worth area.  We had a 2 bedroom, 2 bath suite and it was perfect.  Rooms were very clean, we had plenty of space and having the kitchenette was a definite plus.  The breakfast buffet was substantial.  The hotel is a little remote from Ft Worth but access to I35W made getting around very easy.  I would  highly recommend staying at this hotel.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r511159054-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>511159054</t>
+  </si>
+  <si>
+    <t>08/10/2017</t>
+  </si>
+  <si>
+    <t>Amazing Breakfast!</t>
+  </si>
+  <si>
+    <t>The hotel was very clean and the customer service was fantastic! I suffer from back problems and they were able to provide me with extra pillows for back support. We also loved the breakfast bar! They had a great selections of food that left my husband vey happy and satisfied!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r510128130-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>510128130</t>
+  </si>
+  <si>
+    <t>08/08/2017</t>
+  </si>
+  <si>
+    <t>Beware - no kitchen in some rooms</t>
+  </si>
+  <si>
+    <t>So explain to me how a Residence Inn has rooms without a kitchen? A microwave, coffeemaker, a fridge the size of a six-pack and a RV-sized sink counts as a kitchen?  Isn't the marketing model built around having the ability to do a long stay? Shouldn't there be some sort of notification that you're assigned a no kitchen room (when the expectation is that all RI rooms have them)?I have over 650 nights with Marriott, many of them in RIs, and I have never seen this. Thankfully I was only a one-night stay and didn't need it, so I didn't make a stink about it. Too, I checked in via mobile 36 hours before I arrived and got the pop-up on my phone at about 8 the morning that I was arriving that my room was ready. "Great" I thought - Platinum pays off again and I scored an upgrade. Not so much - I got what I reserved, but the expectation let down was there. The guy at checkin didn't seem confident in checkin procedures (about 5:30pm on Monday 8/7). MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>aoquendo, General Manager at Residence Inn Fort Worth Alliance Airport, responded to this reviewResponded August 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2017</t>
+  </si>
+  <si>
+    <t>So explain to me how a Residence Inn has rooms without a kitchen? A microwave, coffeemaker, a fridge the size of a six-pack and a RV-sized sink counts as a kitchen?  Isn't the marketing model built around having the ability to do a long stay? Shouldn't there be some sort of notification that you're assigned a no kitchen room (when the expectation is that all RI rooms have them)?I have over 650 nights with Marriott, many of them in RIs, and I have never seen this. Thankfully I was only a one-night stay and didn't need it, so I didn't make a stink about it. Too, I checked in via mobile 36 hours before I arrived and got the pop-up on my phone at about 8 the morning that I was arriving that my room was ready. "Great" I thought - Platinum pays off again and I scored an upgrade. Not so much - I got what I reserved, but the expectation let down was there. The guy at checkin didn't seem confident in checkin procedures (about 5:30pm on Monday 8/7). More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r508267341-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>508267341</t>
+  </si>
+  <si>
+    <t>08/02/2017</t>
+  </si>
+  <si>
+    <t>Convenient Uncongested Location for family or business stays!</t>
+  </si>
+  <si>
+    <t>We took a mini-vacation to 2 weddings in the DFW area so we picked a hotel that was as centrally located to our events as possible. At first I was worried that this hotel looked like it was out in the middle of nowhere, but thanks to constant construction and traffic on 35 elsewhere, it was very relaxing to arrive and leave from a less hectic area! There is tons of shopping/dining within about 10 minutes (Target, Best Buy, Costco, Chipotle to name a few) and downtown museums are a quick 30 minutes away, even in traffic. We arrived at about 11:45 a.m. and were not surprised that our room was not ready. I was a bit put off when the front desk clerk seemed annoyed that we were there so early, and he said it would be closer to 3 when our room was ready. We asked if we could eat our packed lunch in the dining area before continuing on our afternoon outings, and they said that was fine. By the time we wrapped up our lunch, though, the front desk clerk came over and graciously informed us our room was ready, only about an hour after we arrived! We were so relieved, because we had packed all of raw ingredients for our meals and I didn't want to haul perishables around for the rest of the day. We LOVE staying at RIs and TPSs because of the...We took a mini-vacation to 2 weddings in the DFW area so we picked a hotel that was as centrally located to our events as possible. At first I was worried that this hotel looked like it was out in the middle of nowhere, but thanks to constant construction and traffic on 35 elsewhere, it was very relaxing to arrive and leave from a less hectic area! There is tons of shopping/dining within about 10 minutes (Target, Best Buy, Costco, Chipotle to name a few) and downtown museums are a quick 30 minutes away, even in traffic. We arrived at about 11:45 a.m. and were not surprised that our room was not ready. I was a bit put off when the front desk clerk seemed annoyed that we were there so early, and he said it would be closer to 3 when our room was ready. We asked if we could eat our packed lunch in the dining area before continuing on our afternoon outings, and they said that was fine. By the time we wrapped up our lunch, though, the front desk clerk came over and graciously informed us our room was ready, only about an hour after we arrived! We were so relieved, because we had packed all of raw ingredients for our meals and I didn't want to haul perishables around for the rest of the day. We LOVE staying at RIs and TPSs because of the kitchen amenities. The kitchen is very efficient - the dishwasher is pretty small and I had to open the fridge in order to open the oven all the way. I did buy a small roasting pan at Target the second day, for roasting some veggies, because all of the pans/pots had plastic handles so I had nothing to use in the oven. We were spoiled by the space in the 2 bedroom - with 3 kids, we were so glad we had the extra room! There were 3 TVs - 2 more than we have in our home - so it was a treat to spread out. The bathroom/dressing in one of the rooms (yes, our room had 2 bathrooms! It sealed the deal.) wa quite generous and more than one person could get ready at one time. I loved the fact that the drapes actually overlap when closing to block out light - it's the little things, really. Outstanding water pressure, great room A/C temp and quite tolerable beds/pillows made us happy to stay and sad to leave. I did a couple of loads of laundry in the available laundry room and had no issues. Although we travel with our food and I cooked breakfast for 2 of us, the offerings downstairs are comprehensive and there's something for everyone! For Paleo eaters, there were eggs, sausage, raw spinach, walnuts, raisins, coconut and fresh fruit daily - you won't starve here! I would not hesitate to book this hotel again if I'm in the area. We were there as a family of 5 but we saw lots of people who appeared to be travelling for business. One thing to note is that not all rooms have the oven, if that is crucial to your plans. My parents booked a single room and did not have one (we had planned to coordinate meal prep, so we had to switch things around a bit.) Overall, we enjoyed our stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>We took a mini-vacation to 2 weddings in the DFW area so we picked a hotel that was as centrally located to our events as possible. At first I was worried that this hotel looked like it was out in the middle of nowhere, but thanks to constant construction and traffic on 35 elsewhere, it was very relaxing to arrive and leave from a less hectic area! There is tons of shopping/dining within about 10 minutes (Target, Best Buy, Costco, Chipotle to name a few) and downtown museums are a quick 30 minutes away, even in traffic. We arrived at about 11:45 a.m. and were not surprised that our room was not ready. I was a bit put off when the front desk clerk seemed annoyed that we were there so early, and he said it would be closer to 3 when our room was ready. We asked if we could eat our packed lunch in the dining area before continuing on our afternoon outings, and they said that was fine. By the time we wrapped up our lunch, though, the front desk clerk came over and graciously informed us our room was ready, only about an hour after we arrived! We were so relieved, because we had packed all of raw ingredients for our meals and I didn't want to haul perishables around for the rest of the day. We LOVE staying at RIs and TPSs because of the...We took a mini-vacation to 2 weddings in the DFW area so we picked a hotel that was as centrally located to our events as possible. At first I was worried that this hotel looked like it was out in the middle of nowhere, but thanks to constant construction and traffic on 35 elsewhere, it was very relaxing to arrive and leave from a less hectic area! There is tons of shopping/dining within about 10 minutes (Target, Best Buy, Costco, Chipotle to name a few) and downtown museums are a quick 30 minutes away, even in traffic. We arrived at about 11:45 a.m. and were not surprised that our room was not ready. I was a bit put off when the front desk clerk seemed annoyed that we were there so early, and he said it would be closer to 3 when our room was ready. We asked if we could eat our packed lunch in the dining area before continuing on our afternoon outings, and they said that was fine. By the time we wrapped up our lunch, though, the front desk clerk came over and graciously informed us our room was ready, only about an hour after we arrived! We were so relieved, because we had packed all of raw ingredients for our meals and I didn't want to haul perishables around for the rest of the day. We LOVE staying at RIs and TPSs because of the kitchen amenities. The kitchen is very efficient - the dishwasher is pretty small and I had to open the fridge in order to open the oven all the way. I did buy a small roasting pan at Target the second day, for roasting some veggies, because all of the pans/pots had plastic handles so I had nothing to use in the oven. We were spoiled by the space in the 2 bedroom - with 3 kids, we were so glad we had the extra room! There were 3 TVs - 2 more than we have in our home - so it was a treat to spread out. The bathroom/dressing in one of the rooms (yes, our room had 2 bathrooms! It sealed the deal.) wa quite generous and more than one person could get ready at one time. I loved the fact that the drapes actually overlap when closing to block out light - it's the little things, really. Outstanding water pressure, great room A/C temp and quite tolerable beds/pillows made us happy to stay and sad to leave. I did a couple of loads of laundry in the available laundry room and had no issues. Although we travel with our food and I cooked breakfast for 2 of us, the offerings downstairs are comprehensive and there's something for everyone! For Paleo eaters, there were eggs, sausage, raw spinach, walnuts, raisins, coconut and fresh fruit daily - you won't starve here! I would not hesitate to book this hotel again if I'm in the area. We were there as a family of 5 but we saw lots of people who appeared to be travelling for business. One thing to note is that not all rooms have the oven, if that is crucial to your plans. My parents booked a single room and did not have one (we had planned to coordinate meal prep, so we had to switch things around a bit.) Overall, we enjoyed our stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r501627818-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>501627818</t>
+  </si>
+  <si>
+    <t>07/13/2017</t>
+  </si>
+  <si>
+    <t>Great stay especially for extended time</t>
+  </si>
+  <si>
+    <t>Newer hotel.  Great stay for a multiple generation family especially with 2 bedroom 2 bath rooms available.  Also very dog friendly with a large pet area and pet bags available - which is a really nice addition for those traveling with fur kids.  Breakfasts were very fresh, good, clean and plentiful,. Only complaint was pool was a little small especially when we had some rough play going on but, that was more lack of parental control than hotel issue.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r491571385-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>491571385</t>
+  </si>
+  <si>
+    <t>06/08/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel!</t>
+  </si>
+  <si>
+    <t>We really enjoyed staying at this Marriott Residence.  We had a two bedroom suite which made it nice to bring our daughter on my hubby's business trip.  The rooms are lovely with new carpet, full kitchen and nice bathrooms.  The staff kept us stocked with plenty of towels, soaps and kept our beds beautifully made.  The fridge has an ice maker which is nice.  The breakfast buffet was well stocked with choices for everyone!  I am on weight watchers and found lots of a variety of items.  We were a bit disappointed with Marriott stopping the evening meal Monday through Thursday.  When we talked with the manager, he told us it is because Marriott made this a corporate decision.  So his hands were tied.  With did tell him we would appreciate coffee during the day and some infused ice water in the lobby, as many upscale lodges have.  The next day he did have coffee available for us. He was very kind and accommodating!!  The work out room was fine for us, I can't see how people could complain about this, it isn't a YMCA people!  The whole place was kept very clean with cordial staff everywhere!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>We really enjoyed staying at this Marriott Residence.  We had a two bedroom suite which made it nice to bring our daughter on my hubby's business trip.  The rooms are lovely with new carpet, full kitchen and nice bathrooms.  The staff kept us stocked with plenty of towels, soaps and kept our beds beautifully made.  The fridge has an ice maker which is nice.  The breakfast buffet was well stocked with choices for everyone!  I am on weight watchers and found lots of a variety of items.  We were a bit disappointed with Marriott stopping the evening meal Monday through Thursday.  When we talked with the manager, he told us it is because Marriott made this a corporate decision.  So his hands were tied.  With did tell him we would appreciate coffee during the day and some infused ice water in the lobby, as many upscale lodges have.  The next day he did have coffee available for us. He was very kind and accommodating!!  The work out room was fine for us, I can't see how people could complain about this, it isn't a YMCA people!  The whole place was kept very clean with cordial staff everywhere!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r481877247-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>481877247</t>
+  </si>
+  <si>
+    <t>05/05/2017</t>
+  </si>
+  <si>
+    <t>Great Staff!</t>
+  </si>
+  <si>
+    <t>My company has been using the Meeting Room for the last month and Rosa the Sales Coordinator has been great! Very accommodating and easy to reach. I also had the opportunity of staying at the hotel for a weekend and the personnel was very sweet and attentive, especially the ladies at the front desk. For breakfast they have a great spread, loved the waffle station!</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r481606815-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>481606815</t>
+  </si>
+  <si>
+    <t>05/04/2017</t>
+  </si>
+  <si>
+    <t>Awesome customer service and a great place to stay!</t>
+  </si>
+  <si>
+    <t>I utilize this hotel for my job.  They are my number one vendor.  I am over a program for pre-hire pilots for the FAA.  The staff always accommodates the applicants and no one has ever had a bad experience in the 9 years I have dealt with this hotel.  They even serve breakfast at 6:00 so the pilots can eat before they have to be at our office by 6:30!  The staff is friendly and courteous and you are always greeted with a smile.  The suites are artfully decorated and very relaxing.  It's located in a great place with eateries within 2 miles either way.  It is my top recommended hotel for Fort Worth.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>I utilize this hotel for my job.  They are my number one vendor.  I am over a program for pre-hire pilots for the FAA.  The staff always accommodates the applicants and no one has ever had a bad experience in the 9 years I have dealt with this hotel.  They even serve breakfast at 6:00 so the pilots can eat before they have to be at our office by 6:30!  The staff is friendly and courteous and you are always greeted with a smile.  The suites are artfully decorated and very relaxing.  It's located in a great place with eateries within 2 miles either way.  It is my top recommended hotel for Fort Worth.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r471378374-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>471378374</t>
+  </si>
+  <si>
+    <t>03/30/2017</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>I stayed at this place as a recommendation of a coworker.  This was a really nice place and was very clean.  I ended up in a suite which was extremely nice.   I thought the breakfast was good however, it was not served until 6:30 am.  Would have given a 5 star but gave a 4 star because of this.  Asked the front desk about this.  They indicated that corporate dictates when they serve breakfast.  I can say that for this area 6:00 am is a better time.  Every morning there were people literally waiting for breakfast.  I can tell you that this is unacceptable for this hotel to not be able to serve breakfast based on the needs of the local area.  I had class at 7 am  ate every morning in a rush to get out of there.  I am disappointed that a good breakfast was rushed and not enjoyed.  Corporate needs to listen to the needs of the local area patrons.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>AJ D, General Manager at Residence Inn Fort Worth Alliance Airport, responded to this reviewResponded March 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2017</t>
+  </si>
+  <si>
+    <t>I stayed at this place as a recommendation of a coworker.  This was a really nice place and was very clean.  I ended up in a suite which was extremely nice.   I thought the breakfast was good however, it was not served until 6:30 am.  Would have given a 5 star but gave a 4 star because of this.  Asked the front desk about this.  They indicated that corporate dictates when they serve breakfast.  I can say that for this area 6:00 am is a better time.  Every morning there were people literally waiting for breakfast.  I can tell you that this is unacceptable for this hotel to not be able to serve breakfast based on the needs of the local area.  I had class at 7 am  ate every morning in a rush to get out of there.  I am disappointed that a good breakfast was rushed and not enjoyed.  Corporate needs to listen to the needs of the local area patrons.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r467965828-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>467965828</t>
+  </si>
+  <si>
+    <t>03/16/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wow what a surprise </t>
+  </si>
+  <si>
+    <t>I travel to the North Ft Worth/Keller area several times a year. I've stayed in several different chain hotels and have always felt like the rooms  were overpriced and underwhelming. That was until I found this hotel. Since it was only me and my 13yr old son I got a studio suite and it was saweeeet!!!! One night my son slept on the queen size bed and I slept on the fold out couch. Then we switched on night two. The couch I must say was pretty comfortable for a pull out. The bed was divine!! There was enough space to spread out in the room and get comfortable. Our check in clerk was Brenda and she was absolutely adorable and extra warm and welcoming. The only thing I would work on is breakfast options. This is by no means a complaint only a suggestion. My son and I are mildly allergic to eggs. Most places have cottage or sliced cheeses, biscuits and or even peanut butter as another protein option for people like myself. Unfortunately cold sausage patties were the only option for the bagels. I will be staying here from now on. MoreShow less</t>
+  </si>
+  <si>
+    <t>I travel to the North Ft Worth/Keller area several times a year. I've stayed in several different chain hotels and have always felt like the rooms  were overpriced and underwhelming. That was until I found this hotel. Since it was only me and my 13yr old son I got a studio suite and it was saweeeet!!!! One night my son slept on the queen size bed and I slept on the fold out couch. Then we switched on night two. The couch I must say was pretty comfortable for a pull out. The bed was divine!! There was enough space to spread out in the room and get comfortable. Our check in clerk was Brenda and she was absolutely adorable and extra warm and welcoming. The only thing I would work on is breakfast options. This is by no means a complaint only a suggestion. My son and I are mildly allergic to eggs. Most places have cottage or sliced cheeses, biscuits and or even peanut butter as another protein option for people like myself. Unfortunately cold sausage patties were the only option for the bagels. I will be staying here from now on. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r467253708-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>467253708</t>
+  </si>
+  <si>
+    <t>03/14/2017</t>
+  </si>
+  <si>
+    <t>Good Decent Hotel</t>
+  </si>
+  <si>
+    <t>Stayed here in March 2017. Check in was a breeze, it took about 30 seconds to check in because my room was already ready when I arrived. Just picked up my room key and showed my id and credit card and off I went. The reception lady advised me about my room number, breakfast and where the elevator was. Breakfast was free and good. Overall everything was good.Just a note, there is construction going on the major highway 35W closer to the Alliance Airport and the hotel but the construction is not in the hotel area so be aware that you may experience a slight traffic. I did not experience too much traffic but the construction slows down traffic. Overall good stay and good area.Thank you.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>AJ D, General Manager at Residence Inn Fort Worth Alliance Airport, responded to this reviewResponded March 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here in March 2017. Check in was a breeze, it took about 30 seconds to check in because my room was already ready when I arrived. Just picked up my room key and showed my id and credit card and off I went. The reception lady advised me about my room number, breakfast and where the elevator was. Breakfast was free and good. Overall everything was good.Just a note, there is construction going on the major highway 35W closer to the Alliance Airport and the hotel but the construction is not in the hotel area so be aware that you may experience a slight traffic. I did not experience too much traffic but the construction slows down traffic. Overall good stay and good area.Thank you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r457135232-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>457135232</t>
+  </si>
+  <si>
+    <t>02/04/2017</t>
+  </si>
+  <si>
+    <t>Feels Like Home Away From Home</t>
+  </si>
+  <si>
+    <t>I've had the opportunity to stay at this property close to 10 times, and I've never had a bad experience.  I can't say enough about the staff - Brenda and Maricruz at the front desk are so wonderful!  Always greeted with a warm smile and pleasant conversation, it feels like coming home.I've worked with Alma and Jamee in sales to book large groups and they have been such a pleasure to work with.With such a wonderful staff, and the clean and updated rooms, it makes traveling for work a little easier.  I can't thank you all enough for making every stay such a great experience!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>AJ D, General Manager at Residence Inn Fort Worth Alliance Airport, responded to this reviewResponded February 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2017</t>
+  </si>
+  <si>
+    <t>I've had the opportunity to stay at this property close to 10 times, and I've never had a bad experience.  I can't say enough about the staff - Brenda and Maricruz at the front desk are so wonderful!  Always greeted with a warm smile and pleasant conversation, it feels like coming home.I've worked with Alma and Jamee in sales to book large groups and they have been such a pleasure to work with.With such a wonderful staff, and the clean and updated rooms, it makes traveling for work a little easier.  I can't thank you all enough for making every stay such a great experience!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r455186228-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>455186228</t>
+  </si>
+  <si>
+    <t>01/27/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay with excellent customer service</t>
+  </si>
+  <si>
+    <t>Very clean and comfortable. Well maintained. Left my IPad in lobby and front desk contacted me to say they had it. Manager left a sweet and funny note in it. Everyone here is polite, friendly, and positive. Come here 4 times a year for work. Consistently a great place to stay.  MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>AJ D, General Manager at Residence Inn Fort Worth Alliance Airport, responded to this reviewResponded January 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 30, 2017</t>
+  </si>
+  <si>
+    <t>Very clean and comfortable. Well maintained. Left my IPad in lobby and front desk contacted me to say they had it. Manager left a sweet and funny note in it. Everyone here is polite, friendly, and positive. Come here 4 times a year for work. Consistently a great place to stay.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r450308933-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>450308933</t>
+  </si>
+  <si>
+    <t>01/07/2017</t>
+  </si>
+  <si>
+    <t>A Wonderful Visit</t>
+  </si>
+  <si>
+    <t>We decided to take a spontaneous trip to visit family in Fort Worth and booked a room here through a travel site. Our stay was a wonderful experience. Brenda was one of the most helpful and friendly staff that we have ever had at a hotel. She went above and beyond to make sure we had everything we needed even double checking that we had enough blankets when we went downstairs to get snacks. Thank you for incredible customer service!MoreShow less</t>
+  </si>
+  <si>
+    <t>AJ D, General Manager at Residence Inn Fort Worth Alliance Airport, responded to this reviewResponded January 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2017</t>
+  </si>
+  <si>
+    <t>We decided to take a spontaneous trip to visit family in Fort Worth and booked a room here through a travel site. Our stay was a wonderful experience. Brenda was one of the most helpful and friendly staff that we have ever had at a hotel. She went above and beyond to make sure we had everything we needed even double checking that we had enough blankets when we went downstairs to get snacks. Thank you for incredible customer service!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r434168925-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>434168925</t>
+  </si>
+  <si>
+    <t>11/02/2016</t>
+  </si>
+  <si>
+    <t>Weekend Event with Family</t>
+  </si>
+  <si>
+    <t>The hotel staff and facilities were very good.  The hotel is older but it's renovated and maintained very well. Staff was pleasing from check in through check out.  We had breakfast one morning and the person managing the area was very busy and very polite despite some guests.  The rooms are a good size but the bed (Queen) and sofa bed (full/twin) run small.  We made our reservations for our next trip back to the area before we left. A lot of restaurant options about five miles south of the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>AJ D, General Manager at Residence Inn Fort Worth Alliance Airport, responded to this reviewResponded November 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2016</t>
+  </si>
+  <si>
+    <t>The hotel staff and facilities were very good.  The hotel is older but it's renovated and maintained very well. Staff was pleasing from check in through check out.  We had breakfast one morning and the person managing the area was very busy and very polite despite some guests.  The rooms are a good size but the bed (Queen) and sofa bed (full/twin) run small.  We made our reservations for our next trip back to the area before we left. A lot of restaurant options about five miles south of the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r429662161-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>429662161</t>
+  </si>
+  <si>
+    <t>10/19/2016</t>
+  </si>
+  <si>
+    <t>An unplanned experience</t>
+  </si>
+  <si>
+    <t>While I didn't spend the night at this hotel, I feel I can review it.  I was lost and needed directions from Fort Worth to Dallas.  The highway system in the city seems to always be under construction and traveling at night makes it even more complicated.   I stopped at the Residence Inn and Brenda, who was staffing the desk, couldn't have been more accommodating.  She charged my phone, let me use the computer to print out mapquest directions, let me use the restrooms and allowed us to rest in the lobby until the phone was ready.  During that time, she was kind and compassionate.  The lobby was immaculate.  Guests seemed to be enjoying the common areas (playing dominoes, etc.).  The restrooms were extremely clean as well.  All guests were greeted immediately and assisted with the same ease and customer service she offered to us.   She is a true asset to a very well run hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>AJ D, General Manager at Residence Inn Fort Worth Alliance Airport, responded to this reviewResponded October 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2016</t>
+  </si>
+  <si>
+    <t>While I didn't spend the night at this hotel, I feel I can review it.  I was lost and needed directions from Fort Worth to Dallas.  The highway system in the city seems to always be under construction and traveling at night makes it even more complicated.   I stopped at the Residence Inn and Brenda, who was staffing the desk, couldn't have been more accommodating.  She charged my phone, let me use the computer to print out mapquest directions, let me use the restrooms and allowed us to rest in the lobby until the phone was ready.  During that time, she was kind and compassionate.  The lobby was immaculate.  Guests seemed to be enjoying the common areas (playing dominoes, etc.).  The restrooms were extremely clean as well.  All guests were greeted immediately and assisted with the same ease and customer service she offered to us.   She is a true asset to a very well run hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r429306338-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>429306338</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>Our annual stay for the Alliance Air Show</t>
+  </si>
+  <si>
+    <t>I work for Texas Health Resources and each year we stay at this facility while providing Medical for the Alliance Air Show. This is just an awesome place to stay. From the rooms to the staff to the outdoor cooking amenities. Not to mention the pool and hot tub. The customer service provided to us each year is awesome!! Since our first stay 8 years ago, we have gotten to know the staff very well and each year they welcome us back as if we were family. Clint Naul is the manager and is awesome at what he does, always there for whatever you may need and he has an amazing crew. The Front Desk staff are also amazing. Brenda and Maricruz are there to greet us each year when we walk through the front door and show us VIP treatment for our entire stay. One evening we were just hanging out in the lobby, when Brenda and Maricruz went back in the kitchen (which was closed) and came back with a plate of fresh warm cookies. What a pleasant surprise! Housekeeping is there to clean the rooms each morning and will leave extra towels etc. if you ask. Overall, I would recommend this establishment for anyone staying in the DFW area.MoreShow less</t>
+  </si>
+  <si>
+    <t>AJ D, General Manager at Residence Inn Fort Worth Alliance Airport, responded to this reviewResponded October 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2016</t>
+  </si>
+  <si>
+    <t>I work for Texas Health Resources and each year we stay at this facility while providing Medical for the Alliance Air Show. This is just an awesome place to stay. From the rooms to the staff to the outdoor cooking amenities. Not to mention the pool and hot tub. The customer service provided to us each year is awesome!! Since our first stay 8 years ago, we have gotten to know the staff very well and each year they welcome us back as if we were family. Clint Naul is the manager and is awesome at what he does, always there for whatever you may need and he has an amazing crew. The Front Desk staff are also amazing. Brenda and Maricruz are there to greet us each year when we walk through the front door and show us VIP treatment for our entire stay. One evening we were just hanging out in the lobby, when Brenda and Maricruz went back in the kitchen (which was closed) and came back with a plate of fresh warm cookies. What a pleasant surprise! Housekeeping is there to clean the rooms each morning and will leave extra towels etc. if you ask. Overall, I would recommend this establishment for anyone staying in the DFW area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r415439823-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>415439823</t>
+  </si>
+  <si>
+    <t>09/06/2016</t>
+  </si>
+  <si>
+    <t>Overall good, but can still improve</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for a couple of weeks. It is overall good, clean, room is comfortable, though the 2-bedroom suites have unequal bedrooms: one large room with a noisy AC, and one smaller room with a silent AC... Tough choice!Breakfast is basic, especially when it comes to warm items. Because I stayed two weeks, it quickly became repetitive and unpleasant. But if you stay for a few nights only, it will be adequate. Breakfast room itself is pleasant on most morning but there were a couple of very crowded days.Housekeeping proved itself to be approximative. Some days towels were not replaced, some days they were misplaced, some days used towels removed but not replaced, ... Same story with pillows. Dry cleaning service is also not optimal.Finally, rooms on the highway sides are a bit noisy. It's a remote noise but it might disturb the light sleepers.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>AJ D, General Manager at Residence Inn Fort Worth Alliance Airport, responded to this reviewResponded September 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for a couple of weeks. It is overall good, clean, room is comfortable, though the 2-bedroom suites have unequal bedrooms: one large room with a noisy AC, and one smaller room with a silent AC... Tough choice!Breakfast is basic, especially when it comes to warm items. Because I stayed two weeks, it quickly became repetitive and unpleasant. But if you stay for a few nights only, it will be adequate. Breakfast room itself is pleasant on most morning but there were a couple of very crowded days.Housekeeping proved itself to be approximative. Some days towels were not replaced, some days they were misplaced, some days used towels removed but not replaced, ... Same story with pillows. Dry cleaning service is also not optimal.Finally, rooms on the highway sides are a bit noisy. It's a remote noise but it might disturb the light sleepers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r403619724-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>403619724</t>
+  </si>
+  <si>
+    <t>08/10/2016</t>
+  </si>
+  <si>
+    <t>Family friendly</t>
+  </si>
+  <si>
+    <t>Great place to stay with a family. They have a suite with 2 adjoining  bedrooms onto a living room and kitchen area with a fold out couch and table. All 3 rooms have their own tv. Full size Fridge, stove top, microwave, dishes, dishwasher. Great breakfast options. Basketball court and basketballs available. Nice gym. Only issues was whole first floor is a pet floor so make sure you know that if you have allergies to pets! We had to switch rooms to another floor which they accomidated but it was a hassle with 5 kids under 11. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>AJ D, General Manager at Residence Inn Fort Worth Alliance Airport, responded to this reviewResponded August 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2016</t>
+  </si>
+  <si>
+    <t>Great place to stay with a family. They have a suite with 2 adjoining  bedrooms onto a living room and kitchen area with a fold out couch and table. All 3 rooms have their own tv. Full size Fridge, stove top, microwave, dishes, dishwasher. Great breakfast options. Basketball court and basketballs available. Nice gym. Only issues was whole first floor is a pet floor so make sure you know that if you have allergies to pets! We had to switch rooms to another floor which they accomidated but it was a hassle with 5 kids under 11. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r400584450-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>400584450</t>
+  </si>
+  <si>
+    <t>08/02/2016</t>
+  </si>
+  <si>
+    <t>Perfect for the business traveler</t>
+  </si>
+  <si>
+    <t>Clean and well maintained Large rooms with plenty of outlets for your electronics Kitchenette is a plus for those that require it Beds are very comfortable The included breakfast included items like cheese and fruit providing a bit more than the standard scrambled eggs and meat Great price and convenient. MoreShow less</t>
+  </si>
+  <si>
+    <t>AJ D, General Manager at Residence Inn Fort Worth Alliance Airport, responded to this reviewResponded August 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2016</t>
+  </si>
+  <si>
+    <t>Clean and well maintained Large rooms with plenty of outlets for your electronics Kitchenette is a plus for those that require it Beds are very comfortable The included breakfast included items like cheese and fruit providing a bit more than the standard scrambled eggs and meat Great price and convenient. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r382026787-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>382026787</t>
+  </si>
+  <si>
+    <t>06/12/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel!!</t>
+  </si>
+  <si>
+    <t>I really enjoyed this hotel! It was a quick and efficient check in and thd bed was amazing. I had a great nights sleep and wished i could have stayed another night!! It was exceptionally clean and well kept! Will most definitely return next time we are in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>AJ D, General Manager at Residence Inn Fort Worth Alliance Airport, responded to this reviewResponded June 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2016</t>
+  </si>
+  <si>
+    <t>I really enjoyed this hotel! It was a quick and efficient check in and thd bed was amazing. I had a great nights sleep and wished i could have stayed another night!! It was exceptionally clean and well kept! Will most definitely return next time we are in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r378023757-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>378023757</t>
+  </si>
+  <si>
+    <t>05/30/2016</t>
+  </si>
+  <si>
+    <t>Clean,  comfortable</t>
+  </si>
+  <si>
+    <t>Needed a location clear to Speedway for one night. It's only 10 minutes to Texas Speedway.  Rooms are clean and comfortable.  If it were not for the kids next door making noise at 3am, I would say is quiet too.  Nice pool area with grill area. We stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>AJ D, Manager at Residence Inn Fort Worth Alliance Airport, responded to this reviewResponded June 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2016</t>
+  </si>
+  <si>
+    <t>Needed a location clear to Speedway for one night. It's only 10 minutes to Texas Speedway.  Rooms are clean and comfortable.  If it were not for the kids next door making noise at 3am, I would say is quiet too.  Nice pool area with grill area. We stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r376506040-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>376506040</t>
+  </si>
+  <si>
+    <t>05/25/2016</t>
+  </si>
+  <si>
+    <t>Best part of bad business trip</t>
+  </si>
+  <si>
+    <t>Hotel was clean, room was comfortable, location was great except that dining options were severely limited as I did not have my own vehicle on this particular trip. Comfortable room made up for unexpected stress on business part of trip. Breakfast buffet had some different items each day so it wasn't just the same old stuff. Didn't try internet or outdoor pool, did use the computers in the lobby extensively. Would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>AJ D, General Manager at Residence Inn Fort Worth Alliance Airport, responded to this reviewResponded June 1, 2016</t>
+  </si>
+  <si>
+    <t>Hotel was clean, room was comfortable, location was great except that dining options were severely limited as I did not have my own vehicle on this particular trip. Comfortable room made up for unexpected stress on business part of trip. Breakfast buffet had some different items each day so it wasn't just the same old stuff. Didn't try internet or outdoor pool, did use the computers in the lobby extensively. Would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r369572851-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>369572851</t>
+  </si>
+  <si>
+    <t>05/02/2016</t>
+  </si>
+  <si>
+    <t>great overnight stay for nearby event</t>
+  </si>
+  <si>
+    <t>We stayed for one day for a event at the Texas Motor Speedway. It was close but not walking distance. We liked the decor of the lobby and rooms, updated and contemporary. Check in and out was fast and simple, the hotel was sold out. We had a room on the 4th floor and was quiet for the most part, better than most other hotels. The room was on the small side, no room for a lounge chair , but lived up to the 'residence' name by having many of the small creature comforts of home. Free fridge, micro, coffee, popcorn, toiletries, cork screw where available to use. Stock iron was appreciated. Flat screen tv with HBO is standard. We like the service the hotel offers of providing a small grocery list of items that can be delivered the next morning to you room. Only complaint was the bathroom fan squeeked when used and was loud, hard not to make noise for the other person still sleeping. Also the maid service kept knocking on the door in morning, I did not see a do not disturb sign to use. However, still felt like it was a great experience and room. Did not use the complimentary breakfast or work out room. If you need a room near the alliance airport or texas motor speedway i would recommend, otherwise its far from most other places, however, there is a large shopping center...We stayed for one day for a event at the Texas Motor Speedway. It was close but not walking distance. We liked the decor of the lobby and rooms, updated and contemporary. Check in and out was fast and simple, the hotel was sold out. We had a room on the 4th floor and was quiet for the most part, better than most other hotels. The room was on the small side, no room for a lounge chair , but lived up to the 'residence' name by having many of the small creature comforts of home. Free fridge, micro, coffee, popcorn, toiletries, cork screw where available to use. Stock iron was appreciated. Flat screen tv with HBO is standard. We like the service the hotel offers of providing a small grocery list of items that can be delivered the next morning to you room. Only complaint was the bathroom fan squeeked when used and was loud, hard not to make noise for the other person still sleeping. Also the maid service kept knocking on the door in morning, I did not see a do not disturb sign to use. However, still felt like it was a great experience and room. Did not use the complimentary breakfast or work out room. If you need a room near the alliance airport or texas motor speedway i would recommend, otherwise its far from most other places, however, there is a large shopping center with a target a few exits south of the hotel. We got a good rate for the room and would try to stay here again if needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>AJ D, General Manager at Residence Inn Fort Worth Alliance Airport, responded to this reviewResponded May 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2016</t>
+  </si>
+  <si>
+    <t>We stayed for one day for a event at the Texas Motor Speedway. It was close but not walking distance. We liked the decor of the lobby and rooms, updated and contemporary. Check in and out was fast and simple, the hotel was sold out. We had a room on the 4th floor and was quiet for the most part, better than most other hotels. The room was on the small side, no room for a lounge chair , but lived up to the 'residence' name by having many of the small creature comforts of home. Free fridge, micro, coffee, popcorn, toiletries, cork screw where available to use. Stock iron was appreciated. Flat screen tv with HBO is standard. We like the service the hotel offers of providing a small grocery list of items that can be delivered the next morning to you room. Only complaint was the bathroom fan squeeked when used and was loud, hard not to make noise for the other person still sleeping. Also the maid service kept knocking on the door in morning, I did not see a do not disturb sign to use. However, still felt like it was a great experience and room. Did not use the complimentary breakfast or work out room. If you need a room near the alliance airport or texas motor speedway i would recommend, otherwise its far from most other places, however, there is a large shopping center...We stayed for one day for a event at the Texas Motor Speedway. It was close but not walking distance. We liked the decor of the lobby and rooms, updated and contemporary. Check in and out was fast and simple, the hotel was sold out. We had a room on the 4th floor and was quiet for the most part, better than most other hotels. The room was on the small side, no room for a lounge chair , but lived up to the 'residence' name by having many of the small creature comforts of home. Free fridge, micro, coffee, popcorn, toiletries, cork screw where available to use. Stock iron was appreciated. Flat screen tv with HBO is standard. We like the service the hotel offers of providing a small grocery list of items that can be delivered the next morning to you room. Only complaint was the bathroom fan squeeked when used and was loud, hard not to make noise for the other person still sleeping. Also the maid service kept knocking on the door in morning, I did not see a do not disturb sign to use. However, still felt like it was a great experience and room. Did not use the complimentary breakfast or work out room. If you need a room near the alliance airport or texas motor speedway i would recommend, otherwise its far from most other places, however, there is a large shopping center with a target a few exits south of the hotel. We got a good rate for the room and would try to stay here again if needed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r360145785-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>360145785</t>
+  </si>
+  <si>
+    <t>03/30/2016</t>
+  </si>
+  <si>
+    <t>Room Type Switched - Didn't have the courtesy to tell me</t>
+  </si>
+  <si>
+    <t>I stayed at this Residence Inn a couple of weeks ago and have stayed at the two other hotels nearby in the past (HGI &amp; Hampton). I thought it would be a nicer room with a separate bedroom and 2 TV's that comes with a 1 Bedroom Suite (AS I RESERVED). But, the desk clerk checked me in and didn't say they had switched me to a Studio room. No separate bedroom and only one TV. I was also traveling with my teenage son and his XBOX. So again I wanted what I had reserved. When the room was assigned, they new that I wasn't getting the room I had reserved. So again - they didn't have the courtesy to inform me... I lived with it because I wasn't changing rooms after our travel that day. So I will elect to stay at one of the other nearby hotels next trip. To bad because I do stay in the area often. Good luck!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>I stayed at this Residence Inn a couple of weeks ago and have stayed at the two other hotels nearby in the past (HGI &amp; Hampton). I thought it would be a nicer room with a separate bedroom and 2 TV's that comes with a 1 Bedroom Suite (AS I RESERVED). But, the desk clerk checked me in and didn't say they had switched me to a Studio room. No separate bedroom and only one TV. I was also traveling with my teenage son and his XBOX. So again I wanted what I had reserved. When the room was assigned, they new that I wasn't getting the room I had reserved. So again - they didn't have the courtesy to inform me... I lived with it because I wasn't changing rooms after our travel that day. So I will elect to stay at one of the other nearby hotels next trip. To bad because I do stay in the area often. Good luck!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r344400260-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>344400260</t>
+  </si>
+  <si>
+    <t>02/01/2016</t>
+  </si>
+  <si>
+    <t>I can live here....</t>
+  </si>
+  <si>
+    <t>I live in just less than 10 minutes away from this hotel and ever since my house was brought into disarray by broken water pipes in the foundation, we were hopping in hotel by hotel until the repair is completed. I have never stayed at residence inn, and by far, this has been the most comfortable/practical place to stay with my family condition. 
+     First of all, we learned that my daughter could not sleep with my husband in the same room, due to his loud snoring.  The two bedroom suite provided by the inn was very roomy, as it included its own living room, kitchen, microwave, and refrigerator.  The one thing that I must say I missed from the room was the lack of the Keurig machine (Which isn't really a big deal of course, but I find it as a personal preference over the regular drip coffee, which is still adequate).
+     Free hot breakfast was A+ benefit, there are scrambled eggs, sausage, biscuits and gravy, waffle press to make your own fresh waffles (a personal plus), cereal, danish, bagels, yogurt, and fruits.
+     The excersice room is open 24/7 and there is an outside pool and with even a jacuzzi! Also, the hotel features  a happy hour on certain time every Monday-Wednesday. I love it!  There is a grill right by the pool as well.
+     This place has everything I need to get going with my life and I really...I live in just less than 10 minutes away from this hotel and ever since my house was brought into disarray by broken water pipes in the foundation, we were hopping in hotel by hotel until the repair is completed. I have never stayed at residence inn, and by far, this has been the most comfortable/practical place to stay with my family condition.      First of all, we learned that my daughter could not sleep with my husband in the same room, due to his loud snoring.  The two bedroom suite provided by the inn was very roomy, as it included its own living room, kitchen, microwave, and refrigerator.  The one thing that I must say I missed from the room was the lack of the Keurig machine (Which isn't really a big deal of course, but I find it as a personal preference over the regular drip coffee, which is still adequate).     Free hot breakfast was A+ benefit, there are scrambled eggs, sausage, biscuits and gravy, waffle press to make your own fresh waffles (a personal plus), cereal, danish, bagels, yogurt, and fruits.     The excersice room is open 24/7 and there is an outside pool and with even a jacuzzi! Also, the hotel features  a happy hour on certain time every Monday-Wednesday. I love it!  There is a grill right by the pool as well.     This place has everything I need to get going with my life and I really do not want to go back my house now. In our 4 night stay here, we have not experienced a single issue with the staff or hotel, would gladly stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>I live in just less than 10 minutes away from this hotel and ever since my house was brought into disarray by broken water pipes in the foundation, we were hopping in hotel by hotel until the repair is completed. I have never stayed at residence inn, and by far, this has been the most comfortable/practical place to stay with my family condition. 
+     First of all, we learned that my daughter could not sleep with my husband in the same room, due to his loud snoring.  The two bedroom suite provided by the inn was very roomy, as it included its own living room, kitchen, microwave, and refrigerator.  The one thing that I must say I missed from the room was the lack of the Keurig machine (Which isn't really a big deal of course, but I find it as a personal preference over the regular drip coffee, which is still adequate).
+     Free hot breakfast was A+ benefit, there are scrambled eggs, sausage, biscuits and gravy, waffle press to make your own fresh waffles (a personal plus), cereal, danish, bagels, yogurt, and fruits.
+     The excersice room is open 24/7 and there is an outside pool and with even a jacuzzi! Also, the hotel features  a happy hour on certain time every Monday-Wednesday. I love it!  There is a grill right by the pool as well.
+     This place has everything I need to get going with my life and I really...I live in just less than 10 minutes away from this hotel and ever since my house was brought into disarray by broken water pipes in the foundation, we were hopping in hotel by hotel until the repair is completed. I have never stayed at residence inn, and by far, this has been the most comfortable/practical place to stay with my family condition.      First of all, we learned that my daughter could not sleep with my husband in the same room, due to his loud snoring.  The two bedroom suite provided by the inn was very roomy, as it included its own living room, kitchen, microwave, and refrigerator.  The one thing that I must say I missed from the room was the lack of the Keurig machine (Which isn't really a big deal of course, but I find it as a personal preference over the regular drip coffee, which is still adequate).     Free hot breakfast was A+ benefit, there are scrambled eggs, sausage, biscuits and gravy, waffle press to make your own fresh waffles (a personal plus), cereal, danish, bagels, yogurt, and fruits.     The excersice room is open 24/7 and there is an outside pool and with even a jacuzzi! Also, the hotel features  a happy hour on certain time every Monday-Wednesday. I love it!  There is a grill right by the pool as well.     This place has everything I need to get going with my life and I really do not want to go back my house now. In our 4 night stay here, we have not experienced a single issue with the staff or hotel, would gladly stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r316941078-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>316941078</t>
+  </si>
+  <si>
+    <t>10/07/2015</t>
+  </si>
+  <si>
+    <t>Not enough parking</t>
+  </si>
+  <si>
+    <t>I stayed here four times in 2015 and four times in 2014. Breakfast was good. Free beer and snacks Mon-Thurs is nice. BIG PROBLEM: NOT ENOUGH PARKING spaces. Arrived several times after 9 pm from a flight and was told by the staff to find a spot on the grass between the two hotels! Yet they allow huge trailers and Uhauls to take up 6 parking spots? Not cool. I will be staying somewhere else until they figure the parking out.MoreShow less</t>
+  </si>
+  <si>
+    <t>Clint N, General Manager at Residence Inn Fort Worth Alliance Airport, responded to this reviewResponded November 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here four times in 2015 and four times in 2014. Breakfast was good. Free beer and snacks Mon-Thurs is nice. BIG PROBLEM: NOT ENOUGH PARKING spaces. Arrived several times after 9 pm from a flight and was told by the staff to find a spot on the grass between the two hotels! Yet they allow huge trailers and Uhauls to take up 6 parking spots? Not cool. I will be staying somewhere else until they figure the parking out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r312892551-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>312892551</t>
+  </si>
+  <si>
+    <t>09/22/2015</t>
+  </si>
+  <si>
+    <t>Comfortable stay</t>
+  </si>
+  <si>
+    <t>The room was clean and beds very comfortable. The staff was friendly and helpful when I needed an upgrade to my room. Breakfast was a variety of great choices. Easy check-in/out. Close to town, but not too close.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r304390974-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>304390974</t>
+  </si>
+  <si>
+    <t>08/28/2015</t>
+  </si>
+  <si>
+    <t>Worst value of our teip</t>
+  </si>
+  <si>
+    <t>We have been on the road a good part of the month. We paid $164 for this dinky room. One queen bed, small bathroom, no glasses. The room was so small it was barely big enough for the furniture. The bed had a worn out sheet on it that kept slipping off the mattress all night. The breakfast was more than adequate, people friendly. Just disappointed that for the money we got such a small room. The sad thing is, I could have gotten Hilton Honors points for the same money. The hotel was in view of this one where we stayed. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Clint N, General Manager at Residence Inn Fort Worth Alliance Airport, responded to this reviewResponded September 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2015</t>
+  </si>
+  <si>
+    <t>We have been on the road a good part of the month. We paid $164 for this dinky room. One queen bed, small bathroom, no glasses. The room was so small it was barely big enough for the furniture. The bed had a worn out sheet on it that kept slipping off the mattress all night. The breakfast was more than adequate, people friendly. Just disappointed that for the money we got such a small room. The sad thing is, I could have gotten Hilton Honors points for the same money. The hotel was in view of this one where we stayed. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r275738255-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>275738255</t>
+  </si>
+  <si>
+    <t>05/30/2015</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Have not stayed here in awhile but was pleasantly surprised. The rooms had been renovated since the last stay which was about 2 years ago. Good variety at breakfast and the gym had good equipment. The rooms were clean and comfortable. Everything you expect from a Marriott property. Located right off 35W for easy access to everywhere. What really makes this property excellent though is the staff. Everyone from the front desk to the cleaning staff were great. I will definitely be returning!MoreShow less</t>
+  </si>
+  <si>
+    <t>Cory M, Director of Sales at Residence Inn Fort Worth Alliance Airport, responded to this reviewResponded June 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2015</t>
+  </si>
+  <si>
+    <t>Have not stayed here in awhile but was pleasantly surprised. The rooms had been renovated since the last stay which was about 2 years ago. Good variety at breakfast and the gym had good equipment. The rooms were clean and comfortable. Everything you expect from a Marriott property. Located right off 35W for easy access to everywhere. What really makes this property excellent though is the staff. Everyone from the front desk to the cleaning staff were great. I will definitely be returning!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r269814249-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>269814249</t>
+  </si>
+  <si>
+    <t>05/03/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel and the prices were very reasonable</t>
+  </si>
+  <si>
+    <t>This is an average Residence Inn.  The staff was friendly and helpful.  I like that the Breakfast staff was accommodating when we had the end time of the buffet wrong.  We arrived late to breakfast on a weekday because the hours differed compared to Saturday and Sunday hours.  We were not told this at the front desk at check-in though.  But the staff in the breakfast area didn't rush us so that was nice.  If you ask me, I think this place is really far from downtown Ft. Worth, so if you want to go to the central Ft. Worth area then I would stay somewhere closer to avoid all of the freeway drive time.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>This is an average Residence Inn.  The staff was friendly and helpful.  I like that the Breakfast staff was accommodating when we had the end time of the buffet wrong.  We arrived late to breakfast on a weekday because the hours differed compared to Saturday and Sunday hours.  We were not told this at the front desk at check-in though.  But the staff in the breakfast area didn't rush us so that was nice.  If you ask me, I think this place is really far from downtown Ft. Worth, so if you want to go to the central Ft. Worth area then I would stay somewhere closer to avoid all of the freeway drive time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r262196153-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>262196153</t>
+  </si>
+  <si>
+    <t>03/27/2015</t>
+  </si>
+  <si>
+    <t>Wish I could've stayed longer</t>
+  </si>
+  <si>
+    <t>I had to be at Alliance Airport for a work conference early in the morning, so instead of trying to drive in during rush hour, I decided to spend the night locally.  My GPS guided me in via some dark country streets once I got close to the hotel, but what a nice surprise when I arrived. Plenty of free parking. A very patient and helpful front desk. Check in was fast. LOVED my room. I had a very modern, granite topped, flat screen tv, large bathroom suite. It had a sitting area with couch and TV, a kitchen with small table, and a large bedroom and bathroom. Pleasant surprise to discover the connecting door to the next room was the colleague I was working with. She only had the bedroom, so we just opened the connecting door, making it a two bedroom, two bathroom suite. Some evenings they offer a dinner or wine reception. We drove down the highway to a shopping center with a Mi Cocina, Chili's, Fuzzy Taco, etc. we did go down for the complimentary breakfast, which included everything from cereal to eggs and waffles. Pick up a soda or water and snack food at the little Market area beside the front desk. Great workout room. Pool only open seasonally. Free wifi in the room, as well as computers in the lobby with printing. I only reluctantly checked out in the morning as I wish I...I had to be at Alliance Airport for a work conference early in the morning, so instead of trying to drive in during rush hour, I decided to spend the night locally.  My GPS guided me in via some dark country streets once I got close to the hotel, but what a nice surprise when I arrived. Plenty of free parking. A very patient and helpful front desk. Check in was fast. LOVED my room. I had a very modern, granite topped, flat screen tv, large bathroom suite. It had a sitting area with couch and TV, a kitchen with small table, and a large bedroom and bathroom. Pleasant surprise to discover the connecting door to the next room was the colleague I was working with. She only had the bedroom, so we just opened the connecting door, making it a two bedroom, two bathroom suite. Some evenings they offer a dinner or wine reception. We drove down the highway to a shopping center with a Mi Cocina, Chili's, Fuzzy Taco, etc. we did go down for the complimentary breakfast, which included everything from cereal to eggs and waffles. Pick up a soda or water and snack food at the little Market area beside the front desk. Great workout room. Pool only open seasonally. Free wifi in the room, as well as computers in the lobby with printing. I only reluctantly checked out in the morning as I wish I could've enjoyed both the comfortable room and the gym a bit longer. Sonny Bryan's barbecue across the highway on the right. Absolutely quiet area.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>I had to be at Alliance Airport for a work conference early in the morning, so instead of trying to drive in during rush hour, I decided to spend the night locally.  My GPS guided me in via some dark country streets once I got close to the hotel, but what a nice surprise when I arrived. Plenty of free parking. A very patient and helpful front desk. Check in was fast. LOVED my room. I had a very modern, granite topped, flat screen tv, large bathroom suite. It had a sitting area with couch and TV, a kitchen with small table, and a large bedroom and bathroom. Pleasant surprise to discover the connecting door to the next room was the colleague I was working with. She only had the bedroom, so we just opened the connecting door, making it a two bedroom, two bathroom suite. Some evenings they offer a dinner or wine reception. We drove down the highway to a shopping center with a Mi Cocina, Chili's, Fuzzy Taco, etc. we did go down for the complimentary breakfast, which included everything from cereal to eggs and waffles. Pick up a soda or water and snack food at the little Market area beside the front desk. Great workout room. Pool only open seasonally. Free wifi in the room, as well as computers in the lobby with printing. I only reluctantly checked out in the morning as I wish I...I had to be at Alliance Airport for a work conference early in the morning, so instead of trying to drive in during rush hour, I decided to spend the night locally.  My GPS guided me in via some dark country streets once I got close to the hotel, but what a nice surprise when I arrived. Plenty of free parking. A very patient and helpful front desk. Check in was fast. LOVED my room. I had a very modern, granite topped, flat screen tv, large bathroom suite. It had a sitting area with couch and TV, a kitchen with small table, and a large bedroom and bathroom. Pleasant surprise to discover the connecting door to the next room was the colleague I was working with. She only had the bedroom, so we just opened the connecting door, making it a two bedroom, two bathroom suite. Some evenings they offer a dinner or wine reception. We drove down the highway to a shopping center with a Mi Cocina, Chili's, Fuzzy Taco, etc. we did go down for the complimentary breakfast, which included everything from cereal to eggs and waffles. Pick up a soda or water and snack food at the little Market area beside the front desk. Great workout room. Pool only open seasonally. Free wifi in the room, as well as computers in the lobby with printing. I only reluctantly checked out in the morning as I wish I could've enjoyed both the comfortable room and the gym a bit longer. Sonny Bryan's barbecue across the highway on the right. Absolutely quiet area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r246118860-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>246118860</t>
+  </si>
+  <si>
+    <t>12/27/2014</t>
+  </si>
+  <si>
+    <t>Comfortable and safe</t>
+  </si>
+  <si>
+    <t>I've stayed at this Residence Inn 5 times now over the past 3 years while visiting the area for work.  It's nothing special but it's clean, comfortable and safe.  The front desk staff has changed for the better.  They are nicer and more professional.  The rooms are fine.  They are showing a little wear and tear but the hotel is undergoing a renovation at this time.  I think it will look great when it's finished.  Like having the kitchenette although I never use it except for the refrigerator.  It's nice to keep beverages in for afterwork.  The breakfast bar is fine.  The hot entrees could use an upgrade but I pretty much stick to oatmeal and cereal.  The attendant did knock an apple off the bar, let it roll across the floor, didn't wash it off or even wipe it off then put it back in the bowl that it fell out of.  I wasn't impressed by that.  The nightly manager's social hour is meh as far as food choices go.  Cookies at the front desk and lemonade are a nice treat at night.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>I've stayed at this Residence Inn 5 times now over the past 3 years while visiting the area for work.  It's nothing special but it's clean, comfortable and safe.  The front desk staff has changed for the better.  They are nicer and more professional.  The rooms are fine.  They are showing a little wear and tear but the hotel is undergoing a renovation at this time.  I think it will look great when it's finished.  Like having the kitchenette although I never use it except for the refrigerator.  It's nice to keep beverages in for afterwork.  The breakfast bar is fine.  The hot entrees could use an upgrade but I pretty much stick to oatmeal and cereal.  The attendant did knock an apple off the bar, let it roll across the floor, didn't wash it off or even wipe it off then put it back in the bowl that it fell out of.  I wasn't impressed by that.  The nightly manager's social hour is meh as far as food choices go.  Cookies at the front desk and lemonade are a nice treat at night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r224183237-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>224183237</t>
+  </si>
+  <si>
+    <t>08/24/2014</t>
+  </si>
+  <si>
+    <t>Very comfortable stay near Alliance</t>
+  </si>
+  <si>
+    <t>Spent a week at this hotel recently while on business in the Alliance Airport area. Great room/suite, clean, quiet at night. Manager's specials during the week were nice on the evenings when I didn't want to go out. That said, there are several good places nearby. Hotel staff was excellent and very helpful. Breakfast had lots of options and the staff kept the area very clean. I'll stay there again. Highly recommend this hotel if you are in this area.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r216133675-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>216133675</t>
+  </si>
+  <si>
+    <t>07/18/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good hotel room </t>
+  </si>
+  <si>
+    <t>The picture of the hotel is not correct.  There is one taken by ClintN, which shows the right building. I did not check the breakfast or gym.  Same for the pool outside.  There is lemonade and water for free at the lobby.  I also had a microwave and some kind of kitchen on my room.  Everything was clean and WiFi is really fast.  iPod docking station radio on the room as well, although I don't have one ;)  power socket close to the bed!  The only thing I did not like was the guy at the reception when I checked in.  OK, but seemed to be annoyed by me as a customer. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Clint N, Front Office Manager at Residence Inn Fort Worth Alliance Airport, responded to this reviewResponded July 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2014</t>
+  </si>
+  <si>
+    <t>The picture of the hotel is not correct.  There is one taken by ClintN, which shows the right building. I did not check the breakfast or gym.  Same for the pool outside.  There is lemonade and water for free at the lobby.  I also had a microwave and some kind of kitchen on my room.  Everything was clean and WiFi is really fast.  iPod docking station radio on the room as well, although I don't have one ;)  power socket close to the bed!  The only thing I did not like was the guy at the reception when I checked in.  OK, but seemed to be annoyed by me as a customer. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r201708745-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>201708745</t>
+  </si>
+  <si>
+    <t>04/18/2014</t>
+  </si>
+  <si>
+    <t>Although outdated, still good for a trip!</t>
+  </si>
+  <si>
+    <t>Have stayed here twice recently on business. This facility is showing a little age, but that's made up for in the friendly staff, semi-updated rooms (style of TV, seating etc) and good location.Great value for the money when considering the free wifi and breakfast/dinner. +VERY friendly staff! +fast wifi+good business center-bad pillows (this really matters to me, haha!) -small workout room-FedEx planes taking off at 3am across the street were loud....Wasn't for long though, thankfully!The AC in my room was a bit noisy and the walls aren't the thickest, but I still got some good sleep and appreciated the awesome water pressure! Will stay here again on future business trips.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Clint N, Front Office Manager at Residence Inn Fort Worth Alliance Airport, responded to this reviewResponded June 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2014</t>
+  </si>
+  <si>
+    <t>Have stayed here twice recently on business. This facility is showing a little age, but that's made up for in the friendly staff, semi-updated rooms (style of TV, seating etc) and good location.Great value for the money when considering the free wifi and breakfast/dinner. +VERY friendly staff! +fast wifi+good business center-bad pillows (this really matters to me, haha!) -small workout room-FedEx planes taking off at 3am across the street were loud....Wasn't for long though, thankfully!The AC in my room was a bit noisy and the walls aren't the thickest, but I still got some good sleep and appreciated the awesome water pressure! Will stay here again on future business trips.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r200589458-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>200589458</t>
+  </si>
+  <si>
+    <t>04/10/2014</t>
+  </si>
+  <si>
+    <t>Stayed last weekend for NASCAR race and it couldn't of been better. People and rooms were really nice. Morning breakfast was well stocked even though had large crowd. Beds could of been better but not too bad. Left a couple of items behind, got in touch with Ms. James the manager and she had them shipped to us. That was going the extra mile to help us out.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed last weekend for NASCAR race and it couldn't of been better. People and rooms were really nice. Morning breakfast was well stocked even though had large crowd. Beds could of been better but not too bad. Left a couple of items behind, got in touch with Ms. James the manager and she had them shipped to us. That was going the extra mile to help us out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r196493657-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>196493657</t>
+  </si>
+  <si>
+    <t>03/06/2014</t>
+  </si>
+  <si>
+    <t>Almost There...</t>
+  </si>
+  <si>
+    <t>Spent a few nights on a family trip here and have a huge family birthday celebration coming up at the end of the month with like 5 suites. Why oh why they only offer Mon-Thurs for a mixer. Friday and Saturday are the social nights and would be perfect to offer snacks and drinks and what not on weekends when everyone is there. This Mon-Thurs stuff needs to be extended and just not do it on Sunday's.A heated pool would be nice. Doesn't cost all that much to heat an outdoor pool these days. Also, the breakfast felt rushed and like it wasn't fully stocked. This is a great property...a hidden gem. I know if the GM makes a few tweaks it will be a 5 star stay.Anyway, our family will be back in 3 weeks for a 3 birthday celebration.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Spent a few nights on a family trip here and have a huge family birthday celebration coming up at the end of the month with like 5 suites. Why oh why they only offer Mon-Thurs for a mixer. Friday and Saturday are the social nights and would be perfect to offer snacks and drinks and what not on weekends when everyone is there. This Mon-Thurs stuff needs to be extended and just not do it on Sunday's.A heated pool would be nice. Doesn't cost all that much to heat an outdoor pool these days. Also, the breakfast felt rushed and like it wasn't fully stocked. This is a great property...a hidden gem. I know if the GM makes a few tweaks it will be a 5 star stay.Anyway, our family will be back in 3 weeks for a 3 birthday celebration.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r177522504-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>177522504</t>
+  </si>
+  <si>
+    <t>09/17/2013</t>
+  </si>
+  <si>
+    <t>Very Nice Stay</t>
+  </si>
+  <si>
+    <t>Very nice an clean.  Located right across the highway from Alliance Aiport.  Don't let that scare you, there is very little air traffic.  Texas Motor Speedway is 5 minutes away as well.  Dowtown Fort Worth about 10 minutes.  Breakfast:  I sure wish RI would use better recipe for thier "eggs".  If you've stayed at one before you know what I'm talking about.  I've had better powdered eggs when I was on ships in the Navy.  That said, they had the standard morning fare that all the others have.  Didn't make it in time to attend the evening Managers Special so I can't comment on that.  Nice room.  I'd stay here again.  Very pleased.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Heather E, General Manager at Residence Inn Fort Worth Alliance Airport, responded to this reviewResponded October 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2013</t>
+  </si>
+  <si>
+    <t>Very nice an clean.  Located right across the highway from Alliance Aiport.  Don't let that scare you, there is very little air traffic.  Texas Motor Speedway is 5 minutes away as well.  Dowtown Fort Worth about 10 minutes.  Breakfast:  I sure wish RI would use better recipe for thier "eggs".  If you've stayed at one before you know what I'm talking about.  I've had better powdered eggs when I was on ships in the Navy.  That said, they had the standard morning fare that all the others have.  Didn't make it in time to attend the evening Managers Special so I can't comment on that.  Nice room.  I'd stay here again.  Very pleased.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r170746680-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>170746680</t>
+  </si>
+  <si>
+    <t>08/04/2013</t>
+  </si>
+  <si>
+    <t>Could be Better</t>
+  </si>
+  <si>
+    <t>You know it is a good hotel, a Marriott Residence Inn, but there were some points that made me comfortable not rating as an Excellent. The good points first: the hotel is clean and in a safe area. It is really close to Alliance Airport, so it is very convenient if you are going to work there or around. There is a poll a nice fitness area.The not so good points were: the breakfast. If you starts it one hour before it is over, there is no more yogurt or fruits. But if you go to the kitchen and ask for some more, they have it! It happens three consecutive days. It look likes they are saving food.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>You know it is a good hotel, a Marriott Residence Inn, but there were some points that made me comfortable not rating as an Excellent. The good points first: the hotel is clean and in a safe area. It is really close to Alliance Airport, so it is very convenient if you are going to work there or around. There is a poll a nice fitness area.The not so good points were: the breakfast. If you starts it one hour before it is over, there is no more yogurt or fruits. But if you go to the kitchen and ask for some more, they have it! It happens three consecutive days. It look likes they are saving food.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r169445758-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>169445758</t>
+  </si>
+  <si>
+    <t>07/28/2013</t>
+  </si>
+  <si>
+    <t>Disappointing stay--did not meet expectations.</t>
+  </si>
+  <si>
+    <t>This was the smallest excuse for a suite I've ever seen at a Residence Inn. The breakfast hostess refused to bring out more food (waffle batter, fruit) despite having another 30 minutes of time left on posted breakfast hours. Facilities were clean &amp; new; however, we would not stay at this location again. MoreShow less</t>
+  </si>
+  <si>
+    <t>This was the smallest excuse for a suite I've ever seen at a Residence Inn. The breakfast hostess refused to bring out more food (waffle batter, fruit) despite having another 30 minutes of time left on posted breakfast hours. Facilities were clean &amp; new; however, we would not stay at this location again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r159496495-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>159496495</t>
+  </si>
+  <si>
+    <t>05/02/2013</t>
+  </si>
+  <si>
+    <t>Customer Servic</t>
+  </si>
+  <si>
+    <t>We had a group of 6 of us staying for NASCAR 5/11 - 5/13. It was late at night when we got in on the 12th and we ordered food from that freaky fast place but they went to the wrong hotel and would not come to where we were. So Alma our front desk extraordinary got the other Residence inn bring our food to the right hotel. What a way to go beyond customer service. Alma is the best!! i will stay here at every NASCAR event.Dr. Jay PolskyMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Clint N, Manager at Residence Inn Fort Worth Alliance Airport, responded to this reviewResponded May 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2013</t>
+  </si>
+  <si>
+    <t>We had a group of 6 of us staying for NASCAR 5/11 - 5/13. It was late at night when we got in on the 12th and we ordered food from that freaky fast place but they went to the wrong hotel and would not come to where we were. So Alma our front desk extraordinary got the other Residence inn bring our food to the right hotel. What a way to go beyond customer service. Alma is the best!! i will stay here at every NASCAR event.Dr. Jay PolskyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r158468813-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>158468813</t>
+  </si>
+  <si>
+    <t>04/22/2013</t>
+  </si>
+  <si>
+    <t>More than expected</t>
+  </si>
+  <si>
+    <t>My parents, adult children, husband, and I stayed in a two bedroom suite this weekend while traveling to Fort Worth for a wedding. The room was more than any of us expected! Each of the bedrooms and bathrooms were spacious and comfortable. The 'Master Bathroom' had a vanity area separate from the toilet and tub/shower. The little things made our stay great! A large round movable mirror in the master bath allowed all us girls to see our hair from front to back while getting ready. The full size ironing board kept my husband busy pressing out wrinkles. The microwave popcorn made the girls happy after a long day of driving. The fireplace in the living room was a comfortable touch. The 3rd floor view of the pool/tennis area was relaxing. The 3 t.v.'s and their remotes all worked beautifully. The beds were EXTREMELY comfortable for those of us used to sleeping on regular old Serta mattresses at home. The fully functional kitchen, with table and chairs for 4 was nice. Even the pull-out sofa bed gave the girls a good nights sleep. Also exceeding our expectations was the full, hot breakfast! What a treat! Waffles, biscuits
+and gravy, scrambled eggs, sausage patties, toast, bagels, English muffins, blueberry muffins, oatmeal with lots of available toppings, cereal, yogurt, 3 kinds of juice, milk, coffee, FRESH pineapple!, oranges, apples, and bananas...I'm probably leaving something out, but it was GREAT! The young lady...My parents, adult children, husband, and I stayed in a two bedroom suite this weekend while traveling to Fort Worth for a wedding. The room was more than any of us expected! Each of the bedrooms and bathrooms were spacious and comfortable. The 'Master Bathroom' had a vanity area separate from the toilet and tub/shower. The little things made our stay great! A large round movable mirror in the master bath allowed all us girls to see our hair from front to back while getting ready. The full size ironing board kept my husband busy pressing out wrinkles. The microwave popcorn made the girls happy after a long day of driving. The fireplace in the living room was a comfortable touch. The 3rd floor view of the pool/tennis area was relaxing. The 3 t.v.'s and their remotes all worked beautifully. The beds were EXTREMELY comfortable for those of us used to sleeping on regular old Serta mattresses at home. The fully functional kitchen, with table and chairs for 4 was nice. Even the pull-out sofa bed gave the girls a good nights sleep. Also exceeding our expectations was the full, hot breakfast! What a treat! Waffles, biscuitsand gravy, scrambled eggs, sausage patties, toast, bagels, English muffins, blueberry muffins, oatmeal with lots of available toppings, cereal, yogurt, 3 kinds of juice, milk, coffee, FRESH pineapple!, oranges, apples, and bananas...I'm probably leaving something out, but it was GREAT! The young lady at check in was very friendly and knowledgeable, and the manager, Clint, appeared to be delighted to have us at his hotel. It was, all in all, a lovely stay, and I would definitely stay again if visiting the Fort Worth area!MoreShow less</t>
+  </si>
+  <si>
+    <t>Clint N, Manager at Residence Inn Fort Worth Alliance Airport, responded to this reviewResponded May 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2013</t>
+  </si>
+  <si>
+    <t>My parents, adult children, husband, and I stayed in a two bedroom suite this weekend while traveling to Fort Worth for a wedding. The room was more than any of us expected! Each of the bedrooms and bathrooms were spacious and comfortable. The 'Master Bathroom' had a vanity area separate from the toilet and tub/shower. The little things made our stay great! A large round movable mirror in the master bath allowed all us girls to see our hair from front to back while getting ready. The full size ironing board kept my husband busy pressing out wrinkles. The microwave popcorn made the girls happy after a long day of driving. The fireplace in the living room was a comfortable touch. The 3rd floor view of the pool/tennis area was relaxing. The 3 t.v.'s and their remotes all worked beautifully. The beds were EXTREMELY comfortable for those of us used to sleeping on regular old Serta mattresses at home. The fully functional kitchen, with table and chairs for 4 was nice. Even the pull-out sofa bed gave the girls a good nights sleep. Also exceeding our expectations was the full, hot breakfast! What a treat! Waffles, biscuits
+and gravy, scrambled eggs, sausage patties, toast, bagels, English muffins, blueberry muffins, oatmeal with lots of available toppings, cereal, yogurt, 3 kinds of juice, milk, coffee, FRESH pineapple!, oranges, apples, and bananas...I'm probably leaving something out, but it was GREAT! The young lady...My parents, adult children, husband, and I stayed in a two bedroom suite this weekend while traveling to Fort Worth for a wedding. The room was more than any of us expected! Each of the bedrooms and bathrooms were spacious and comfortable. The 'Master Bathroom' had a vanity area separate from the toilet and tub/shower. The little things made our stay great! A large round movable mirror in the master bath allowed all us girls to see our hair from front to back while getting ready. The full size ironing board kept my husband busy pressing out wrinkles. The microwave popcorn made the girls happy after a long day of driving. The fireplace in the living room was a comfortable touch. The 3rd floor view of the pool/tennis area was relaxing. The 3 t.v.'s and their remotes all worked beautifully. The beds were EXTREMELY comfortable for those of us used to sleeping on regular old Serta mattresses at home. The fully functional kitchen, with table and chairs for 4 was nice. Even the pull-out sofa bed gave the girls a good nights sleep. Also exceeding our expectations was the full, hot breakfast! What a treat! Waffles, biscuitsand gravy, scrambled eggs, sausage patties, toast, bagels, English muffins, blueberry muffins, oatmeal with lots of available toppings, cereal, yogurt, 3 kinds of juice, milk, coffee, FRESH pineapple!, oranges, apples, and bananas...I'm probably leaving something out, but it was GREAT! The young lady at check in was very friendly and knowledgeable, and the manager, Clint, appeared to be delighted to have us at his hotel. It was, all in all, a lovely stay, and I would definitely stay again if visiting the Fort Worth area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r157312061-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>157312061</t>
+  </si>
+  <si>
+    <t>04/10/2013</t>
+  </si>
+  <si>
+    <t>Way better than the competition</t>
+  </si>
+  <si>
+    <t>I stayed in a one bedroom studio, which offered lots of great amenities for long-term travelers and families. The two-bedroom suites were much roomier and well worth the slightly higher price. The kitchenette in my room included a dishwasher, full sized refrigerator, stove, oven, small dining room table that doubled as an office worktable, spacious living room, and large bathroom. The living room included a nice couch, reclining chair, and nice sized HDTV. The room was clean. I encountered two minor maintainance issues. One of the closet doors was off its hinges and the curtain rod hung down instead of bowed out as its designed to do. Neither were big enough for me to mention until I checked out after three days.The front desk staff was very nice. As with all Residence Inns, the hot breakfast and heavy appetizers during the early evening 90-minute "happy hour" offers delicious food at no cost. Food at both was very good. Other guests enjoyed the pool and outdoor hot tub. The workout room was small but functional. Bottom line is that this Residence Inn offers nickers, larger rooms with more amenities than any of the other nearby hotels. I would absolutely stay at this hotel versus any of the others in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed in a one bedroom studio, which offered lots of great amenities for long-term travelers and families. The two-bedroom suites were much roomier and well worth the slightly higher price. The kitchenette in my room included a dishwasher, full sized refrigerator, stove, oven, small dining room table that doubled as an office worktable, spacious living room, and large bathroom. The living room included a nice couch, reclining chair, and nice sized HDTV. The room was clean. I encountered two minor maintainance issues. One of the closet doors was off its hinges and the curtain rod hung down instead of bowed out as its designed to do. Neither were big enough for me to mention until I checked out after three days.The front desk staff was very nice. As with all Residence Inns, the hot breakfast and heavy appetizers during the early evening 90-minute "happy hour" offers delicious food at no cost. Food at both was very good. Other guests enjoyed the pool and outdoor hot tub. The workout room was small but functional. Bottom line is that this Residence Inn offers nickers, larger rooms with more amenities than any of the other nearby hotels. I would absolutely stay at this hotel versus any of the others in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r154012571-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>154012571</t>
+  </si>
+  <si>
+    <t>03/08/2013</t>
+  </si>
+  <si>
+    <t>THE BEST</t>
+  </si>
+  <si>
+    <t>Stayed at this Hotel  twice in a three week period and received the same excellent service both times.  We require an accessible room and the staff went out of their way to make sure that the room we stayed in met all our needs. The rooms are spacious and pleasant.  Laundry room was clean.  Breakfast and evening meals were good.  Can't say enough good about our experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Clint N, Manager at Residence Inn Fort Worth Alliance Airport, responded to this reviewResponded March 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2013</t>
+  </si>
+  <si>
+    <t>Stayed at this Hotel  twice in a three week period and received the same excellent service both times.  We require an accessible room and the staff went out of their way to make sure that the room we stayed in met all our needs. The rooms are spacious and pleasant.  Laundry room was clean.  Breakfast and evening meals were good.  Can't say enough good about our experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r153181999-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>153181999</t>
+  </si>
+  <si>
+    <t>02/26/2013</t>
+  </si>
+  <si>
+    <t>Comfortable Stay</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel for a weekend dance competition.  The hotel was clean and beds were comfortable. Hotel was close to many restaurants and the airport.  Only complaint the towels were a little worn.  Overall great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel for a weekend dance competition.  The hotel was clean and beds were comfortable. Hotel was close to many restaurants and the airport.  Only complaint the towels were a little worn.  Overall great stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r152858002-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>152858002</t>
+  </si>
+  <si>
+    <t>02/23/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay after a long working day</t>
+  </si>
+  <si>
+    <t>As a first time visitor to this Residence Inn, I am glad I didn't go with my first instinct to stay at the Marriott Hotel and Golf course located at the Texas Speedway. 
+First of all, this hotel is much more conveniently located to my client's location. 
+Second, the hotel has a couple of quick service restaurants and a convenience store within walking distance, whereas the Marriott stands in magnficient isolation about 1/2 mile from 114 West. 
+Most importantly, the Residence Inn is quiet, comfortable, clean, and has a friendly, competent yet unobtrusive staff who go the extra mile to make you feel welcome. 
+My room was a studio sized room with all the amenities a business traveller needs - free Wifi, iron+board, plenty of hot water, flat screen TV with 2 HBO channels, working area with a comfortable adjustable swivel chair, a kichenette with microwave, sink, coffee maker, can opener and some utensils (but curiously no spoons or forks, just one knife).It had a door connecting it to the adjoining room, which means families can get two rooms and turn it into a mini-suite.
+The hotel has a nicely appointed gym on premises, a decent sized pool and hot-water jacuzzi, and even a basketball court. Plenty of parking. Coin-operated washers and dryers on 2nd floor. Sundries (interestingly no OTC painrelievers except for Midol), microwaveable food and cold drinks for sale by the reception.
+Breakfast is included and plentiful -...As a first time visitor to this Residence Inn, I am glad I didn't go with my first instinct to stay at the Marriott Hotel and Golf course located at the Texas Speedway. First of all, this hotel is much more conveniently located to my client's location. Second, the hotel has a couple of quick service restaurants and a convenience store within walking distance, whereas the Marriott stands in magnficient isolation about 1/2 mile from 114 West. Most importantly, the Residence Inn is quiet, comfortable, clean, and has a friendly, competent yet unobtrusive staff who go the extra mile to make you feel welcome. My room was a studio sized room with all the amenities a business traveller needs - free Wifi, iron+board, plenty of hot water, flat screen TV with 2 HBO channels, working area with a comfortable adjustable swivel chair, a kichenette with microwave, sink, coffee maker, can opener and some utensils (but curiously no spoons or forks, just one knife).It had a door connecting it to the adjoining room, which means families can get two rooms and turn it into a mini-suite.The hotel has a nicely appointed gym on premises, a decent sized pool and hot-water jacuzzi, and even a basketball court. Plenty of parking. Coin-operated washers and dryers on 2nd floor. Sundries (interestingly no OTC painrelievers except for Midol), microwaveable food and cold drinks for sale by the reception.Breakfast is included and plentiful - scrambled eggs, sausage patties, hash browns, biscuits with gravy, french toast, potato pancakes, fresh fruit, several varieties of cereal, muffins, donuts, coffee (they had my favorite Irish Creme creamer plus several other flavors), a selection of teas, juices, etc. etc. etc. Everything a growing (well, at least across the middle) boy needs to start off the day. :)Every night from 6 - 7:30 the hotel has a Social or Happy Hour, with FREE tap beer and wine and FREE food! A different dish every night - Monday was Mexican, Tuesday was Italian, Wednesday was burgers and fries, Thursday was sandwiches. You get a lot of value for your dollars here. Recommended if you're passing by or have business in the area.The only negatives (more like nits) during my stay? 1- Every morning the dining room's TV featured FauxNews. Loudly. Yikes.2- We had a fire alarm go off at 2 AM on Thursday morning - thank God it was a false alarm - a guest decided to smoke in their room (the hotel is 100% non-smoking). We spent almost an hour outside in a 30-degree drizzle. The fire department showed up IMMEDIATELY though - the station must be very close. 3- The ice machine is located inside the 2nd floor laundry room, which has a keycard lock. This is not a problem except when you're trying to get ice after 10 PM - I guess they lock the laundry room at that time so guests nearby aren't disturbed by washer/dryer noise at night. Next time I visit my client I'll be staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>As a first time visitor to this Residence Inn, I am glad I didn't go with my first instinct to stay at the Marriott Hotel and Golf course located at the Texas Speedway. 
+First of all, this hotel is much more conveniently located to my client's location. 
+Second, the hotel has a couple of quick service restaurants and a convenience store within walking distance, whereas the Marriott stands in magnficient isolation about 1/2 mile from 114 West. 
+Most importantly, the Residence Inn is quiet, comfortable, clean, and has a friendly, competent yet unobtrusive staff who go the extra mile to make you feel welcome. 
+My room was a studio sized room with all the amenities a business traveller needs - free Wifi, iron+board, plenty of hot water, flat screen TV with 2 HBO channels, working area with a comfortable adjustable swivel chair, a kichenette with microwave, sink, coffee maker, can opener and some utensils (but curiously no spoons or forks, just one knife).It had a door connecting it to the adjoining room, which means families can get two rooms and turn it into a mini-suite.
+The hotel has a nicely appointed gym on premises, a decent sized pool and hot-water jacuzzi, and even a basketball court. Plenty of parking. Coin-operated washers and dryers on 2nd floor. Sundries (interestingly no OTC painrelievers except for Midol), microwaveable food and cold drinks for sale by the reception.
+Breakfast is included and plentiful -...As a first time visitor to this Residence Inn, I am glad I didn't go with my first instinct to stay at the Marriott Hotel and Golf course located at the Texas Speedway. First of all, this hotel is much more conveniently located to my client's location. Second, the hotel has a couple of quick service restaurants and a convenience store within walking distance, whereas the Marriott stands in magnficient isolation about 1/2 mile from 114 West. Most importantly, the Residence Inn is quiet, comfortable, clean, and has a friendly, competent yet unobtrusive staff who go the extra mile to make you feel welcome. My room was a studio sized room with all the amenities a business traveller needs - free Wifi, iron+board, plenty of hot water, flat screen TV with 2 HBO channels, working area with a comfortable adjustable swivel chair, a kichenette with microwave, sink, coffee maker, can opener and some utensils (but curiously no spoons or forks, just one knife).It had a door connecting it to the adjoining room, which means families can get two rooms and turn it into a mini-suite.The hotel has a nicely appointed gym on premises, a decent sized pool and hot-water jacuzzi, and even a basketball court. Plenty of parking. Coin-operated washers and dryers on 2nd floor. Sundries (interestingly no OTC painrelievers except for Midol), microwaveable food and cold drinks for sale by the reception.Breakfast is included and plentiful - scrambled eggs, sausage patties, hash browns, biscuits with gravy, french toast, potato pancakes, fresh fruit, several varieties of cereal, muffins, donuts, coffee (they had my favorite Irish Creme creamer plus several other flavors), a selection of teas, juices, etc. etc. etc. Everything a growing (well, at least across the middle) boy needs to start off the day. :)Every night from 6 - 7:30 the hotel has a Social or Happy Hour, with FREE tap beer and wine and FREE food! A different dish every night - Monday was Mexican, Tuesday was Italian, Wednesday was burgers and fries, Thursday was sandwiches. You get a lot of value for your dollars here. Recommended if you're passing by or have business in the area.The only negatives (more like nits) during my stay? 1- Every morning the dining room's TV featured FauxNews. Loudly. Yikes.2- We had a fire alarm go off at 2 AM on Thursday morning - thank God it was a false alarm - a guest decided to smoke in their room (the hotel is 100% non-smoking). We spent almost an hour outside in a 30-degree drizzle. The fire department showed up IMMEDIATELY though - the station must be very close. 3- The ice machine is located inside the 2nd floor laundry room, which has a keycard lock. This is not a problem except when you're trying to get ice after 10 PM - I guess they lock the laundry room at that time so guests nearby aren't disturbed by washer/dryer noise at night. Next time I visit my client I'll be staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r146088414-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>146088414</t>
+  </si>
+  <si>
+    <t>11/24/2012</t>
+  </si>
+  <si>
+    <t>good location</t>
+  </si>
+  <si>
+    <t>good location for fort worth alliance airport.Friendly staff clean spacious rooms,good breakfast and happy hour 4 times a week.Has business center and fitness room which must start using next trip.Cant think of any down side about 10-15 min drive to nearest shopping mall etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Clint N, Manager at Residence Inn Fort Worth Alliance Airport, responded to this reviewResponded November 28, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2012</t>
+  </si>
+  <si>
+    <t>good location for fort worth alliance airport.Friendly staff clean spacious rooms,good breakfast and happy hour 4 times a week.Has business center and fitness room which must start using next trip.Cant think of any down side about 10-15 min drive to nearest shopping mall etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r145826860-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>145826860</t>
+  </si>
+  <si>
+    <t>11/20/2012</t>
+  </si>
+  <si>
+    <t>2nd home for 2 weeks</t>
+  </si>
+  <si>
+    <t>My husband had business in the area and was not able to fly so I drove him to Ft Worth from Naples, FL.  We stayed 2 weeks and it couldn't have been better.  Close to the office he was working at and easy for me to navigate around the area.  There are lots of choices for breakfast; something for everyone.  Happy hour in the evening is also very good; different offerings each night that it is available.  The staff is very friendly and helpful especially Clint and everyone else that works there.  My husband has more business in the area in the coming months and most definitely will be staying at the Residence Inn.Thanks for taking such good care of us!MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband had business in the area and was not able to fly so I drove him to Ft Worth from Naples, FL.  We stayed 2 weeks and it couldn't have been better.  Close to the office he was working at and easy for me to navigate around the area.  There are lots of choices for breakfast; something for everyone.  Happy hour in the evening is also very good; different offerings each night that it is available.  The staff is very friendly and helpful especially Clint and everyone else that works there.  My husband has more business in the area in the coming months and most definitely will be staying at the Residence Inn.Thanks for taking such good care of us!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r145725942-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>145725942</t>
+  </si>
+  <si>
+    <t>11/19/2012</t>
+  </si>
+  <si>
+    <t>Clean and Friendly Hotel</t>
+  </si>
+  <si>
+    <t>I was greeted with a smile and a friendly employee.  I was checked in, I was informed of the happy hour, and directions to my hotel.  I had a studio room, when I entered, it was clean and very spacious.  The bed was comfortable, the kitchenette was clean, the Tv swivelled so you can see it any point in the room.  I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was greeted with a smile and a friendly employee.  I was checked in, I was informed of the happy hour, and directions to my hotel.  I had a studio room, when I entered, it was clean and very spacious.  The bed was comfortable, the kitchenette was clean, the Tv swivelled so you can see it any point in the room.  I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r141696632-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>141696632</t>
+  </si>
+  <si>
+    <t>09/30/2012</t>
+  </si>
+  <si>
+    <t>nice stay</t>
+  </si>
+  <si>
+    <t>We arrived late at night and walked in to a check-in area that had been completely flooded.  There were fans running everywhere and water damage on the ceilings and walls.  The computers didn't work at the front desk and they had to work from a computer in the back office.  I only mention this because with these conditions,it would have been understandable if the two women behind the front desk had been unfriendly, but it was just the opposite.  They were so nice and checked us in as quickly as possible.The room was nice and clean.  Breakfast was okay.  Plenty of choices, but we got to breakfast kind of late .  The biscuits were hard and the fruit seemed old.  I'm sure it would have been better if we had arrived to breakfast earlier.  I'd definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Clint N, Front Office Manager at Residence Inn Fort Worth Alliance Airport, responded to this reviewResponded November 11, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2012</t>
+  </si>
+  <si>
+    <t>We arrived late at night and walked in to a check-in area that had been completely flooded.  There were fans running everywhere and water damage on the ceilings and walls.  The computers didn't work at the front desk and they had to work from a computer in the back office.  I only mention this because with these conditions,it would have been understandable if the two women behind the front desk had been unfriendly, but it was just the opposite.  They were so nice and checked us in as quickly as possible.The room was nice and clean.  Breakfast was okay.  Plenty of choices, but we got to breakfast kind of late .  The biscuits were hard and the fruit seemed old.  I'm sure it would have been better if we had arrived to breakfast earlier.  I'd definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r139337095-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>139337095</t>
+  </si>
+  <si>
+    <t>09/04/2012</t>
+  </si>
+  <si>
+    <t>Overall a good hotel</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel typical of Marriott the room was nice and clean,and breakfast was pretty good.Not the best residence inn that i've stayed at but still nice. Only complaint that I have I was told there wouldn't be any hidden fees since paying with a credit card and of course there were.MoreShow less</t>
+  </si>
+  <si>
+    <t>LynGM2011, General Manager at Residence Inn Fort Worth Alliance Airport, responded to this reviewResponded September 5, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2012</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel typical of Marriott the room was nice and clean,and breakfast was pretty good.Not the best residence inn that i've stayed at but still nice. Only complaint that I have I was told there wouldn't be any hidden fees since paying with a credit card and of course there were.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r138829798-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>138829798</t>
+  </si>
+  <si>
+    <t>08/29/2012</t>
+  </si>
+  <si>
+    <t>Moderate furnishings with noise...</t>
+  </si>
+  <si>
+    <t>After reading reviews of this hotel and seeing pictures I was certain that this would be a nice place to stay while working in the Fort Worth area. Two weeks ago I stayed at the Hyatt Place in the Stockyards (WAY BETTER!), and I felt this hotel would be similar with a more convenient drive. Needless to say I would rather drive twice the distance to stay in the Hyatt again, however I am stuck here for the week. At night the airport and air conditioning unit noises have kept me from sleeping well. Upon entering the room for the first time it looked in order, but when taking a closer look I noticed several dingy items: a large towel had a booger and a smaller towel had a brown smudge, the sheets had multiple gray marks that looked like mascara, and the toiletries had obviously been used and left by the person ahead of me (some here half full). I called the front desk and received an apology. All items were replaced and since then I have not noticed anything else that dirty. Breakfast is okay and overall the staff has been friendly. Next time I will not stay here. As noted in previous reviews, I don't think this hotel stands up to its Tripadvisor rating... it is a bit inflated.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>After reading reviews of this hotel and seeing pictures I was certain that this would be a nice place to stay while working in the Fort Worth area. Two weeks ago I stayed at the Hyatt Place in the Stockyards (WAY BETTER!), and I felt this hotel would be similar with a more convenient drive. Needless to say I would rather drive twice the distance to stay in the Hyatt again, however I am stuck here for the week. At night the airport and air conditioning unit noises have kept me from sleeping well. Upon entering the room for the first time it looked in order, but when taking a closer look I noticed several dingy items: a large towel had a booger and a smaller towel had a brown smudge, the sheets had multiple gray marks that looked like mascara, and the toiletries had obviously been used and left by the person ahead of me (some here half full). I called the front desk and received an apology. All items were replaced and since then I have not noticed anything else that dirty. Breakfast is okay and overall the staff has been friendly. Next time I will not stay here. As noted in previous reviews, I don't think this hotel stands up to its Tripadvisor rating... it is a bit inflated.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r136914811-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>136914811</t>
+  </si>
+  <si>
+    <t>08/11/2012</t>
+  </si>
+  <si>
+    <t>Less than average quality Marriott property...</t>
+  </si>
+  <si>
+    <t>The room carpet and furniture are soiled and nasty. It is obvious that pets are allowed due to the late night barking, that was not corrected by management when brought to their attention. This is my second (2 week) stay at this marriott property in 2 years. I figured I would try them again, but nothing has changed.. won't stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>LynGM2011, General Manager at Residence Inn Fort Worth Alliance Airport, responded to this reviewResponded August 14, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2012</t>
+  </si>
+  <si>
+    <t>The room carpet and furniture are soiled and nasty. It is obvious that pets are allowed due to the late night barking, that was not corrected by management when brought to their attention. This is my second (2 week) stay at this marriott property in 2 years. I figured I would try them again, but nothing has changed.. won't stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r135571051-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>135571051</t>
+  </si>
+  <si>
+    <t>07/27/2012</t>
+  </si>
+  <si>
+    <t>Outstanding hotel experience</t>
+  </si>
+  <si>
+    <t>I spend in excess of 150 nights a year in hotels and the Residence Inn Alliance is my favorite spot, great staff, easy access to the work area and social nights.Highly recommend if you are in the local area and need a great palce to lay your head make plans to stay at the Residence Inn Alliance.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>I spend in excess of 150 nights a year in hotels and the Residence Inn Alliance is my favorite spot, great staff, easy access to the work area and social nights.Highly recommend if you are in the local area and need a great palce to lay your head make plans to stay at the Residence Inn Alliance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r135506129-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>135506129</t>
+  </si>
+  <si>
+    <t>07/26/2012</t>
+  </si>
+  <si>
+    <t>The rooms have a lot of space!</t>
+  </si>
+  <si>
+    <t>Our stay there was great. It was just like the pics on the internet. And it had all the amenities you could think of and very clean and roomy. loved it would stay there again!!! They had a real breakfast bar and they also served FREE soup and salad bar on monday, tuesday, wensday and thursday nites!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Our stay there was great. It was just like the pics on the internet. And it had all the amenities you could think of and very clean and roomy. loved it would stay there again!!! They had a real breakfast bar and they also served FREE soup and salad bar on monday, tuesday, wensday and thursday nites!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r133311808-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>133311808</t>
+  </si>
+  <si>
+    <t>07/02/2012</t>
+  </si>
+  <si>
+    <t>Very nice...friendly</t>
+  </si>
+  <si>
+    <t>Clean and has all the amenities..no bar or real restaurant.  Management is top notch and gets things done.MoreShow less</t>
+  </si>
+  <si>
+    <t>LynGM2011, General Manager at Residence Inn Fort Worth Alliance Airport, responded to this reviewResponded July 26, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2012</t>
+  </si>
+  <si>
+    <t>Clean and has all the amenities..no bar or real restaurant.  Management is top notch and gets things done.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r130262603-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>130262603</t>
+  </si>
+  <si>
+    <t>05/20/2012</t>
+  </si>
+  <si>
+    <t>Very cozy place.</t>
+  </si>
+  <si>
+    <t>Stayed here on a whim, the rooms are very spacious and are well furnished.  Also very clean!  MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 25, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2012</t>
+  </si>
+  <si>
+    <t>Stayed here on a whim, the rooms are very spacious and are well furnished.  Also very clean!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r130123137-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>130123137</t>
+  </si>
+  <si>
+    <t>05/17/2012</t>
+  </si>
+  <si>
+    <t>Magical Mystery Review</t>
+  </si>
+  <si>
+    <t>Drove from Jackson, MS (w/ 2 hrs in Vicksburg) through Dallas/Ft W rush hour and the yellow brick road brought us to their door.  As a Lifetime Marriott Member I do understand loyality.  Maricruz could not have been more gracious and helpful in that we knocked on the door of the Inn sans reservations.  Her efforts yesterday on our behalf are greatly appreciated.Culture of any organization or "location" is a top-down influence.  The GM is Ms Lynette Hooper who truely carries a wonderful spirit, sense of humour and Marriott quailty and efficiency.  Discussed that we'd like to find a similar Marriott product in Boulder, CO for Mem Day Wkend.  Her Marriott knowledge of the system was superior and in no time had us settled there with a reservation when most properties are sold out for that wkend.I hope someone within Marriott's Management System reads this as yes, I am a "Lifer"  A few of us do walk in the doors from time to time.  This "Troop" DESERVES recognition! Good Show!Stanton D.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Drove from Jackson, MS (w/ 2 hrs in Vicksburg) through Dallas/Ft W rush hour and the yellow brick road brought us to their door.  As a Lifetime Marriott Member I do understand loyality.  Maricruz could not have been more gracious and helpful in that we knocked on the door of the Inn sans reservations.  Her efforts yesterday on our behalf are greatly appreciated.Culture of any organization or "location" is a top-down influence.  The GM is Ms Lynette Hooper who truely carries a wonderful spirit, sense of humour and Marriott quailty and efficiency.  Discussed that we'd like to find a similar Marriott product in Boulder, CO for Mem Day Wkend.  Her Marriott knowledge of the system was superior and in no time had us settled there with a reservation when most properties are sold out for that wkend.I hope someone within Marriott's Management System reads this as yes, I am a "Lifer"  A few of us do walk in the doors from time to time.  This "Troop" DESERVES recognition! Good Show!Stanton D.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r128169073-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>128169073</t>
+  </si>
+  <si>
+    <t>04/19/2012</t>
+  </si>
+  <si>
+    <t>Front desk staff is the best and location is very convenient</t>
+  </si>
+  <si>
+    <t>Upon checking in, Clint and Austin were both great. The customer service is top notch and very welcoming. The room was clean and quiet, and the hotel itself is very easy to access off of I-35 W. I've got two more upcoming trips to the area, and I'll definitely be booking my stays here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>Upon checking in, Clint and Austin were both great. The customer service is top notch and very welcoming. The room was clean and quiet, and the hotel itself is very easy to access off of I-35 W. I've got two more upcoming trips to the area, and I'll definitely be booking my stays here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r125107383-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>125107383</t>
+  </si>
+  <si>
+    <t>02/23/2012</t>
+  </si>
+  <si>
+    <t>Easy to find, Excellent place to stay!</t>
+  </si>
+  <si>
+    <t>We stayed here for three nights, during a family event. Our family had two rooms across the hall from one another. Rooms are spacious, clean and nicely laid out with bed off to the side from the sitting room/kitchen area.
+ Being set up as extended stay hotel there is a full fridge, cooktop, dishwasher, dishes and pots for those wanting to cook in room. Unlike some extended stay hotels, this one has daily housekeeping, for making beds, exchanging towels, and emptying the trash.
+ I was impressed with hotel staff from the moment I called to make reservations! VERY helpful and accommodating!
+There is breakfast served each morning, and boasts about a social type hour in the evenings some nights- but not clear on what time this takes place. We weren't around to try that out. Breakfast is the usual fare, but plenty of choices, and good coffee!
+Hard to find any faults here, but if forced to make recommendations- the towels could use updating as they are getting a bit thin, and the double closet mirrored doors were off the track and unable to really be used in both rooms our family had. Hubby and brother tried to get doors back on track but not successful. Also our room has a noisy fan in the toilet/tub area. That being said, these are minor things and would not deter me or our family from staying here again, or trying other hotels...We stayed here for three nights, during a family event. Our family had two rooms across the hall from one another. Rooms are spacious, clean and nicely laid out with bed off to the side from the sitting room/kitchen area. Being set up as extended stay hotel there is a full fridge, cooktop, dishwasher, dishes and pots for those wanting to cook in room. Unlike some extended stay hotels, this one has daily housekeeping, for making beds, exchanging towels, and emptying the trash. I was impressed with hotel staff from the moment I called to make reservations! VERY helpful and accommodating!There is breakfast served each morning, and boasts about a social type hour in the evenings some nights- but not clear on what time this takes place. We weren't around to try that out. Breakfast is the usual fare, but plenty of choices, and good coffee!Hard to find any faults here, but if forced to make recommendations- the towels could use updating as they are getting a bit thin, and the double closet mirrored doors were off the track and unable to really be used in both rooms our family had. Hubby and brother tried to get doors back on track but not successful. Also our room has a noisy fan in the toilet/tub area. That being said, these are minor things and would not deter me or our family from staying here again, or trying other hotels elsewhere of the same brand.  Good sleep, rooms comfortable and spacious!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>We stayed here for three nights, during a family event. Our family had two rooms across the hall from one another. Rooms are spacious, clean and nicely laid out with bed off to the side from the sitting room/kitchen area.
+ Being set up as extended stay hotel there is a full fridge, cooktop, dishwasher, dishes and pots for those wanting to cook in room. Unlike some extended stay hotels, this one has daily housekeeping, for making beds, exchanging towels, and emptying the trash.
+ I was impressed with hotel staff from the moment I called to make reservations! VERY helpful and accommodating!
+There is breakfast served each morning, and boasts about a social type hour in the evenings some nights- but not clear on what time this takes place. We weren't around to try that out. Breakfast is the usual fare, but plenty of choices, and good coffee!
+Hard to find any faults here, but if forced to make recommendations- the towels could use updating as they are getting a bit thin, and the double closet mirrored doors were off the track and unable to really be used in both rooms our family had. Hubby and brother tried to get doors back on track but not successful. Also our room has a noisy fan in the toilet/tub area. That being said, these are minor things and would not deter me or our family from staying here again, or trying other hotels...We stayed here for three nights, during a family event. Our family had two rooms across the hall from one another. Rooms are spacious, clean and nicely laid out with bed off to the side from the sitting room/kitchen area. Being set up as extended stay hotel there is a full fridge, cooktop, dishwasher, dishes and pots for those wanting to cook in room. Unlike some extended stay hotels, this one has daily housekeeping, for making beds, exchanging towels, and emptying the trash. I was impressed with hotel staff from the moment I called to make reservations! VERY helpful and accommodating!There is breakfast served each morning, and boasts about a social type hour in the evenings some nights- but not clear on what time this takes place. We weren't around to try that out. Breakfast is the usual fare, but plenty of choices, and good coffee!Hard to find any faults here, but if forced to make recommendations- the towels could use updating as they are getting a bit thin, and the double closet mirrored doors were off the track and unable to really be used in both rooms our family had. Hubby and brother tried to get doors back on track but not successful. Also our room has a noisy fan in the toilet/tub area. That being said, these are minor things and would not deter me or our family from staying here again, or trying other hotels elsewhere of the same brand.  Good sleep, rooms comfortable and spacious!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r123839678-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>123839678</t>
+  </si>
+  <si>
+    <t>01/30/2012</t>
+  </si>
+  <si>
+    <t>Convenient</t>
+  </si>
+  <si>
+    <t>On business trip. Very close to my destination. Ok gym, but was on trip for 3 weeks so joined a local gym. Breakfasts were fantastic ! Bed not so much.....needed porter to put flat plywood between mattress and box spring to get an ok nights sleep.....I'd still recommend this place but they really need to update the beds.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>LynGM2011, General Manager at Residence Inn Fort Worth Alliance Airport, responded to this reviewResponded August 27, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 27, 2012</t>
+  </si>
+  <si>
+    <t>On business trip. Very close to my destination. Ok gym, but was on trip for 3 weeks so joined a local gym. Breakfasts were fantastic ! Bed not so much.....needed porter to put flat plywood between mattress and box spring to get an ok nights sleep.....I'd still recommend this place but they really need to update the beds.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r118980353-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>118980353</t>
+  </si>
+  <si>
+    <t>10/05/2011</t>
+  </si>
+  <si>
+    <t>Great Location and Friendly Staff !</t>
+  </si>
+  <si>
+    <t>This is my 3rd visit at the Residence Inn Fort Worth Alliance/Airport while on business. The hotel is clean and functional. The staff makes you feel welcome and is eager to help. I would recommend Residence Inn Fort Worth Alliance/Airport for business travelers.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>LynGM2011, General Manager at Residence Inn Fort Worth Alliance Airport, responded to this reviewResponded November 30, 2011</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2011</t>
+  </si>
+  <si>
+    <t>This is my 3rd visit at the Residence Inn Fort Worth Alliance/Airport while on business. The hotel is clean and functional. The staff makes you feel welcome and is eager to help. I would recommend Residence Inn Fort Worth Alliance/Airport for business travelers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r118905668-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>118905668</t>
+  </si>
+  <si>
+    <t>10/03/2011</t>
+  </si>
+  <si>
+    <t>Typical residence inn but we lost power for 30 minutes</t>
+  </si>
+  <si>
+    <t>We arrived just before a storm hit and the entire hotel lost power for about 30 minutes....I was in the shower when it happened...very dark.  I think they had a backup generator, but it did not work, obviously.  However, the bed the good and the breakfast was the typical hot items and mixture of other things.  The only bad part and this is why they are getting 3 star instead of 5 and there is nothing they can do about it, is their location.  It is right next tot he Alliance Airport and jets were taking off all through the night.  I was woken up at 3:00 a.m. and several other times.  So if getting a full nights sleep is important to you, I would find another place.  Also, it was double the price that we paid the next night in Kansas City.  The price was close to 200.00.MoreShow less</t>
+  </si>
+  <si>
+    <t>We arrived just before a storm hit and the entire hotel lost power for about 30 minutes....I was in the shower when it happened...very dark.  I think they had a backup generator, but it did not work, obviously.  However, the bed the good and the breakfast was the typical hot items and mixture of other things.  The only bad part and this is why they are getting 3 star instead of 5 and there is nothing they can do about it, is their location.  It is right next tot he Alliance Airport and jets were taking off all through the night.  I was woken up at 3:00 a.m. and several other times.  So if getting a full nights sleep is important to you, I would find another place.  Also, it was double the price that we paid the next night in Kansas City.  The price was close to 200.00.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r118321556-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>118321556</t>
+  </si>
+  <si>
+    <t>09/19/2011</t>
+  </si>
+  <si>
+    <t>Beautiful rooms, great service, a home away from home!</t>
+  </si>
+  <si>
+    <t>Property is very well maintained, rooms are NICE and beautifully decorated!! Clean, clean, clean. We had to switch from 222 (beautiful pool view, flowers all around the window, but AC wasn't working at full capacity) to 422. Front Desk was very helpful ,took them no time to accommodate us. The interior of the rooms is really cozy, nice and brand new. Housekeeping does an excellent job to keep all immaculate. I was really surprised. We were trying to stay at Champion Gate, but it was sold out, so this really wasn't our first choice at all. But we needed to be minutes away from the Bell Facility, so there were not that many options. Pool area is very nice, small gym, staff is very helpful. All in all, a home away from home. Just really enjoyed the property. Breakfast is good as well.  And again, in my opinion this property is better maintained than other hotels, where I stayed and paid way more money per night. You can NOT go wrong here!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>Property is very well maintained, rooms are NICE and beautifully decorated!! Clean, clean, clean. We had to switch from 222 (beautiful pool view, flowers all around the window, but AC wasn't working at full capacity) to 422. Front Desk was very helpful ,took them no time to accommodate us. The interior of the rooms is really cozy, nice and brand new. Housekeeping does an excellent job to keep all immaculate. I was really surprised. We were trying to stay at Champion Gate, but it was sold out, so this really wasn't our first choice at all. But we needed to be minutes away from the Bell Facility, so there were not that many options. Pool area is very nice, small gym, staff is very helpful. All in all, a home away from home. Just really enjoyed the property. Breakfast is good as well.  And again, in my opinion this property is better maintained than other hotels, where I stayed and paid way more money per night. You can NOT go wrong here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r115087305-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>115087305</t>
+  </si>
+  <si>
+    <t>07/06/2011</t>
+  </si>
+  <si>
+    <t>we enjoyed the whole experience and will return</t>
+  </si>
+  <si>
+    <t>the whole experience was totally satisfying. the housekeeping cleaned very good and was quick. the pool was very clean and enjoyable. the barbeque pits and basketball courts are an added touch. the front desk was always eager to please and very helpful. They went out of their way to make you feel at home.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r114694320-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>114694320</t>
+  </si>
+  <si>
+    <t>06/23/2011</t>
+  </si>
+  <si>
+    <t>Just like Home!</t>
+  </si>
+  <si>
+    <t>My stay was from March 2011 to June 2011.  During these 3 months the staff at Residence Inn FW A/A made me feel at home.  I've stayed at different Marriott hotels, this one by far exceeded my expectations.  Everyone greeted me with a smile and were very helpful and accommodating.  Thank you to all for making me feel at home.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r108263627-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>108263627</t>
+  </si>
+  <si>
+    <t>05/14/2011</t>
+  </si>
+  <si>
+    <t>Kudo's to Mr. Nauls</t>
+  </si>
+  <si>
+    <t>I was on a business trip I met a gentleman by the name of Clint Nauls. He was very professional and knows his business! I thought he was the Manager of Residence Inn, he not only was managing the front desk Mr Nauls knew all aspects of the business. I am speaking from how to run the Hotel business to providing excellent customer service! If I could I would clone Mr. Nauls and guarantee I would have a successful business. If Mr. Nauls boss reads this you better give this man a raise or someone else will!</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r104407897-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>104407897</t>
+  </si>
+  <si>
+    <t>04/17/2011</t>
+  </si>
+  <si>
+    <t>Great Room, Great Service</t>
+  </si>
+  <si>
+    <t>We have pretty bad luck with hotels, but this one was a knock out! We got the room with a kitchenette and queen size bed. First, the room was in excellent shape and very clean. Second, the bed was extremely comfortable and the pillows were so good I regretted bringing my own. Third, they had a very large LCD TV in the room, it had to have been between 32" to 40" big. It could be turned right or left, allowing you to watch TV on your bed or on the couch. Forth, the kitchenette came with two ceramic burners, a small sink, 'frig, dishwasher, and dishes. Fifth, the hotel staff was friendly and helpful.I have to say a special thanks to the maid staff. I thought I lost my cell phone in the room and when I couldn't find it, one of the maids went through the room--leaving no draw unopened--looking for it. She even used her own cellphone to call mine to see if we could hear it ring. It turned out the phone got packed in the suite case accidentally and was in the car. Still, the fact that so much effort was put into finding my cell phone and how cheerfully it was done made the experience great.I recommend this place and we'll probably stay there again when we decide to overnight in the Dallas/Ft. Worth area.MoreShow less</t>
+  </si>
+  <si>
+    <t>We have pretty bad luck with hotels, but this one was a knock out! We got the room with a kitchenette and queen size bed. First, the room was in excellent shape and very clean. Second, the bed was extremely comfortable and the pillows were so good I regretted bringing my own. Third, they had a very large LCD TV in the room, it had to have been between 32" to 40" big. It could be turned right or left, allowing you to watch TV on your bed or on the couch. Forth, the kitchenette came with two ceramic burners, a small sink, 'frig, dishwasher, and dishes. Fifth, the hotel staff was friendly and helpful.I have to say a special thanks to the maid staff. I thought I lost my cell phone in the room and when I couldn't find it, one of the maids went through the room--leaving no draw unopened--looking for it. She even used her own cellphone to call mine to see if we could hear it ring. It turned out the phone got packed in the suite case accidentally and was in the car. Still, the fact that so much effort was put into finding my cell phone and how cheerfully it was done made the experience great.I recommend this place and we'll probably stay there again when we decide to overnight in the Dallas/Ft. Worth area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r99591497-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>99591497</t>
+  </si>
+  <si>
+    <t>03/09/2011</t>
+  </si>
+  <si>
+    <t>Genuine, Clean, Quiet, and Perfect</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel quite a bit for business in the last 4 months, and I have to say that it has been one of the best places I have ever stayed. I stay in quite a few hotels throughout the year, and am not loyal to any certain brand, however, I am VERY loyal to wonderful customer service. This place will keep me coming back time and time again. Where do I start with the family like atmosphere? I will start with the check in process: Clint at the front desk was born with customer service in his heart. Always happy to help with bags, reservations, directions, local knowledge with restaurants, even picking guests up in the van! Lindsay at the front desk-there is no other like her around, she loves to make people feel welcome, and is a joy to converse with after a hard day at work. During dinner service, Holly is always cheerful and accommodating with anything that you might need, the outdoor patio where the grill is is always kept VERY clean thanks to the wonderful maintenance person. The rooms were not only SPOTLESS every time I came back from work, the Kleenex was even folded in a fancy way!! Overall I have to say that this hotel experience, by far, has been the best because you are made to feel that you are staying at home. Away from home, and that is hard...I stayed at this hotel quite a bit for business in the last 4 months, and I have to say that it has been one of the best places I have ever stayed. I stay in quite a few hotels throughout the year, and am not loyal to any certain brand, however, I am VERY loyal to wonderful customer service. This place will keep me coming back time and time again. Where do I start with the family like atmosphere? I will start with the check in process: Clint at the front desk was born with customer service in his heart. Always happy to help with bags, reservations, directions, local knowledge with restaurants, even picking guests up in the van! Lindsay at the front desk-there is no other like her around, she loves to make people feel welcome, and is a joy to converse with after a hard day at work. During dinner service, Holly is always cheerful and accommodating with anything that you might need, the outdoor patio where the grill is is always kept VERY clean thanks to the wonderful maintenance person. The rooms were not only SPOTLESS every time I came back from work, the Kleenex was even folded in a fancy way!! Overall I have to say that this hotel experience, by far, has been the best because you are made to feel that you are staying at home. Away from home, and that is hard to do.Cheers to the Team at Residence Inn, my home away from home!!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel quite a bit for business in the last 4 months, and I have to say that it has been one of the best places I have ever stayed. I stay in quite a few hotels throughout the year, and am not loyal to any certain brand, however, I am VERY loyal to wonderful customer service. This place will keep me coming back time and time again. Where do I start with the family like atmosphere? I will start with the check in process: Clint at the front desk was born with customer service in his heart. Always happy to help with bags, reservations, directions, local knowledge with restaurants, even picking guests up in the van! Lindsay at the front desk-there is no other like her around, she loves to make people feel welcome, and is a joy to converse with after a hard day at work. During dinner service, Holly is always cheerful and accommodating with anything that you might need, the outdoor patio where the grill is is always kept VERY clean thanks to the wonderful maintenance person. The rooms were not only SPOTLESS every time I came back from work, the Kleenex was even folded in a fancy way!! Overall I have to say that this hotel experience, by far, has been the best because you are made to feel that you are staying at home. Away from home, and that is hard...I stayed at this hotel quite a bit for business in the last 4 months, and I have to say that it has been one of the best places I have ever stayed. I stay in quite a few hotels throughout the year, and am not loyal to any certain brand, however, I am VERY loyal to wonderful customer service. This place will keep me coming back time and time again. Where do I start with the family like atmosphere? I will start with the check in process: Clint at the front desk was born with customer service in his heart. Always happy to help with bags, reservations, directions, local knowledge with restaurants, even picking guests up in the van! Lindsay at the front desk-there is no other like her around, she loves to make people feel welcome, and is a joy to converse with after a hard day at work. During dinner service, Holly is always cheerful and accommodating with anything that you might need, the outdoor patio where the grill is is always kept VERY clean thanks to the wonderful maintenance person. The rooms were not only SPOTLESS every time I came back from work, the Kleenex was even folded in a fancy way!! Overall I have to say that this hotel experience, by far, has been the best because you are made to feel that you are staying at home. Away from home, and that is hard to do.Cheers to the Team at Residence Inn, my home away from home!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r98271957-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>98271957</t>
+  </si>
+  <si>
+    <t>02/27/2011</t>
+  </si>
+  <si>
+    <t>Great Staff, cookout was outstanding</t>
+  </si>
+  <si>
+    <t>The cookout Wednesday night was outstanding, (lets expand that to the other nights!)and I hope they will continue that tradition. Manager Lynette Hooper did the cooking and seeme like she was at the hotel from morning to night. Clint Nauls also made sure that each guest felt like we were at home. This hotel has one of the best staffs in the country and with treatment like this I will be back!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r94062890-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>94062890</t>
+  </si>
+  <si>
+    <t>01/22/2011</t>
+  </si>
+  <si>
+    <t>THE BEST PACE TO STAY IN THE METROPLEX</t>
+  </si>
+  <si>
+    <t>Great place to stay - Great food - Friendly personnel - They care about their customers. They make you feel that they want you as a friend, not just a customer.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r92595169-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>92595169</t>
+  </si>
+  <si>
+    <t>01/11/2011</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>The Residence Inn at Ft. Worth is excellent. The staff is extremely accomodating and helpful. They bent backwards to make my and my colleagues stay the most pleasant experience possible. I can honestly say that the staff and their helpfulness is fairly unmatched - quite a big statement as I travel and stay in various Marriotts and Hiltons nearly 3 out of 4 weeks a month.The rooms are very clean and comfortable. The beds are soft and pleasant. The kitchens are nicely upgraded with marble countertops and newer appliances. If you are looking for an extended stay anywhere, this is the place to stay. The hotel is equipped with a nice workout room. Has a basketball court in the back. And even BBQ pits for the summer months.Very good hotel. I recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Residence Inn at Ft. Worth is excellent. The staff is extremely accomodating and helpful. They bent backwards to make my and my colleagues stay the most pleasant experience possible. I can honestly say that the staff and their helpfulness is fairly unmatched - quite a big statement as I travel and stay in various Marriotts and Hiltons nearly 3 out of 4 weeks a month.The rooms are very clean and comfortable. The beds are soft and pleasant. The kitchens are nicely upgraded with marble countertops and newer appliances. If you are looking for an extended stay anywhere, this is the place to stay. The hotel is equipped with a nice workout room. Has a basketball court in the back. And even BBQ pits for the summer months.Very good hotel. I recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r92595078-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>92595078</t>
+  </si>
+  <si>
+    <t>A+ customer service, every guest is treated like the only guest they have</t>
+  </si>
+  <si>
+    <t>The accomidations are unmatched in the industry when it comes to cleanleness. The staff knew my first and last name name after my first visit. All members of my organization will use this as their primary otel going forward. Fast, freindly, professional service at a fair price. I look forward to my TX visits. I am treated like family.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r85943796-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>85943796</t>
+  </si>
+  <si>
+    <t>11/04/2010</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>Nice hotel, kind staff, clean rooms.Not many places to go, around the hotel.Breakfast could include more options (fruits, cheese and breads).</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r85653140-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>85653140</t>
+  </si>
+  <si>
+    <t>11/01/2010</t>
+  </si>
+  <si>
+    <t>Great hotel for a long stay!</t>
+  </si>
+  <si>
+    <t>I was traveling with a group of colleagues for a 5 day stay in Ft. Worth.  The Residence Inn was perfect with breakfast in the morning and dinner/snacks at night, with free beer and soda.  I loved having the full fridge in my room and all the necessary items for a real kitchen.  I had a studio suite with the most comfortable queen bed, an awesome flat screen TV.  Loved to be able to move the TV so I could watch it from the couch or the bed.  I also really liked the iHome radio so I could play my iPod while getting ready in the morning.  The only negative was that I was not familiar of how to set the alarm for the morning &amp; it took me 5 minutes to figure it out.  Highly recommend this hotel when you are in the Fort Worth / Alliance area.  It is just a short drive from some fantastic restaurants in Roanoke &amp; just a short drive to tons of shopping, food, etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was traveling with a group of colleagues for a 5 day stay in Ft. Worth.  The Residence Inn was perfect with breakfast in the morning and dinner/snacks at night, with free beer and soda.  I loved having the full fridge in my room and all the necessary items for a real kitchen.  I had a studio suite with the most comfortable queen bed, an awesome flat screen TV.  Loved to be able to move the TV so I could watch it from the couch or the bed.  I also really liked the iHome radio so I could play my iPod while getting ready in the morning.  The only negative was that I was not familiar of how to set the alarm for the morning &amp; it took me 5 minutes to figure it out.  Highly recommend this hotel when you are in the Fort Worth / Alliance area.  It is just a short drive from some fantastic restaurants in Roanoke &amp; just a short drive to tons of shopping, food, etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r84961046-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>84961046</t>
+  </si>
+  <si>
+    <t>10/26/2010</t>
+  </si>
+  <si>
+    <t>One friendly hotel</t>
+  </si>
+  <si>
+    <t>Home away from home. Staff is most incredible ... responsive, fun, knowledgeable, and eager. Few minor mechanical problems with the rooms .... sink drains are temperamental, but very minor. Breakfast every day is healthful and plentiful! The evening snacks on Monday through Thursday are worth staying home for. Hotel is clean and neat - all the time. The housekeeping staff is very dedicated and thorough. Will definitely stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r17093286-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>17093286</t>
+  </si>
+  <si>
+    <t>06/20/2008</t>
+  </si>
+  <si>
+    <t>Just Grateful for a Bed</t>
+  </si>
+  <si>
+    <t>We were sent here after the LQ Fort Worth North overbooked rooms and left us without a place to stay.  So, La Quinta paid for the room, thus I cannot attest to the value.  However, I can say that we were grateful for the front desk's friendly service and the comfortable bed at 3:30 am.  They accepted pets, which was also a big plus for us.  There was evidence of a lot of wear in the room, though.  The chairs were faded with torn up corners.  The stovetop didn't work and the bathroom tile was a little moldy.  Also, having stayed at Residence Inns in the past, I was surprised there was no desk in the room.  That said, the bed was comfortable, the shower pleasant and we had no problems with noise, etc...MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>We were sent here after the LQ Fort Worth North overbooked rooms and left us without a place to stay.  So, La Quinta paid for the room, thus I cannot attest to the value.  However, I can say that we were grateful for the front desk's friendly service and the comfortable bed at 3:30 am.  They accepted pets, which was also a big plus for us.  There was evidence of a lot of wear in the room, though.  The chairs were faded with torn up corners.  The stovetop didn't work and the bathroom tile was a little moldy.  Also, having stayed at Residence Inns in the past, I was surprised there was no desk in the room.  That said, the bed was comfortable, the shower pleasant and we had no problems with noise, etc...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r14858008-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>14858008</t>
+  </si>
+  <si>
+    <t>04/07/2008</t>
+  </si>
+  <si>
+    <t>Great Place for the Money!</t>
+  </si>
+  <si>
+    <t>My family and I stayed at the Residence Inn Alliance Airport in Fort Worth, Texas in Febuary 2007.  This was our first visit to Texas and we were pleasantly surprised by the weekly social gatherings in the breakfast area.  I"ve never heard of a hotel providing this unless your on the top floor with consierge service.  Comfortable beds, clean rooms and excellent staff.  Would definately recommend to a friend and in fact we're going again in December 2008.</t>
+  </si>
+  <si>
+    <t>February 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r12260406-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>12260406</t>
+  </si>
+  <si>
+    <t>01/02/2008</t>
+  </si>
+  <si>
+    <t>Love it, Love it, Love it</t>
+  </si>
+  <si>
+    <t>My husband and I decided at the last moment to drive down to Ft. Worth the night before an event instead of a drive down and back from OKC in one day.  We lucked on to this hotel!  We were looking for one close to Cabela's (where my husband just had to go) and this hotel was minutes from there.  I drove in because I have stayed at Marriot hotels before and they have all been very nice.I was not disappointed in the least!  The price was great, the room was great, bed was comfortable and breakfast was awesome!  I read in some of the other reviews that there was noise, but we didnt hear any noise at all, from planes, or the highway.  I will definitely stay here any time I am in the DFW area.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2007</t>
+  </si>
+  <si>
+    <t>My husband and I decided at the last moment to drive down to Ft. Worth the night before an event instead of a drive down and back from OKC in one day.  We lucked on to this hotel!  We were looking for one close to Cabela's (where my husband just had to go) and this hotel was minutes from there.  I drove in because I have stayed at Marriot hotels before and they have all been very nice.I was not disappointed in the least!  The price was great, the room was great, bed was comfortable and breakfast was awesome!  I read in some of the other reviews that there was noise, but we didnt hear any noise at all, from planes, or the highway.  I will definitely stay here any time I am in the DFW area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r6731405-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>6731405</t>
+  </si>
+  <si>
+    <t>02/01/2007</t>
+  </si>
+  <si>
+    <t>Nice hotel but very loud....</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel Jan 26-28th for our quick weekend in Texas for a wedding reception. 
+I have to first say that if I traveled back to the area I would most likely try to find another hotel to stay at...if none were available I would stay here again. 
+Pros of this hotel:
+They do have full kitchens, living room and bedroom separate if you wish. 
+They are located close to just about anything and close to where our family lives in Trophy Club.
+They do have a hot tub and pool and a fitness center.
+Very comfortable Pillows
+Cons: Bear with me on these
+Very loud hotel...every morning it sounded like a stampede coming from the cleaning crew. We were located across the hall from the laundry room so the constant slamming of the door there throughout the night was horrible. 
+We also had the loudest restroom facilities in the building. 
+The breakfast was absolutely horrible. I was grateful that this was a complimentary breakfast because if I had paid extra for this I would have wanted my money back. I'm not trying to be rude it was just that bad. We ate one morning but didn't even try the next morning. 
+The cleaning crew put carpet freshing powder in the elevators and lobby area and left it there for about 2 hours we almost choked riding down the elevator it was so strong. 
+In conclusion:
+You get...We stayed at this hotel Jan 26-28th for our quick weekend in Texas for a wedding reception. I have to first say that if I traveled back to the area I would most likely try to find another hotel to stay at...if none were available I would stay here again. Pros of this hotel:They do have full kitchens, living room and bedroom separate if you wish. They are located close to just about anything and close to where our family lives in Trophy Club.They do have a hot tub and pool and a fitness center.Very comfortable PillowsCons: Bear with me on theseVery loud hotel...every morning it sounded like a stampede coming from the cleaning crew. We were located across the hall from the laundry room so the constant slamming of the door there throughout the night was horrible. We also had the loudest restroom facilities in the building. The breakfast was absolutely horrible. I was grateful that this was a complimentary breakfast because if I had paid extra for this I would have wanted my money back. I'm not trying to be rude it was just that bad. We ate one morning but didn't even try the next morning. The cleaning crew put carpet freshing powder in the elevators and lobby area and left it there for about 2 hours we almost choked riding down the elevator it was so strong. In conclusion:You get what you pay for at hotels. Remember that. We knew we weren't staying at the Hilton or similar. We have stayed at many marriott hotels and love the marriott just wouldn't chose this one first. It was a place to rest our heads and that is all it was good for in my opinion.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2007</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel Jan 26-28th for our quick weekend in Texas for a wedding reception. 
+I have to first say that if I traveled back to the area I would most likely try to find another hotel to stay at...if none were available I would stay here again. 
+Pros of this hotel:
+They do have full kitchens, living room and bedroom separate if you wish. 
+They are located close to just about anything and close to where our family lives in Trophy Club.
+They do have a hot tub and pool and a fitness center.
+Very comfortable Pillows
+Cons: Bear with me on these
+Very loud hotel...every morning it sounded like a stampede coming from the cleaning crew. We were located across the hall from the laundry room so the constant slamming of the door there throughout the night was horrible. 
+We also had the loudest restroom facilities in the building. 
+The breakfast was absolutely horrible. I was grateful that this was a complimentary breakfast because if I had paid extra for this I would have wanted my money back. I'm not trying to be rude it was just that bad. We ate one morning but didn't even try the next morning. 
+The cleaning crew put carpet freshing powder in the elevators and lobby area and left it there for about 2 hours we almost choked riding down the elevator it was so strong. 
+In conclusion:
+You get...We stayed at this hotel Jan 26-28th for our quick weekend in Texas for a wedding reception. I have to first say that if I traveled back to the area I would most likely try to find another hotel to stay at...if none were available I would stay here again. Pros of this hotel:They do have full kitchens, living room and bedroom separate if you wish. They are located close to just about anything and close to where our family lives in Trophy Club.They do have a hot tub and pool and a fitness center.Very comfortable PillowsCons: Bear with me on theseVery loud hotel...every morning it sounded like a stampede coming from the cleaning crew. We were located across the hall from the laundry room so the constant slamming of the door there throughout the night was horrible. We also had the loudest restroom facilities in the building. The breakfast was absolutely horrible. I was grateful that this was a complimentary breakfast because if I had paid extra for this I would have wanted my money back. I'm not trying to be rude it was just that bad. We ate one morning but didn't even try the next morning. The cleaning crew put carpet freshing powder in the elevators and lobby area and left it there for about 2 hours we almost choked riding down the elevator it was so strong. In conclusion:You get what you pay for at hotels. Remember that. We knew we weren't staying at the Hilton or similar. We have stayed at many marriott hotels and love the marriott just wouldn't chose this one first. It was a place to rest our heads and that is all it was good for in my opinion.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r4993155-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>4993155</t>
+  </si>
+  <si>
+    <t>04/20/2006</t>
+  </si>
+  <si>
+    <t>Great weekend getaway!</t>
+  </si>
+  <si>
+    <t>We stayed at this Residence Inn on a recent visit to Texas Motor Speedway.  Rooms were quiet, well-kept, and roomy.  Complementary breakfast was a notch above the norm for a hotel of this type.  The staff was friendly and very willing to help.  Easy access to I-35E, but located far enough back from the highway that road noise was not an issue.  Several restaraunts within easy walking distance across the highway; nice on-site pool, hot tub, sport court, and workout room.  As the hotel is normally marketed at businesspeople, weekend rates are very reasonable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r1126947-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>1126947</t>
+  </si>
+  <si>
+    <t>07/01/2003</t>
+  </si>
+  <si>
+    <t>dirty party hotel</t>
+  </si>
+  <si>
+    <t>We went to this hotel with our 3 children and were very disappointed by the staff and the room. There were stains on the comforter and carpet. We went to take the children to the pool that evening around 6pm and were suprised to find out they were having an employee party. They were grilling food, eating cake and drinking beer. The biggest problem I had though was employees were letting their boys swim in their briefs. My 4 yr old, which is just learning to swim couldn't even get in the pool and play on the steps because there were 4 adults with their clothes on sitting on the steps of the pool. We had to cut our swimming time short and any parent knows that when you go to a hotel with children they look forward to swimming. This hotel had approximately 30 people at this employee party. The next morning we went to eat on the buffet and as my 9 yr old grabbed a plate a member of the staff yelled at her to put it back. She didn't think she was capable of fixing her own plate. I would not stay at this Residence Inn again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We went to this hotel with our 3 children and were very disappointed by the staff and the room. There were stains on the comforter and carpet. We went to take the children to the pool that evening around 6pm and were suprised to find out they were having an employee party. They were grilling food, eating cake and drinking beer. The biggest problem I had though was employees were letting their boys swim in their briefs. My 4 yr old, which is just learning to swim couldn't even get in the pool and play on the steps because there were 4 adults with their clothes on sitting on the steps of the pool. We had to cut our swimming time short and any parent knows that when you go to a hotel with children they look forward to swimming. This hotel had approximately 30 people at this employee party. The next morning we went to eat on the buffet and as my 9 yr old grabbed a plate a member of the staff yelled at her to put it back. She didn't think she was capable of fixing her own plate. I would not stay at this Residence Inn again.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2522,5516 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>114</v>
+      </c>
+      <c r="X11" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>113</v>
+      </c>
+      <c r="O12" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>114</v>
+      </c>
+      <c r="X12" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>113</v>
+      </c>
+      <c r="O13" t="s">
+        <v>128</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>129</v>
+      </c>
+      <c r="X13" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" t="s">
+        <v>135</v>
+      </c>
+      <c r="L14" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>137</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>138</v>
+      </c>
+      <c r="X14" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" t="s">
+        <v>143</v>
+      </c>
+      <c r="K15" t="s">
+        <v>144</v>
+      </c>
+      <c r="L15" t="s">
+        <v>145</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>146</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>147</v>
+      </c>
+      <c r="X15" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>151</v>
+      </c>
+      <c r="J16" t="s">
+        <v>152</v>
+      </c>
+      <c r="K16" t="s">
+        <v>153</v>
+      </c>
+      <c r="L16" t="s">
+        <v>154</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>146</v>
+      </c>
+      <c r="O16" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>155</v>
+      </c>
+      <c r="X16" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>159</v>
+      </c>
+      <c r="J17" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" t="s">
+        <v>161</v>
+      </c>
+      <c r="L17" t="s">
+        <v>162</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>163</v>
+      </c>
+      <c r="O17" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>164</v>
+      </c>
+      <c r="X17" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>168</v>
+      </c>
+      <c r="J18" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" t="s">
+        <v>170</v>
+      </c>
+      <c r="L18" t="s">
+        <v>171</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>163</v>
+      </c>
+      <c r="O18" t="s">
+        <v>128</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>172</v>
+      </c>
+      <c r="X18" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>175</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J19" t="s">
+        <v>177</v>
+      </c>
+      <c r="K19" t="s">
+        <v>178</v>
+      </c>
+      <c r="L19" t="s">
+        <v>179</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>163</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>180</v>
+      </c>
+      <c r="X19" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>184</v>
+      </c>
+      <c r="J20" t="s">
+        <v>185</v>
+      </c>
+      <c r="K20" t="s">
+        <v>186</v>
+      </c>
+      <c r="L20" t="s">
+        <v>187</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>188</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>189</v>
+      </c>
+      <c r="X20" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>192</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>193</v>
+      </c>
+      <c r="J21" t="s">
+        <v>194</v>
+      </c>
+      <c r="K21" t="s">
+        <v>195</v>
+      </c>
+      <c r="L21" t="s">
+        <v>196</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>197</v>
+      </c>
+      <c r="O21" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>198</v>
+      </c>
+      <c r="X21" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>201</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>202</v>
+      </c>
+      <c r="J22" t="s">
+        <v>203</v>
+      </c>
+      <c r="K22" t="s">
+        <v>204</v>
+      </c>
+      <c r="L22" t="s">
+        <v>205</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>206</v>
+      </c>
+      <c r="X22" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>209</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>210</v>
+      </c>
+      <c r="J23" t="s">
+        <v>211</v>
+      </c>
+      <c r="K23" t="s">
+        <v>212</v>
+      </c>
+      <c r="L23" t="s">
+        <v>213</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>214</v>
+      </c>
+      <c r="O23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>215</v>
+      </c>
+      <c r="X23" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>218</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>219</v>
+      </c>
+      <c r="J24" t="s">
+        <v>220</v>
+      </c>
+      <c r="K24" t="s">
+        <v>221</v>
+      </c>
+      <c r="L24" t="s">
+        <v>222</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>223</v>
+      </c>
+      <c r="O24" t="s">
+        <v>72</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>224</v>
+      </c>
+      <c r="X24" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>227</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>228</v>
+      </c>
+      <c r="J25" t="s">
+        <v>229</v>
+      </c>
+      <c r="K25" t="s">
+        <v>230</v>
+      </c>
+      <c r="L25" t="s">
+        <v>231</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>223</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>232</v>
+      </c>
+      <c r="X25" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>234</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>235</v>
+      </c>
+      <c r="J26" t="s">
+        <v>236</v>
+      </c>
+      <c r="K26" t="s">
+        <v>237</v>
+      </c>
+      <c r="L26" t="s">
+        <v>238</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>239</v>
+      </c>
+      <c r="O26" t="s">
+        <v>72</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>240</v>
+      </c>
+      <c r="X26" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>243</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>244</v>
+      </c>
+      <c r="J27" t="s">
+        <v>245</v>
+      </c>
+      <c r="K27" t="s">
+        <v>246</v>
+      </c>
+      <c r="L27" t="s">
+        <v>247</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>248</v>
+      </c>
+      <c r="O27" t="s">
+        <v>66</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>250</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>251</v>
+      </c>
+      <c r="J28" t="s">
+        <v>252</v>
+      </c>
+      <c r="K28" t="s">
+        <v>253</v>
+      </c>
+      <c r="L28" t="s">
+        <v>254</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>255</v>
+      </c>
+      <c r="O28" t="s">
+        <v>66</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>257</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>258</v>
+      </c>
+      <c r="J29" t="s">
+        <v>259</v>
+      </c>
+      <c r="K29" t="s">
+        <v>260</v>
+      </c>
+      <c r="L29" t="s">
+        <v>261</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>262</v>
+      </c>
+      <c r="X29" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>265</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>266</v>
+      </c>
+      <c r="J30" t="s">
+        <v>267</v>
+      </c>
+      <c r="K30" t="s">
+        <v>268</v>
+      </c>
+      <c r="L30" t="s">
+        <v>269</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>270</v>
+      </c>
+      <c r="O30" t="s">
+        <v>66</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>271</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>272</v>
+      </c>
+      <c r="J31" t="s">
+        <v>273</v>
+      </c>
+      <c r="K31" t="s">
+        <v>274</v>
+      </c>
+      <c r="L31" t="s">
+        <v>275</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>276</v>
+      </c>
+      <c r="O31" t="s">
+        <v>66</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>277</v>
+      </c>
+      <c r="X31" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>280</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>281</v>
+      </c>
+      <c r="J32" t="s">
+        <v>282</v>
+      </c>
+      <c r="K32" t="s">
+        <v>283</v>
+      </c>
+      <c r="L32" t="s">
+        <v>284</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>285</v>
+      </c>
+      <c r="X32" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>288</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>289</v>
+      </c>
+      <c r="J33" t="s">
+        <v>290</v>
+      </c>
+      <c r="K33" t="s">
+        <v>291</v>
+      </c>
+      <c r="L33" t="s">
+        <v>292</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>293</v>
+      </c>
+      <c r="O33" t="s">
+        <v>66</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>285</v>
+      </c>
+      <c r="X33" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>295</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>296</v>
+      </c>
+      <c r="J34" t="s">
+        <v>297</v>
+      </c>
+      <c r="K34" t="s">
+        <v>298</v>
+      </c>
+      <c r="L34" t="s">
+        <v>299</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>300</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>285</v>
+      </c>
+      <c r="X34" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>302</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>303</v>
+      </c>
+      <c r="J35" t="s">
+        <v>304</v>
+      </c>
+      <c r="K35" t="s">
+        <v>305</v>
+      </c>
+      <c r="L35" t="s">
+        <v>306</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>307</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>309</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>310</v>
+      </c>
+      <c r="J36" t="s">
+        <v>311</v>
+      </c>
+      <c r="K36" t="s">
+        <v>312</v>
+      </c>
+      <c r="L36" t="s">
+        <v>313</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>314</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>315</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>316</v>
+      </c>
+      <c r="J37" t="s">
+        <v>317</v>
+      </c>
+      <c r="K37" t="s">
+        <v>318</v>
+      </c>
+      <c r="L37" t="s">
+        <v>319</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>320</v>
+      </c>
+      <c r="O37" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>321</v>
+      </c>
+      <c r="X37" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>324</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>325</v>
+      </c>
+      <c r="J38" t="s">
+        <v>326</v>
+      </c>
+      <c r="K38" t="s">
+        <v>327</v>
+      </c>
+      <c r="L38" t="s">
+        <v>328</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>329</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>330</v>
+      </c>
+      <c r="X38" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>333</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>334</v>
+      </c>
+      <c r="J39" t="s">
+        <v>335</v>
+      </c>
+      <c r="K39" t="s">
+        <v>283</v>
+      </c>
+      <c r="L39" t="s">
+        <v>336</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>329</v>
+      </c>
+      <c r="O39" t="s">
+        <v>66</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>330</v>
+      </c>
+      <c r="X39" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>338</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>339</v>
+      </c>
+      <c r="J40" t="s">
+        <v>340</v>
+      </c>
+      <c r="K40" t="s">
+        <v>341</v>
+      </c>
+      <c r="L40" t="s">
+        <v>342</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>343</v>
+      </c>
+      <c r="O40" t="s">
+        <v>66</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>330</v>
+      </c>
+      <c r="X40" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>345</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>346</v>
+      </c>
+      <c r="J41" t="s">
+        <v>347</v>
+      </c>
+      <c r="K41" t="s">
+        <v>348</v>
+      </c>
+      <c r="L41" t="s">
+        <v>349</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>350</v>
+      </c>
+      <c r="O41" t="s">
+        <v>128</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>351</v>
+      </c>
+      <c r="X41" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>354</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>355</v>
+      </c>
+      <c r="J42" t="s">
+        <v>356</v>
+      </c>
+      <c r="K42" t="s">
+        <v>357</v>
+      </c>
+      <c r="L42" t="s">
+        <v>358</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>359</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>351</v>
+      </c>
+      <c r="X42" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>361</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>362</v>
+      </c>
+      <c r="J43" t="s">
+        <v>363</v>
+      </c>
+      <c r="K43" t="s">
+        <v>364</v>
+      </c>
+      <c r="L43" t="s">
+        <v>365</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>351</v>
+      </c>
+      <c r="X43" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>367</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>368</v>
+      </c>
+      <c r="J44" t="s">
+        <v>369</v>
+      </c>
+      <c r="K44" t="s">
+        <v>370</v>
+      </c>
+      <c r="L44" t="s">
+        <v>371</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>372</v>
+      </c>
+      <c r="O44" t="s">
+        <v>60</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>373</v>
+      </c>
+      <c r="X44" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>376</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>377</v>
+      </c>
+      <c r="J45" t="s">
+        <v>378</v>
+      </c>
+      <c r="K45" t="s">
+        <v>379</v>
+      </c>
+      <c r="L45" t="s">
+        <v>380</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>372</v>
+      </c>
+      <c r="O45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>381</v>
+      </c>
+      <c r="X45" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>384</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>385</v>
+      </c>
+      <c r="J46" t="s">
+        <v>386</v>
+      </c>
+      <c r="K46" t="s">
+        <v>387</v>
+      </c>
+      <c r="L46" t="s">
+        <v>388</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>372</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>381</v>
+      </c>
+      <c r="X46" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>390</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>391</v>
+      </c>
+      <c r="J47" t="s">
+        <v>392</v>
+      </c>
+      <c r="K47" t="s">
+        <v>393</v>
+      </c>
+      <c r="L47" t="s">
+        <v>394</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>395</v>
+      </c>
+      <c r="O47" t="s">
+        <v>66</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>396</v>
+      </c>
+      <c r="X47" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>399</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>400</v>
+      </c>
+      <c r="J48" t="s">
+        <v>401</v>
+      </c>
+      <c r="K48" t="s">
+        <v>402</v>
+      </c>
+      <c r="L48" t="s">
+        <v>403</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>395</v>
+      </c>
+      <c r="O48" t="s">
+        <v>60</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>396</v>
+      </c>
+      <c r="X48" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>405</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J49" t="s">
+        <v>407</v>
+      </c>
+      <c r="K49" t="s">
+        <v>408</v>
+      </c>
+      <c r="L49" t="s">
+        <v>409</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>395</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>396</v>
+      </c>
+      <c r="X49" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>411</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>412</v>
+      </c>
+      <c r="J50" t="s">
+        <v>413</v>
+      </c>
+      <c r="K50" t="s">
+        <v>414</v>
+      </c>
+      <c r="L50" t="s">
+        <v>415</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>416</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>417</v>
+      </c>
+      <c r="X50" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>420</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>421</v>
+      </c>
+      <c r="J51" t="s">
+        <v>422</v>
+      </c>
+      <c r="K51" t="s">
+        <v>423</v>
+      </c>
+      <c r="L51" t="s">
+        <v>424</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>416</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>417</v>
+      </c>
+      <c r="X51" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>426</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>427</v>
+      </c>
+      <c r="J52" t="s">
+        <v>428</v>
+      </c>
+      <c r="K52" t="s">
+        <v>429</v>
+      </c>
+      <c r="L52" t="s">
+        <v>430</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>416</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>417</v>
+      </c>
+      <c r="X52" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>432</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>433</v>
+      </c>
+      <c r="J53" t="s">
+        <v>434</v>
+      </c>
+      <c r="K53" t="s">
+        <v>435</v>
+      </c>
+      <c r="L53" t="s">
+        <v>436</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>437</v>
+      </c>
+      <c r="O53" t="s">
+        <v>66</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>438</v>
+      </c>
+      <c r="X53" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>441</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>442</v>
+      </c>
+      <c r="J54" t="s">
+        <v>443</v>
+      </c>
+      <c r="K54" t="s">
+        <v>444</v>
+      </c>
+      <c r="L54" t="s">
+        <v>445</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>446</v>
+      </c>
+      <c r="X54" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>449</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>450</v>
+      </c>
+      <c r="J55" t="s">
+        <v>451</v>
+      </c>
+      <c r="K55" t="s">
+        <v>452</v>
+      </c>
+      <c r="L55" t="s">
+        <v>453</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>454</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>417</v>
+      </c>
+      <c r="X55" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>456</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>457</v>
+      </c>
+      <c r="J56" t="s">
+        <v>458</v>
+      </c>
+      <c r="K56" t="s">
+        <v>459</v>
+      </c>
+      <c r="L56" t="s">
+        <v>460</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>2</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>461</v>
+      </c>
+      <c r="X56" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>464</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>465</v>
+      </c>
+      <c r="J57" t="s">
+        <v>466</v>
+      </c>
+      <c r="K57" t="s">
+        <v>467</v>
+      </c>
+      <c r="L57" t="s">
+        <v>468</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>469</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>461</v>
+      </c>
+      <c r="X57" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>471</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>472</v>
+      </c>
+      <c r="J58" t="s">
+        <v>473</v>
+      </c>
+      <c r="K58" t="s">
+        <v>474</v>
+      </c>
+      <c r="L58" t="s">
+        <v>475</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>461</v>
+      </c>
+      <c r="X58" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>477</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>478</v>
+      </c>
+      <c r="J59" t="s">
+        <v>479</v>
+      </c>
+      <c r="K59" t="s">
+        <v>480</v>
+      </c>
+      <c r="L59" t="s">
+        <v>481</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>469</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>482</v>
+      </c>
+      <c r="X59" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>485</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>486</v>
+      </c>
+      <c r="J60" t="s">
+        <v>487</v>
+      </c>
+      <c r="K60" t="s">
+        <v>488</v>
+      </c>
+      <c r="L60" t="s">
+        <v>489</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>490</v>
+      </c>
+      <c r="X60" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>493</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>494</v>
+      </c>
+      <c r="J61" t="s">
+        <v>495</v>
+      </c>
+      <c r="K61" t="s">
+        <v>496</v>
+      </c>
+      <c r="L61" t="s">
+        <v>497</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>498</v>
+      </c>
+      <c r="O61" t="s">
+        <v>66</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>490</v>
+      </c>
+      <c r="X61" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>500</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>501</v>
+      </c>
+      <c r="J62" t="s">
+        <v>502</v>
+      </c>
+      <c r="K62" t="s">
+        <v>503</v>
+      </c>
+      <c r="L62" t="s">
+        <v>504</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>505</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>490</v>
+      </c>
+      <c r="X62" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>507</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>508</v>
+      </c>
+      <c r="J63" t="s">
+        <v>509</v>
+      </c>
+      <c r="K63" t="s">
+        <v>510</v>
+      </c>
+      <c r="L63" t="s">
+        <v>511</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>512</v>
+      </c>
+      <c r="O63" t="s">
+        <v>66</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>490</v>
+      </c>
+      <c r="X63" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>514</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>515</v>
+      </c>
+      <c r="J64" t="s">
+        <v>516</v>
+      </c>
+      <c r="K64" t="s">
+        <v>517</v>
+      </c>
+      <c r="L64" t="s">
+        <v>518</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>519</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>520</v>
+      </c>
+      <c r="X64" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>523</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>524</v>
+      </c>
+      <c r="J65" t="s">
+        <v>525</v>
+      </c>
+      <c r="K65" t="s">
+        <v>526</v>
+      </c>
+      <c r="L65" t="s">
+        <v>527</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>528</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>529</v>
+      </c>
+      <c r="X65" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>532</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>533</v>
+      </c>
+      <c r="J66" t="s">
+        <v>534</v>
+      </c>
+      <c r="K66" t="s">
+        <v>535</v>
+      </c>
+      <c r="L66" t="s">
+        <v>536</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>528</v>
+      </c>
+      <c r="O66" t="s">
+        <v>66</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>529</v>
+      </c>
+      <c r="X66" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>538</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>539</v>
+      </c>
+      <c r="J67" t="s">
+        <v>540</v>
+      </c>
+      <c r="K67" t="s">
+        <v>541</v>
+      </c>
+      <c r="L67" t="s">
+        <v>542</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>543</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>545</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>546</v>
+      </c>
+      <c r="J68" t="s">
+        <v>547</v>
+      </c>
+      <c r="K68" t="s">
+        <v>548</v>
+      </c>
+      <c r="L68" t="s">
+        <v>549</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>550</v>
+      </c>
+      <c r="O68" t="s">
+        <v>66</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>551</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>552</v>
+      </c>
+      <c r="J69" t="s">
+        <v>553</v>
+      </c>
+      <c r="K69" t="s">
+        <v>554</v>
+      </c>
+      <c r="L69" t="s">
+        <v>555</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>550</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>556</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>557</v>
+      </c>
+      <c r="J70" t="s">
+        <v>558</v>
+      </c>
+      <c r="K70" t="s">
+        <v>559</v>
+      </c>
+      <c r="L70" t="s">
+        <v>560</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>561</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>562</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>563</v>
+      </c>
+      <c r="J71" t="s">
+        <v>564</v>
+      </c>
+      <c r="K71" t="s">
+        <v>565</v>
+      </c>
+      <c r="L71" t="s">
+        <v>566</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>561</v>
+      </c>
+      <c r="O71" t="s">
+        <v>72</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>568</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>569</v>
+      </c>
+      <c r="J72" t="s">
+        <v>570</v>
+      </c>
+      <c r="K72" t="s">
+        <v>571</v>
+      </c>
+      <c r="L72" t="s">
+        <v>572</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>573</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>575</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>576</v>
+      </c>
+      <c r="J73" t="s">
+        <v>577</v>
+      </c>
+      <c r="K73" t="s">
+        <v>578</v>
+      </c>
+      <c r="L73" t="s">
+        <v>579</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>519</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>580</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>581</v>
+      </c>
+      <c r="J74" t="s">
+        <v>582</v>
+      </c>
+      <c r="K74" t="s">
+        <v>583</v>
+      </c>
+      <c r="L74" t="s">
+        <v>584</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>573</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>585</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>586</v>
+      </c>
+      <c r="J75" t="s">
+        <v>587</v>
+      </c>
+      <c r="K75" t="s">
+        <v>588</v>
+      </c>
+      <c r="L75" t="s">
+        <v>589</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>573</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>591</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>592</v>
+      </c>
+      <c r="J76" t="s">
+        <v>587</v>
+      </c>
+      <c r="K76" t="s">
+        <v>593</v>
+      </c>
+      <c r="L76" t="s">
+        <v>594</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>573</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>595</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>596</v>
+      </c>
+      <c r="J77" t="s">
+        <v>597</v>
+      </c>
+      <c r="K77" t="s">
+        <v>598</v>
+      </c>
+      <c r="L77" t="s">
+        <v>599</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>600</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>601</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>602</v>
+      </c>
+      <c r="J78" t="s">
+        <v>603</v>
+      </c>
+      <c r="K78" t="s">
+        <v>604</v>
+      </c>
+      <c r="L78" t="s">
+        <v>605</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>600</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>607</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>608</v>
+      </c>
+      <c r="J79" t="s">
+        <v>609</v>
+      </c>
+      <c r="K79" t="s">
+        <v>610</v>
+      </c>
+      <c r="L79" t="s">
+        <v>611</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>600</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>612</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>613</v>
+      </c>
+      <c r="J80" t="s">
+        <v>614</v>
+      </c>
+      <c r="K80" t="s">
+        <v>615</v>
+      </c>
+      <c r="L80" t="s">
+        <v>616</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>617</v>
+      </c>
+      <c r="O80" t="s">
+        <v>66</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>619</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>620</v>
+      </c>
+      <c r="J81" t="s">
+        <v>621</v>
+      </c>
+      <c r="K81" t="s">
+        <v>622</v>
+      </c>
+      <c r="L81" t="s">
+        <v>623</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>624</v>
+      </c>
+      <c r="O81" t="s">
+        <v>66</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>625</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>626</v>
+      </c>
+      <c r="J82" t="s">
+        <v>627</v>
+      </c>
+      <c r="K82" t="s">
+        <v>628</v>
+      </c>
+      <c r="L82" t="s">
+        <v>629</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>630</v>
+      </c>
+      <c r="O82" t="s">
+        <v>72</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>632</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>633</v>
+      </c>
+      <c r="J83" t="s">
+        <v>634</v>
+      </c>
+      <c r="K83" t="s">
+        <v>635</v>
+      </c>
+      <c r="L83" t="s">
+        <v>636</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>637</v>
+      </c>
+      <c r="O83" t="s">
+        <v>72</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>2</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>639</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>640</v>
+      </c>
+      <c r="J84" t="s">
+        <v>641</v>
+      </c>
+      <c r="K84" t="s">
+        <v>642</v>
+      </c>
+      <c r="L84" t="s">
+        <v>643</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="s"/>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>39139</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>644</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>645</v>
+      </c>
+      <c r="J85" t="s">
+        <v>646</v>
+      </c>
+      <c r="K85" t="s">
+        <v>647</v>
+      </c>
+      <c r="L85" t="s">
+        <v>648</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="s"/>
+      <c r="O85" t="s"/>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>649</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_665.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_665.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="734">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>TropicalTraveler78</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>acce06t</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r514767528-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>M C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r511159054-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Swimfins</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r510128130-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -246,6 +258,9 @@
     <t>So explain to me how a Residence Inn has rooms without a kitchen? A microwave, coffeemaker, a fridge the size of a six-pack and a RV-sized sink counts as a kitchen?  Isn't the marketing model built around having the ability to do a long stay? Shouldn't there be some sort of notification that you're assigned a no kitchen room (when the expectation is that all RI rooms have them)?I have over 650 nights with Marriott, many of them in RIs, and I have never seen this. Thankfully I was only a one-night stay and didn't need it, so I didn't make a stink about it. Too, I checked in via mobile 36 hours before I arrived and got the pop-up on my phone at about 8 the morning that I was arriving that my room was ready. "Great" I thought - Platinum pays off again and I scored an upgrade. Not so much - I got what I reserved, but the expectation let down was there. The guy at checkin didn't seem confident in checkin procedures (about 5:30pm on Monday 8/7). More</t>
   </si>
   <si>
+    <t>BlueEyedTexan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r508267341-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -267,6 +282,9 @@
     <t>We took a mini-vacation to 2 weddings in the DFW area so we picked a hotel that was as centrally located to our events as possible. At first I was worried that this hotel looked like it was out in the middle of nowhere, but thanks to constant construction and traffic on 35 elsewhere, it was very relaxing to arrive and leave from a less hectic area! There is tons of shopping/dining within about 10 minutes (Target, Best Buy, Costco, Chipotle to name a few) and downtown museums are a quick 30 minutes away, even in traffic. We arrived at about 11:45 a.m. and were not surprised that our room was not ready. I was a bit put off when the front desk clerk seemed annoyed that we were there so early, and he said it would be closer to 3 when our room was ready. We asked if we could eat our packed lunch in the dining area before continuing on our afternoon outings, and they said that was fine. By the time we wrapped up our lunch, though, the front desk clerk came over and graciously informed us our room was ready, only about an hour after we arrived! We were so relieved, because we had packed all of raw ingredients for our meals and I didn't want to haul perishables around for the rest of the day. We LOVE staying at RIs and TPSs because of the...We took a mini-vacation to 2 weddings in the DFW area so we picked a hotel that was as centrally located to our events as possible. At first I was worried that this hotel looked like it was out in the middle of nowhere, but thanks to constant construction and traffic on 35 elsewhere, it was very relaxing to arrive and leave from a less hectic area! There is tons of shopping/dining within about 10 minutes (Target, Best Buy, Costco, Chipotle to name a few) and downtown museums are a quick 30 minutes away, even in traffic. We arrived at about 11:45 a.m. and were not surprised that our room was not ready. I was a bit put off when the front desk clerk seemed annoyed that we were there so early, and he said it would be closer to 3 when our room was ready. We asked if we could eat our packed lunch in the dining area before continuing on our afternoon outings, and they said that was fine. By the time we wrapped up our lunch, though, the front desk clerk came over and graciously informed us our room was ready, only about an hour after we arrived! We were so relieved, because we had packed all of raw ingredients for our meals and I didn't want to haul perishables around for the rest of the day. We LOVE staying at RIs and TPSs because of the kitchen amenities. The kitchen is very efficient - the dishwasher is pretty small and I had to open the fridge in order to open the oven all the way. I did buy a small roasting pan at Target the second day, for roasting some veggies, because all of the pans/pots had plastic handles so I had nothing to use in the oven. We were spoiled by the space in the 2 bedroom - with 3 kids, we were so glad we had the extra room! There were 3 TVs - 2 more than we have in our home - so it was a treat to spread out. The bathroom/dressing in one of the rooms (yes, our room had 2 bathrooms! It sealed the deal.) wa quite generous and more than one person could get ready at one time. I loved the fact that the drapes actually overlap when closing to block out light - it's the little things, really. Outstanding water pressure, great room A/C temp and quite tolerable beds/pillows made us happy to stay and sad to leave. I did a couple of loads of laundry in the available laundry room and had no issues. Although we travel with our food and I cooked breakfast for 2 of us, the offerings downstairs are comprehensive and there's something for everyone! For Paleo eaters, there were eggs, sausage, raw spinach, walnuts, raisins, coconut and fresh fruit daily - you won't starve here! I would not hesitate to book this hotel again if I'm in the area. We were there as a family of 5 but we saw lots of people who appeared to be travelling for business. One thing to note is that not all rooms have the oven, if that is crucial to your plans. My parents booked a single room and did not have one (we had planned to coordinate meal prep, so we had to switch things around a bit.) Overall, we enjoyed our stay!More</t>
   </si>
   <si>
+    <t>nancyeakin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r501627818-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -282,6 +300,9 @@
     <t>Newer hotel.  Great stay for a multiple generation family especially with 2 bedroom 2 bath rooms available.  Also very dog friendly with a large pet area and pet bags available - which is a really nice addition for those traveling with fur kids.  Breakfasts were very fresh, good, clean and plentiful,. Only complaint was pool was a little small especially when we had some rough play going on but, that was more lack of parental control than hotel issue.</t>
   </si>
   <si>
+    <t>Pam H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r491571385-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -303,6 +324,9 @@
     <t>We really enjoyed staying at this Marriott Residence.  We had a two bedroom suite which made it nice to bring our daughter on my hubby's business trip.  The rooms are lovely with new carpet, full kitchen and nice bathrooms.  The staff kept us stocked with plenty of towels, soaps and kept our beds beautifully made.  The fridge has an ice maker which is nice.  The breakfast buffet was well stocked with choices for everyone!  I am on weight watchers and found lots of a variety of items.  We were a bit disappointed with Marriott stopping the evening meal Monday through Thursday.  When we talked with the manager, he told us it is because Marriott made this a corporate decision.  So his hands were tied.  With did tell him we would appreciate coffee during the day and some infused ice water in the lobby, as many upscale lodges have.  The next day he did have coffee available for us. He was very kind and accommodating!!  The work out room was fine for us, I can't see how people could complain about this, it isn't a YMCA people!  The whole place was kept very clean with cordial staff everywhere!More</t>
   </si>
   <si>
+    <t>arly0429</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r481877247-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -321,6 +345,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>Gei M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r481606815-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -342,6 +369,9 @@
     <t>I utilize this hotel for my job.  They are my number one vendor.  I am over a program for pre-hire pilots for the FAA.  The staff always accommodates the applicants and no one has ever had a bad experience in the 9 years I have dealt with this hotel.  They even serve breakfast at 6:00 so the pilots can eat before they have to be at our office by 6:30!  The staff is friendly and courteous and you are always greeted with a smile.  The suites are artfully decorated and very relaxing.  It's located in a great place with eateries within 2 miles either way.  It is my top recommended hotel for Fort Worth.More</t>
   </si>
   <si>
+    <t>Elisa A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r471378374-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -369,6 +399,9 @@
     <t>I stayed at this place as a recommendation of a coworker.  This was a really nice place and was very clean.  I ended up in a suite which was extremely nice.   I thought the breakfast was good however, it was not served until 6:30 am.  Would have given a 5 star but gave a 4 star because of this.  Asked the front desk about this.  They indicated that corporate dictates when they serve breakfast.  I can say that for this area 6:00 am is a better time.  Every morning there were people literally waiting for breakfast.  I can tell you that this is unacceptable for this hotel to not be able to serve breakfast based on the needs of the local area.  I had class at 7 am  ate every morning in a rush to get out of there.  I am disappointed that a good breakfast was rushed and not enjoyed.  Corporate needs to listen to the needs of the local area patrons.More</t>
   </si>
   <si>
+    <t>Herohunny74</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r467965828-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -387,6 +420,9 @@
     <t>I travel to the North Ft Worth/Keller area several times a year. I've stayed in several different chain hotels and have always felt like the rooms  were overpriced and underwhelming. That was until I found this hotel. Since it was only me and my 13yr old son I got a studio suite and it was saweeeet!!!! One night my son slept on the queen size bed and I slept on the fold out couch. Then we switched on night two. The couch I must say was pretty comfortable for a pull out. The bed was divine!! There was enough space to spread out in the room and get comfortable. Our check in clerk was Brenda and she was absolutely adorable and extra warm and welcoming. The only thing I would work on is breakfast options. This is by no means a complaint only a suggestion. My son and I are mildly allergic to eggs. Most places have cottage or sliced cheeses, biscuits and or even peanut butter as another protein option for people like myself. Unfortunately cold sausage patties were the only option for the bagels. I will be staying here from now on. More</t>
   </si>
   <si>
+    <t>Stanley A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r467253708-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -414,6 +450,9 @@
     <t>Stayed here in March 2017. Check in was a breeze, it took about 30 seconds to check in because my room was already ready when I arrived. Just picked up my room key and showed my id and credit card and off I went. The reception lady advised me about my room number, breakfast and where the elevator was. Breakfast was free and good. Overall everything was good.Just a note, there is construction going on the major highway 35W closer to the Alliance Airport and the hotel but the construction is not in the hotel area so be aware that you may experience a slight traffic. I did not experience too much traffic but the construction slows down traffic. Overall good stay and good area.Thank you.More</t>
   </si>
   <si>
+    <t>cskgn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r457135232-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -441,6 +480,9 @@
     <t>I've had the opportunity to stay at this property close to 10 times, and I've never had a bad experience.  I can't say enough about the staff - Brenda and Maricruz at the front desk are so wonderful!  Always greeted with a warm smile and pleasant conversation, it feels like coming home.I've worked with Alma and Jamee in sales to book large groups and they have been such a pleasure to work with.With such a wonderful staff, and the clean and updated rooms, it makes traveling for work a little easier.  I can't thank you all enough for making every stay such a great experience!More</t>
   </si>
   <si>
+    <t>Nina M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r455186228-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -468,6 +510,9 @@
     <t>Very clean and comfortable. Well maintained. Left my IPad in lobby and front desk contacted me to say they had it. Manager left a sweet and funny note in it. Everyone here is polite, friendly, and positive. Come here 4 times a year for work. Consistently a great place to stay.  More</t>
   </si>
   <si>
+    <t>Angie C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r450308933-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -492,6 +537,9 @@
     <t>We decided to take a spontaneous trip to visit family in Fort Worth and booked a room here through a travel site. Our stay was a wonderful experience. Brenda was one of the most helpful and friendly staff that we have ever had at a hotel. She went above and beyond to make sure we had everything we needed even double checking that we had enough blankets when we went downstairs to get snacks. Thank you for incredible customer service!More</t>
   </si>
   <si>
+    <t>Craig W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r434168925-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -519,6 +567,9 @@
     <t>The hotel staff and facilities were very good.  The hotel is older but it's renovated and maintained very well. Staff was pleasing from check in through check out.  We had breakfast one morning and the person managing the area was very busy and very polite despite some guests.  The rooms are a good size but the bed (Queen) and sofa bed (full/twin) run small.  We made our reservations for our next trip back to the area before we left. A lot of restaurant options about five miles south of the hotel.More</t>
   </si>
   <si>
+    <t>LovesAVaction</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r429662161-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -543,6 +594,9 @@
     <t>While I didn't spend the night at this hotel, I feel I can review it.  I was lost and needed directions from Fort Worth to Dallas.  The highway system in the city seems to always be under construction and traveling at night makes it even more complicated.   I stopped at the Residence Inn and Brenda, who was staffing the desk, couldn't have been more accommodating.  She charged my phone, let me use the computer to print out mapquest directions, let me use the restrooms and allowed us to rest in the lobby until the phone was ready.  During that time, she was kind and compassionate.  The lobby was immaculate.  Guests seemed to be enjoying the common areas (playing dominoes, etc.).  The restrooms were extremely clean as well.  All guests were greeted immediately and assisted with the same ease and customer service she offered to us.   She is a true asset to a very well run hotel.More</t>
   </si>
   <si>
+    <t>kevinburns236</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r429306338-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -567,6 +621,9 @@
     <t>I work for Texas Health Resources and each year we stay at this facility while providing Medical for the Alliance Air Show. This is just an awesome place to stay. From the rooms to the staff to the outdoor cooking amenities. Not to mention the pool and hot tub. The customer service provided to us each year is awesome!! Since our first stay 8 years ago, we have gotten to know the staff very well and each year they welcome us back as if we were family. Clint Naul is the manager and is awesome at what he does, always there for whatever you may need and he has an amazing crew. The Front Desk staff are also amazing. Brenda and Maricruz are there to greet us each year when we walk through the front door and show us VIP treatment for our entire stay. One evening we were just hanging out in the lobby, when Brenda and Maricruz went back in the kitchen (which was closed) and came back with a plate of fresh warm cookies. What a pleasant surprise! Housekeeping is there to clean the rooms each morning and will leave extra towels etc. if you ask. Overall, I would recommend this establishment for anyone staying in the DFW area.More</t>
   </si>
   <si>
+    <t>ggllk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r415439823-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -594,6 +651,9 @@
     <t>I stayed at this hotel for a couple of weeks. It is overall good, clean, room is comfortable, though the 2-bedroom suites have unequal bedrooms: one large room with a noisy AC, and one smaller room with a silent AC... Tough choice!Breakfast is basic, especially when it comes to warm items. Because I stayed two weeks, it quickly became repetitive and unpleasant. But if you stay for a few nights only, it will be adequate. Breakfast room itself is pleasant on most morning but there were a couple of very crowded days.Housekeeping proved itself to be approximative. Some days towels were not replaced, some days they were misplaced, some days used towels removed but not replaced, ... Same story with pillows. Dry cleaning service is also not optimal.Finally, rooms on the highway sides are a bit noisy. It's a remote noise but it might disturb the light sleepers.More</t>
   </si>
   <si>
+    <t>Camilla N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r403619724-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -621,6 +681,9 @@
     <t>Great place to stay with a family. They have a suite with 2 adjoining  bedrooms onto a living room and kitchen area with a fold out couch and table. All 3 rooms have their own tv. Full size Fridge, stove top, microwave, dishes, dishwasher. Great breakfast options. Basketball court and basketballs available. Nice gym. Only issues was whole first floor is a pet floor so make sure you know that if you have allergies to pets! We had to switch rooms to another floor which they accomidated but it was a hassle with 5 kids under 11. More</t>
   </si>
   <si>
+    <t>costatlanta</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r400584450-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -645,6 +708,9 @@
     <t>Clean and well maintained Large rooms with plenty of outlets for your electronics Kitchenette is a plus for those that require it Beds are very comfortable The included breakfast included items like cheese and fruit providing a bit more than the standard scrambled eggs and meat Great price and convenient. More</t>
   </si>
   <si>
+    <t>khearn68</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r382026787-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -672,6 +738,9 @@
     <t>I really enjoyed this hotel! It was a quick and efficient check in and thd bed was amazing. I had a great nights sleep and wished i could have stayed another night!! It was exceptionally clean and well kept! Will most definitely return next time we are in the area.More</t>
   </si>
   <si>
+    <t>1969RS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r378023757-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -699,6 +768,9 @@
     <t>Needed a location clear to Speedway for one night. It's only 10 minutes to Texas Speedway.  Rooms are clean and comfortable.  If it were not for the kids next door making noise at 3am, I would say is quiet too.  Nice pool area with grill area. We stay here again. More</t>
   </si>
   <si>
+    <t>Paul S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r376506040-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -720,6 +792,9 @@
     <t>Hotel was clean, room was comfortable, location was great except that dining options were severely limited as I did not have my own vehicle on this particular trip. Comfortable room made up for unexpected stress on business part of trip. Breakfast buffet had some different items each day so it wasn't just the same old stuff. Didn't try internet or outdoor pool, did use the computers in the lobby extensively. Would stay again.More</t>
   </si>
   <si>
+    <t>10197701</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r369572851-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -747,6 +822,9 @@
     <t>We stayed for one day for a event at the Texas Motor Speedway. It was close but not walking distance. We liked the decor of the lobby and rooms, updated and contemporary. Check in and out was fast and simple, the hotel was sold out. We had a room on the 4th floor and was quiet for the most part, better than most other hotels. The room was on the small side, no room for a lounge chair , but lived up to the 'residence' name by having many of the small creature comforts of home. Free fridge, micro, coffee, popcorn, toiletries, cork screw where available to use. Stock iron was appreciated. Flat screen tv with HBO is standard. We like the service the hotel offers of providing a small grocery list of items that can be delivered the next morning to you room. Only complaint was the bathroom fan squeeked when used and was loud, hard not to make noise for the other person still sleeping. Also the maid service kept knocking on the door in morning, I did not see a do not disturb sign to use. However, still felt like it was a great experience and room. Did not use the complimentary breakfast or work out room. If you need a room near the alliance airport or texas motor speedway i would recommend, otherwise its far from most other places, however, there is a large shopping center...We stayed for one day for a event at the Texas Motor Speedway. It was close but not walking distance. We liked the decor of the lobby and rooms, updated and contemporary. Check in and out was fast and simple, the hotel was sold out. We had a room on the 4th floor and was quiet for the most part, better than most other hotels. The room was on the small side, no room for a lounge chair , but lived up to the 'residence' name by having many of the small creature comforts of home. Free fridge, micro, coffee, popcorn, toiletries, cork screw where available to use. Stock iron was appreciated. Flat screen tv with HBO is standard. We like the service the hotel offers of providing a small grocery list of items that can be delivered the next morning to you room. Only complaint was the bathroom fan squeeked when used and was loud, hard not to make noise for the other person still sleeping. Also the maid service kept knocking on the door in morning, I did not see a do not disturb sign to use. However, still felt like it was a great experience and room. Did not use the complimentary breakfast or work out room. If you need a room near the alliance airport or texas motor speedway i would recommend, otherwise its far from most other places, however, there is a large shopping center with a target a few exits south of the hotel. We got a good rate for the room and would try to stay here again if needed.More</t>
   </si>
   <si>
+    <t>J A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r360145785-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -766,6 +844,9 @@
   </si>
   <si>
     <t>I stayed at this Residence Inn a couple of weeks ago and have stayed at the two other hotels nearby in the past (HGI &amp; Hampton). I thought it would be a nicer room with a separate bedroom and 2 TV's that comes with a 1 Bedroom Suite (AS I RESERVED). But, the desk clerk checked me in and didn't say they had switched me to a Studio room. No separate bedroom and only one TV. I was also traveling with my teenage son and his XBOX. So again I wanted what I had reserved. When the room was assigned, they new that I wasn't getting the room I had reserved. So again - they didn't have the courtesy to inform me... I lived with it because I wasn't changing rooms after our travel that day. So I will elect to stay at one of the other nearby hotels next trip. To bad because I do stay in the area often. Good luck!More</t>
+  </si>
+  <si>
+    <t>Reviewgal09</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r344400260-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
@@ -797,6 +878,9 @@
      This place has everything I need to get going with my life and I really...I live in just less than 10 minutes away from this hotel and ever since my house was brought into disarray by broken water pipes in the foundation, we were hopping in hotel by hotel until the repair is completed. I have never stayed at residence inn, and by far, this has been the most comfortable/practical place to stay with my family condition.      First of all, we learned that my daughter could not sleep with my husband in the same room, due to his loud snoring.  The two bedroom suite provided by the inn was very roomy, as it included its own living room, kitchen, microwave, and refrigerator.  The one thing that I must say I missed from the room was the lack of the Keurig machine (Which isn't really a big deal of course, but I find it as a personal preference over the regular drip coffee, which is still adequate).     Free hot breakfast was A+ benefit, there are scrambled eggs, sausage, biscuits and gravy, waffle press to make your own fresh waffles (a personal plus), cereal, danish, bagels, yogurt, and fruits.     The excersice room is open 24/7 and there is an outside pool and with even a jacuzzi! Also, the hotel features  a happy hour on certain time every Monday-Wednesday. I love it!  There is a grill right by the pool as well.     This place has everything I need to get going with my life and I really do not want to go back my house now. In our 4 night stay here, we have not experienced a single issue with the staff or hotel, would gladly stay here again!More</t>
   </si>
   <si>
+    <t>Tom J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r316941078-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -821,6 +905,9 @@
     <t>I stayed here four times in 2015 and four times in 2014. Breakfast was good. Free beer and snacks Mon-Thurs is nice. BIG PROBLEM: NOT ENOUGH PARKING spaces. Arrived several times after 9 pm from a flight and was told by the staff to find a spot on the grass between the two hotels! Yet they allow huge trailers and Uhauls to take up 6 parking spots? Not cool. I will be staying somewhere else until they figure the parking out.More</t>
   </si>
   <si>
+    <t>booniestx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r312892551-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -839,6 +926,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Joan L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r304390974-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -866,6 +956,9 @@
     <t>We have been on the road a good part of the month. We paid $164 for this dinky room. One queen bed, small bathroom, no glasses. The room was so small it was barely big enough for the furniture. The bed had a worn out sheet on it that kept slipping off the mattress all night. The breakfast was more than adequate, people friendly. Just disappointed that for the money we got such a small room. The sad thing is, I could have gotten Hilton Honors points for the same money. The hotel was in view of this one where we stayed. More</t>
   </si>
   <si>
+    <t>nickel1612</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r275738255-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -890,6 +983,9 @@
     <t>Have not stayed here in awhile but was pleasantly surprised. The rooms had been renovated since the last stay which was about 2 years ago. Good variety at breakfast and the gym had good equipment. The rooms were clean and comfortable. Everything you expect from a Marriott property. Located right off 35W for easy access to everywhere. What really makes this property excellent though is the staff. Everyone from the front desk to the cleaning staff were great. I will definitely be returning!More</t>
   </si>
   <si>
+    <t>Selah-in-Texas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r269814249-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -911,6 +1007,9 @@
     <t>This is an average Residence Inn.  The staff was friendly and helpful.  I like that the Breakfast staff was accommodating when we had the end time of the buffet wrong.  We arrived late to breakfast on a weekday because the hours differed compared to Saturday and Sunday hours.  We were not told this at the front desk at check-in though.  But the staff in the breakfast area didn't rush us so that was nice.  If you ask me, I think this place is really far from downtown Ft. Worth, so if you want to go to the central Ft. Worth area then I would stay somewhere closer to avoid all of the freeway drive time.More</t>
   </si>
   <si>
+    <t>Jamie-SoloTraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r262196153-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -932,6 +1031,9 @@
     <t>I had to be at Alliance Airport for a work conference early in the morning, so instead of trying to drive in during rush hour, I decided to spend the night locally.  My GPS guided me in via some dark country streets once I got close to the hotel, but what a nice surprise when I arrived. Plenty of free parking. A very patient and helpful front desk. Check in was fast. LOVED my room. I had a very modern, granite topped, flat screen tv, large bathroom suite. It had a sitting area with couch and TV, a kitchen with small table, and a large bedroom and bathroom. Pleasant surprise to discover the connecting door to the next room was the colleague I was working with. She only had the bedroom, so we just opened the connecting door, making it a two bedroom, two bathroom suite. Some evenings they offer a dinner or wine reception. We drove down the highway to a shopping center with a Mi Cocina, Chili's, Fuzzy Taco, etc. we did go down for the complimentary breakfast, which included everything from cereal to eggs and waffles. Pick up a soda or water and snack food at the little Market area beside the front desk. Great workout room. Pool only open seasonally. Free wifi in the room, as well as computers in the lobby with printing. I only reluctantly checked out in the morning as I wish I...I had to be at Alliance Airport for a work conference early in the morning, so instead of trying to drive in during rush hour, I decided to spend the night locally.  My GPS guided me in via some dark country streets once I got close to the hotel, but what a nice surprise when I arrived. Plenty of free parking. A very patient and helpful front desk. Check in was fast. LOVED my room. I had a very modern, granite topped, flat screen tv, large bathroom suite. It had a sitting area with couch and TV, a kitchen with small table, and a large bedroom and bathroom. Pleasant surprise to discover the connecting door to the next room was the colleague I was working with. She only had the bedroom, so we just opened the connecting door, making it a two bedroom, two bathroom suite. Some evenings they offer a dinner or wine reception. We drove down the highway to a shopping center with a Mi Cocina, Chili's, Fuzzy Taco, etc. we did go down for the complimentary breakfast, which included everything from cereal to eggs and waffles. Pick up a soda or water and snack food at the little Market area beside the front desk. Great workout room. Pool only open seasonally. Free wifi in the room, as well as computers in the lobby with printing. I only reluctantly checked out in the morning as I wish I could've enjoyed both the comfortable room and the gym a bit longer. Sonny Bryan's barbecue across the highway on the right. Absolutely quiet area.More</t>
   </si>
   <si>
+    <t>GN303</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r246118860-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -953,6 +1055,9 @@
     <t>I've stayed at this Residence Inn 5 times now over the past 3 years while visiting the area for work.  It's nothing special but it's clean, comfortable and safe.  The front desk staff has changed for the better.  They are nicer and more professional.  The rooms are fine.  They are showing a little wear and tear but the hotel is undergoing a renovation at this time.  I think it will look great when it's finished.  Like having the kitchenette although I never use it except for the refrigerator.  It's nice to keep beverages in for afterwork.  The breakfast bar is fine.  The hot entrees could use an upgrade but I pretty much stick to oatmeal and cereal.  The attendant did knock an apple off the bar, let it roll across the floor, didn't wash it off or even wipe it off then put it back in the bowl that it fell out of.  I wasn't impressed by that.  The nightly manager's social hour is meh as far as food choices go.  Cookies at the front desk and lemonade are a nice treat at night.More</t>
   </si>
   <si>
+    <t>Adventureman1492</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r224183237-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -971,6 +1076,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Sebastian L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r216133675-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -998,6 +1106,9 @@
     <t>The picture of the hotel is not correct.  There is one taken by ClintN, which shows the right building. I did not check the breakfast or gym.  Same for the pool outside.  There is lemonade and water for free at the lobby.  I also had a microwave and some kind of kitchen on my room.  Everything was clean and WiFi is really fast.  iPod docking station radio on the room as well, although I don't have one ;)  power socket close to the bed!  The only thing I did not like was the guy at the reception when I checked in.  OK, but seemed to be annoyed by me as a customer. More</t>
   </si>
   <si>
+    <t>LALela27</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r201708745-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1025,6 +1136,9 @@
     <t>Have stayed here twice recently on business. This facility is showing a little age, but that's made up for in the friendly staff, semi-updated rooms (style of TV, seating etc) and good location.Great value for the money when considering the free wifi and breakfast/dinner. +VERY friendly staff! +fast wifi+good business center-bad pillows (this really matters to me, haha!) -small workout room-FedEx planes taking off at 3am across the street were loud....Wasn't for long though, thankfully!The AC in my room was a bit noisy and the walls aren't the thickest, but I still got some good sleep and appreciated the awesome water pressure! Will stay here again on future business trips.More</t>
   </si>
   <si>
+    <t>PNG81</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r200589458-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1040,6 +1154,9 @@
     <t>Stayed last weekend for NASCAR race and it couldn't of been better. People and rooms were really nice. Morning breakfast was well stocked even though had large crowd. Beds could of been better but not too bad. Left a couple of items behind, got in touch with Ms. James the manager and she had them shipped to us. That was going the extra mile to help us out.More</t>
   </si>
   <si>
+    <t>TheWatchmaker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r196493657-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1061,6 +1178,9 @@
     <t>Spent a few nights on a family trip here and have a huge family birthday celebration coming up at the end of the month with like 5 suites. Why oh why they only offer Mon-Thurs for a mixer. Friday and Saturday are the social nights and would be perfect to offer snacks and drinks and what not on weekends when everyone is there. This Mon-Thurs stuff needs to be extended and just not do it on Sunday's.A heated pool would be nice. Doesn't cost all that much to heat an outdoor pool these days. Also, the breakfast felt rushed and like it wasn't fully stocked. This is a great property...a hidden gem. I know if the GM makes a few tweaks it will be a 5 star stay.Anyway, our family will be back in 3 weeks for a 3 birthday celebration.More</t>
   </si>
   <si>
+    <t>tim w</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r177522504-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1088,6 +1208,9 @@
     <t>Very nice an clean.  Located right across the highway from Alliance Aiport.  Don't let that scare you, there is very little air traffic.  Texas Motor Speedway is 5 minutes away as well.  Dowtown Fort Worth about 10 minutes.  Breakfast:  I sure wish RI would use better recipe for thier "eggs".  If you've stayed at one before you know what I'm talking about.  I've had better powdered eggs when I was on ships in the Navy.  That said, they had the standard morning fare that all the others have.  Didn't make it in time to attend the evening Managers Special so I can't comment on that.  Nice room.  I'd stay here again.  Very pleased.More</t>
   </si>
   <si>
+    <t>Ric_Pilot</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r170746680-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1109,6 +1232,9 @@
     <t>You know it is a good hotel, a Marriott Residence Inn, but there were some points that made me comfortable not rating as an Excellent. The good points first: the hotel is clean and in a safe area. It is really close to Alliance Airport, so it is very convenient if you are going to work there or around. There is a poll a nice fitness area.The not so good points were: the breakfast. If you starts it one hour before it is over, there is no more yogurt or fruits. But if you go to the kitchen and ask for some more, they have it! It happens three consecutive days. It look likes they are saving food.More</t>
   </si>
   <si>
+    <t>ElizabethNDP</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r169445758-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1127,6 +1253,9 @@
     <t>This was the smallest excuse for a suite I've ever seen at a Residence Inn. The breakfast hostess refused to bring out more food (waffle batter, fruit) despite having another 30 minutes of time left on posted breakfast hours. Facilities were clean &amp; new; however, we would not stay at this location again. More</t>
   </si>
   <si>
+    <t>jaypolsky</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r159496495-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1152,6 +1281,9 @@
   </si>
   <si>
     <t>We had a group of 6 of us staying for NASCAR 5/11 - 5/13. It was late at night when we got in on the 12th and we ordered food from that freaky fast place but they went to the wrong hotel and would not come to where we were. So Alma our front desk extraordinary got the other Residence inn bring our food to the right hotel. What a way to go beyond customer service. Alma is the best!! i will stay here at every NASCAR event.Dr. Jay PolskyMore</t>
+  </si>
+  <si>
+    <t>Julie H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r158468813-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
@@ -1180,6 +1312,9 @@
 and gravy, scrambled eggs, sausage patties, toast, bagels, English muffins, blueberry muffins, oatmeal with lots of available toppings, cereal, yogurt, 3 kinds of juice, milk, coffee, FRESH pineapple!, oranges, apples, and bananas...I'm probably leaving something out, but it was GREAT! The young lady...My parents, adult children, husband, and I stayed in a two bedroom suite this weekend while traveling to Fort Worth for a wedding. The room was more than any of us expected! Each of the bedrooms and bathrooms were spacious and comfortable. The 'Master Bathroom' had a vanity area separate from the toilet and tub/shower. The little things made our stay great! A large round movable mirror in the master bath allowed all us girls to see our hair from front to back while getting ready. The full size ironing board kept my husband busy pressing out wrinkles. The microwave popcorn made the girls happy after a long day of driving. The fireplace in the living room was a comfortable touch. The 3rd floor view of the pool/tennis area was relaxing. The 3 t.v.'s and their remotes all worked beautifully. The beds were EXTREMELY comfortable for those of us used to sleeping on regular old Serta mattresses at home. The fully functional kitchen, with table and chairs for 4 was nice. Even the pull-out sofa bed gave the girls a good nights sleep. Also exceeding our expectations was the full, hot breakfast! What a treat! Waffles, biscuitsand gravy, scrambled eggs, sausage patties, toast, bagels, English muffins, blueberry muffins, oatmeal with lots of available toppings, cereal, yogurt, 3 kinds of juice, milk, coffee, FRESH pineapple!, oranges, apples, and bananas...I'm probably leaving something out, but it was GREAT! The young lady at check in was very friendly and knowledgeable, and the manager, Clint, appeared to be delighted to have us at his hotel. It was, all in all, a lovely stay, and I would definitely stay again if visiting the Fort Worth area!More</t>
   </si>
   <si>
+    <t>FireMedicSteve</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r157312061-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1198,6 +1333,9 @@
     <t>I stayed in a one bedroom studio, which offered lots of great amenities for long-term travelers and families. The two-bedroom suites were much roomier and well worth the slightly higher price. The kitchenette in my room included a dishwasher, full sized refrigerator, stove, oven, small dining room table that doubled as an office worktable, spacious living room, and large bathroom. The living room included a nice couch, reclining chair, and nice sized HDTV. The room was clean. I encountered two minor maintainance issues. One of the closet doors was off its hinges and the curtain rod hung down instead of bowed out as its designed to do. Neither were big enough for me to mention until I checked out after three days.The front desk staff was very nice. As with all Residence Inns, the hot breakfast and heavy appetizers during the early evening 90-minute "happy hour" offers delicious food at no cost. Food at both was very good. Other guests enjoyed the pool and outdoor hot tub. The workout room was small but functional. Bottom line is that this Residence Inn offers nickers, larger rooms with more amenities than any of the other nearby hotels. I would absolutely stay at this hotel versus any of the others in the area.More</t>
   </si>
   <si>
+    <t>Linda W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r154012571-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1225,6 +1363,9 @@
     <t>Stayed at this Hotel  twice in a three week period and received the same excellent service both times.  We require an accessible room and the staff went out of their way to make sure that the room we stayed in met all our needs. The rooms are spacious and pleasant.  Laundry room was clean.  Breakfast and evening meals were good.  Can't say enough good about our experience.More</t>
   </si>
   <si>
+    <t>ShariJ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r153181999-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1241,6 +1382,9 @@
   </si>
   <si>
     <t>Stayed at the hotel for a weekend dance competition.  The hotel was clean and beds were comfortable. Hotel was close to many restaurants and the airport.  Only complaint the towels were a little worn.  Overall great stay.More</t>
+  </si>
+  <si>
+    <t>Dictator_Sulla</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r152858002-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
@@ -1273,6 +1417,9 @@
 Breakfast is included and plentiful -...As a first time visitor to this Residence Inn, I am glad I didn't go with my first instinct to stay at the Marriott Hotel and Golf course located at the Texas Speedway. First of all, this hotel is much more conveniently located to my client's location. Second, the hotel has a couple of quick service restaurants and a convenience store within walking distance, whereas the Marriott stands in magnficient isolation about 1/2 mile from 114 West. Most importantly, the Residence Inn is quiet, comfortable, clean, and has a friendly, competent yet unobtrusive staff who go the extra mile to make you feel welcome. My room was a studio sized room with all the amenities a business traveller needs - free Wifi, iron+board, plenty of hot water, flat screen TV with 2 HBO channels, working area with a comfortable adjustable swivel chair, a kichenette with microwave, sink, coffee maker, can opener and some utensils (but curiously no spoons or forks, just one knife).It had a door connecting it to the adjoining room, which means families can get two rooms and turn it into a mini-suite.The hotel has a nicely appointed gym on premises, a decent sized pool and hot-water jacuzzi, and even a basketball court. Plenty of parking. Coin-operated washers and dryers on 2nd floor. Sundries (interestingly no OTC painrelievers except for Midol), microwaveable food and cold drinks for sale by the reception.Breakfast is included and plentiful - scrambled eggs, sausage patties, hash browns, biscuits with gravy, french toast, potato pancakes, fresh fruit, several varieties of cereal, muffins, donuts, coffee (they had my favorite Irish Creme creamer plus several other flavors), a selection of teas, juices, etc. etc. etc. Everything a growing (well, at least across the middle) boy needs to start off the day. :)Every night from 6 - 7:30 the hotel has a Social or Happy Hour, with FREE tap beer and wine and FREE food! A different dish every night - Monday was Mexican, Tuesday was Italian, Wednesday was burgers and fries, Thursday was sandwiches. You get a lot of value for your dollars here. Recommended if you're passing by or have business in the area.The only negatives (more like nits) during my stay? 1- Every morning the dining room's TV featured FauxNews. Loudly. Yikes.2- We had a fire alarm go off at 2 AM on Thursday morning - thank God it was a false alarm - a guest decided to smoke in their room (the hotel is 100% non-smoking). We spent almost an hour outside in a 30-degree drizzle. The fire department showed up IMMEDIATELY though - the station must be very close. 3- The ice machine is located inside the 2nd floor laundry room, which has a keycard lock. This is not a problem except when you're trying to get ice after 10 PM - I guess they lock the laundry room at that time so guests nearby aren't disturbed by washer/dryer noise at night. Next time I visit my client I'll be staying here again.More</t>
   </si>
   <si>
+    <t>Eamonn H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r146088414-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1300,6 +1447,9 @@
     <t>good location for fort worth alliance airport.Friendly staff clean spacious rooms,good breakfast and happy hour 4 times a week.Has business center and fitness room which must start using next trip.Cant think of any down side about 10-15 min drive to nearest shopping mall etc.More</t>
   </si>
   <si>
+    <t>g0lflady</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r145826860-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1318,6 +1468,9 @@
     <t>My husband had business in the area and was not able to fly so I drove him to Ft Worth from Naples, FL.  We stayed 2 weeks and it couldn't have been better.  Close to the office he was working at and easy for me to navigate around the area.  There are lots of choices for breakfast; something for everyone.  Happy hour in the evening is also very good; different offerings each night that it is available.  The staff is very friendly and helpful especially Clint and everyone else that works there.  My husband has more business in the area in the coming months and most definitely will be staying at the Residence Inn.Thanks for taking such good care of us!More</t>
   </si>
   <si>
+    <t>Foollikes2travel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r145725942-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1336,6 +1489,9 @@
     <t>I was greeted with a smile and a friendly employee.  I was checked in, I was informed of the happy hour, and directions to my hotel.  I had a studio room, when I entered, it was clean and very spacious.  The bed was comfortable, the kitchenette was clean, the Tv swivelled so you can see it any point in the room.  I would stay here again.More</t>
   </si>
   <si>
+    <t>Amanda P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r141696632-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1363,6 +1519,9 @@
     <t>We arrived late at night and walked in to a check-in area that had been completely flooded.  There were fans running everywhere and water damage on the ceilings and walls.  The computers didn't work at the front desk and they had to work from a computer in the back office.  I only mention this because with these conditions,it would have been understandable if the two women behind the front desk had been unfriendly, but it was just the opposite.  They were so nice and checked us in as quickly as possible.The room was nice and clean.  Breakfast was okay.  Plenty of choices, but we got to breakfast kind of late .  The biscuits were hard and the fruit seemed old.  I'm sure it would have been better if we had arrived to breakfast earlier.  I'd definitely stay here again.More</t>
   </si>
   <si>
+    <t>jazzyinwf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r139337095-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1387,6 +1546,9 @@
     <t>This is a very nice hotel typical of Marriott the room was nice and clean,and breakfast was pretty good.Not the best residence inn that i've stayed at but still nice. Only complaint that I have I was told there wouldn't be any hidden fees since paying with a credit card and of course there were.More</t>
   </si>
   <si>
+    <t>Jessica R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r138829798-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1408,6 +1570,9 @@
     <t>After reading reviews of this hotel and seeing pictures I was certain that this would be a nice place to stay while working in the Fort Worth area. Two weeks ago I stayed at the Hyatt Place in the Stockyards (WAY BETTER!), and I felt this hotel would be similar with a more convenient drive. Needless to say I would rather drive twice the distance to stay in the Hyatt again, however I am stuck here for the week. At night the airport and air conditioning unit noises have kept me from sleeping well. Upon entering the room for the first time it looked in order, but when taking a closer look I noticed several dingy items: a large towel had a booger and a smaller towel had a brown smudge, the sheets had multiple gray marks that looked like mascara, and the toiletries had obviously been used and left by the person ahead of me (some here half full). I called the front desk and received an apology. All items were replaced and since then I have not noticed anything else that dirty. Breakfast is okay and overall the staff has been friendly. Next time I will not stay here. As noted in previous reviews, I don't think this hotel stands up to its Tripadvisor rating... it is a bit inflated.More</t>
   </si>
   <si>
+    <t>usskyking2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r136914811-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1432,6 +1597,9 @@
     <t>The room carpet and furniture are soiled and nasty. It is obvious that pets are allowed due to the late night barking, that was not corrected by management when brought to their attention. This is my second (2 week) stay at this marriott property in 2 years. I figured I would try them again, but nothing has changed.. won't stay here again!More</t>
   </si>
   <si>
+    <t>Bill H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r135571051-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1453,6 +1621,9 @@
     <t>I spend in excess of 150 nights a year in hotels and the Residence Inn Alliance is my favorite spot, great staff, easy access to the work area and social nights.Highly recommend if you are in the local area and need a great palce to lay your head make plans to stay at the Residence Inn Alliance.More</t>
   </si>
   <si>
+    <t>philyfz450</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r135506129-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1471,6 +1642,9 @@
     <t>Our stay there was great. It was just like the pics on the internet. And it had all the amenities you could think of and very clean and roomy. loved it would stay there again!!! They had a real breakfast bar and they also served FREE soup and salad bar on monday, tuesday, wensday and thursday nites!!!More</t>
   </si>
   <si>
+    <t>Amen9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r133311808-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1495,6 +1669,9 @@
     <t>Clean and has all the amenities..no bar or real restaurant.  Management is top notch and gets things done.More</t>
   </si>
   <si>
+    <t>Hmpeery</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r130262603-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1519,6 +1696,9 @@
     <t>Stayed here on a whim, the rooms are very spacious and are well furnished.  Also very clean!  More</t>
   </si>
   <si>
+    <t>Stanton D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r130123137-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1540,6 +1720,9 @@
     <t>Drove from Jackson, MS (w/ 2 hrs in Vicksburg) through Dallas/Ft W rush hour and the yellow brick road brought us to their door.  As a Lifetime Marriott Member I do understand loyality.  Maricruz could not have been more gracious and helpful in that we knocked on the door of the Inn sans reservations.  Her efforts yesterday on our behalf are greatly appreciated.Culture of any organization or "location" is a top-down influence.  The GM is Ms Lynette Hooper who truely carries a wonderful spirit, sense of humour and Marriott quailty and efficiency.  Discussed that we'd like to find a similar Marriott product in Boulder, CO for Mem Day Wkend.  Her Marriott knowledge of the system was superior and in no time had us settled there with a reservation when most properties are sold out for that wkend.I hope someone within Marriott's Management System reads this as yes, I am a "Lifer"  A few of us do walk in the doors from time to time.  This "Troop" DESERVES recognition! Good Show!Stanton D.More</t>
   </si>
   <si>
+    <t>suzieq13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r128169073-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1559,6 +1742,9 @@
   </si>
   <si>
     <t>Upon checking in, Clint and Austin were both great. The customer service is top notch and very welcoming. The room was clean and quiet, and the hotel itself is very easy to access off of I-35 W. I've got two more upcoming trips to the area, and I'll definitely be booking my stays here again.More</t>
+  </si>
+  <si>
+    <t>zizzr</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r125107383-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
@@ -1590,6 +1776,9 @@
 Hard to find any faults here, but if forced to make recommendations- the towels could use updating as they are getting a bit thin, and the double closet mirrored doors were off the track and unable to really be used in both rooms our family had. Hubby and brother tried to get doors back on track but not successful. Also our room has a noisy fan in the toilet/tub area. That being said, these are minor things and would not deter me or our family from staying here again, or trying other hotels...We stayed here for three nights, during a family event. Our family had two rooms across the hall from one another. Rooms are spacious, clean and nicely laid out with bed off to the side from the sitting room/kitchen area. Being set up as extended stay hotel there is a full fridge, cooktop, dishwasher, dishes and pots for those wanting to cook in room. Unlike some extended stay hotels, this one has daily housekeeping, for making beds, exchanging towels, and emptying the trash. I was impressed with hotel staff from the moment I called to make reservations! VERY helpful and accommodating!There is breakfast served each morning, and boasts about a social type hour in the evenings some nights- but not clear on what time this takes place. We weren't around to try that out. Breakfast is the usual fare, but plenty of choices, and good coffee!Hard to find any faults here, but if forced to make recommendations- the towels could use updating as they are getting a bit thin, and the double closet mirrored doors were off the track and unable to really be used in both rooms our family had. Hubby and brother tried to get doors back on track but not successful. Also our room has a noisy fan in the toilet/tub area. That being said, these are minor things and would not deter me or our family from staying here again, or trying other hotels elsewhere of the same brand.  Good sleep, rooms comfortable and spacious!More</t>
   </si>
   <si>
+    <t>Mybackhurts</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r123839678-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1617,6 +1806,9 @@
     <t>On business trip. Very close to my destination. Ok gym, but was on trip for 3 weeks so joined a local gym. Breakfasts were fantastic ! Bed not so much.....needed porter to put flat plywood between mattress and box spring to get an ok nights sleep.....I'd still recommend this place but they really need to update the beds.More</t>
   </si>
   <si>
+    <t>CenterCty_Traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r118980353-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1644,6 +1836,9 @@
     <t>This is my 3rd visit at the Residence Inn Fort Worth Alliance/Airport while on business. The hotel is clean and functional. The staff makes you feel welcome and is eager to help. I would recommend Residence Inn Fort Worth Alliance/Airport for business travelers.More</t>
   </si>
   <si>
+    <t>Pam B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r118905668-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1662,6 +1857,9 @@
     <t>We arrived just before a storm hit and the entire hotel lost power for about 30 minutes....I was in the shower when it happened...very dark.  I think they had a backup generator, but it did not work, obviously.  However, the bed the good and the breakfast was the typical hot items and mixture of other things.  The only bad part and this is why they are getting 3 star instead of 5 and there is nothing they can do about it, is their location.  It is right next tot he Alliance Airport and jets were taking off all through the night.  I was woken up at 3:00 a.m. and several other times.  So if getting a full nights sleep is important to you, I would find another place.  Also, it was double the price that we paid the next night in Kansas City.  The price was close to 200.00.More</t>
   </si>
   <si>
+    <t>Heidi S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r118321556-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1683,6 +1881,9 @@
     <t>Property is very well maintained, rooms are NICE and beautifully decorated!! Clean, clean, clean. We had to switch from 222 (beautiful pool view, flowers all around the window, but AC wasn't working at full capacity) to 422. Front Desk was very helpful ,took them no time to accommodate us. The interior of the rooms is really cozy, nice and brand new. Housekeeping does an excellent job to keep all immaculate. I was really surprised. We were trying to stay at Champion Gate, but it was sold out, so this really wasn't our first choice at all. But we needed to be minutes away from the Bell Facility, so there were not that many options. Pool area is very nice, small gym, staff is very helpful. All in all, a home away from home. Just really enjoyed the property. Breakfast is good as well.  And again, in my opinion this property is better maintained than other hotels, where I stayed and paid way more money per night. You can NOT go wrong here!More</t>
   </si>
   <si>
+    <t>jrcostales</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r115087305-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1701,6 +1902,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>AngelVGo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r114694320-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1716,6 +1920,9 @@
     <t>My stay was from March 2011 to June 2011.  During these 3 months the staff at Residence Inn FW A/A made me feel at home.  I've stayed at different Marriott hotels, this one by far exceeded my expectations.  Everyone greeted me with a smile and were very helpful and accommodating.  Thank you to all for making me feel at home.</t>
   </si>
   <si>
+    <t>Travel2011047</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r108263627-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1734,6 +1941,9 @@
     <t>April 2011</t>
   </si>
   <si>
+    <t>Draw2much</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r104407897-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1752,6 +1962,9 @@
     <t>We have pretty bad luck with hotels, but this one was a knock out! We got the room with a kitchenette and queen size bed. First, the room was in excellent shape and very clean. Second, the bed was extremely comfortable and the pillows were so good I regretted bringing my own. Third, they had a very large LCD TV in the room, it had to have been between 32" to 40" big. It could be turned right or left, allowing you to watch TV on your bed or on the couch. Forth, the kitchenette came with two ceramic burners, a small sink, 'frig, dishwasher, and dishes. Fifth, the hotel staff was friendly and helpful.I have to say a special thanks to the maid staff. I thought I lost my cell phone in the room and when I couldn't find it, one of the maids went through the room--leaving no draw unopened--looking for it. She even used her own cellphone to call mine to see if we could hear it ring. It turned out the phone got packed in the suite case accidentally and was in the car. Still, the fact that so much effort was put into finding my cell phone and how cheerfully it was done made the experience great.I recommend this place and we'll probably stay there again when we decide to overnight in the Dallas/Ft. Worth area.More</t>
   </si>
   <si>
+    <t>peacockranch</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r99591497-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1773,6 +1986,9 @@
     <t>I stayed at this hotel quite a bit for business in the last 4 months, and I have to say that it has been one of the best places I have ever stayed. I stay in quite a few hotels throughout the year, and am not loyal to any certain brand, however, I am VERY loyal to wonderful customer service. This place will keep me coming back time and time again. Where do I start with the family like atmosphere? I will start with the check in process: Clint at the front desk was born with customer service in his heart. Always happy to help with bags, reservations, directions, local knowledge with restaurants, even picking guests up in the van! Lindsay at the front desk-there is no other like her around, she loves to make people feel welcome, and is a joy to converse with after a hard day at work. During dinner service, Holly is always cheerful and accommodating with anything that you might need, the outdoor patio where the grill is is always kept VERY clean thanks to the wonderful maintenance person. The rooms were not only SPOTLESS every time I came back from work, the Kleenex was even folded in a fancy way!! Overall I have to say that this hotel experience, by far, has been the best because you are made to feel that you are staying at home. Away from home, and that is hard...I stayed at this hotel quite a bit for business in the last 4 months, and I have to say that it has been one of the best places I have ever stayed. I stay in quite a few hotels throughout the year, and am not loyal to any certain brand, however, I am VERY loyal to wonderful customer service. This place will keep me coming back time and time again. Where do I start with the family like atmosphere? I will start with the check in process: Clint at the front desk was born with customer service in his heart. Always happy to help with bags, reservations, directions, local knowledge with restaurants, even picking guests up in the van! Lindsay at the front desk-there is no other like her around, she loves to make people feel welcome, and is a joy to converse with after a hard day at work. During dinner service, Holly is always cheerful and accommodating with anything that you might need, the outdoor patio where the grill is is always kept VERY clean thanks to the wonderful maintenance person. The rooms were not only SPOTLESS every time I came back from work, the Kleenex was even folded in a fancy way!! Overall I have to say that this hotel experience, by far, has been the best because you are made to feel that you are staying at home. Away from home, and that is hard to do.Cheers to the Team at Residence Inn, my home away from home!!More</t>
   </si>
   <si>
+    <t>flyme56</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r98271957-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1788,6 +2004,9 @@
     <t>The cookout Wednesday night was outstanding, (lets expand that to the other nights!)and I hope they will continue that tradition. Manager Lynette Hooper did the cooking and seeme like she was at the hotel from morning to night. Clint Nauls also made sure that each guest felt like we were at home. This hotel has one of the best staffs in the country and with treatment like this I will be back!</t>
   </si>
   <si>
+    <t>JCampisi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r94062890-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1803,6 +2022,9 @@
     <t>Great place to stay - Great food - Friendly personnel - They care about their customers. They make you feel that they want you as a friend, not just a customer.</t>
   </si>
   <si>
+    <t>Ekim429</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r92595169-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1821,6 +2043,9 @@
     <t>The Residence Inn at Ft. Worth is excellent. The staff is extremely accomodating and helpful. They bent backwards to make my and my colleagues stay the most pleasant experience possible. I can honestly say that the staff and their helpfulness is fairly unmatched - quite a big statement as I travel and stay in various Marriotts and Hiltons nearly 3 out of 4 weeks a month.The rooms are very clean and comfortable. The beds are soft and pleasant. The kitchens are nicely upgraded with marble countertops and newer appliances. If you are looking for an extended stay anywhere, this is the place to stay. The hotel is equipped with a nice workout room. Has a basketball court in the back. And even BBQ pits for the summer months.Very good hotel. I recommend it.More</t>
   </si>
   <si>
+    <t>Volvo11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r92595078-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1833,6 +2058,9 @@
     <t>The accomidations are unmatched in the industry when it comes to cleanleness. The staff knew my first and last name name after my first visit. All members of my organization will use this as their primary otel going forward. Fast, freindly, professional service at a fair price. I look forward to my TX visits. I am treated like family.</t>
   </si>
   <si>
+    <t>Fer-H7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r85943796-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1851,6 +2079,9 @@
     <t>October 2010</t>
   </si>
   <si>
+    <t>Vicki K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r85653140-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1869,6 +2100,9 @@
     <t>I was traveling with a group of colleagues for a 5 day stay in Ft. Worth.  The Residence Inn was perfect with breakfast in the morning and dinner/snacks at night, with free beer and soda.  I loved having the full fridge in my room and all the necessary items for a real kitchen.  I had a studio suite with the most comfortable queen bed, an awesome flat screen TV.  Loved to be able to move the TV so I could watch it from the couch or the bed.  I also really liked the iHome radio so I could play my iPod while getting ready in the morning.  The only negative was that I was not familiar of how to set the alarm for the morning &amp; it took me 5 minutes to figure it out.  Highly recommend this hotel when you are in the Fort Worth / Alliance area.  It is just a short drive from some fantastic restaurants in Roanoke &amp; just a short drive to tons of shopping, food, etc.More</t>
   </si>
   <si>
+    <t>disappointeddave</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r84961046-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1884,6 +2118,9 @@
     <t>Home away from home. Staff is most incredible ... responsive, fun, knowledgeable, and eager. Few minor mechanical problems with the rooms .... sink drains are temperamental, but very minor. Breakfast every day is healthful and plentiful! The evening snacks on Monday through Thursday are worth staying home for. Hotel is clean and neat - all the time. The housekeeping staff is very dedicated and thorough. Will definitely stay again.</t>
   </si>
   <si>
+    <t>jeamon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r17093286-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1905,6 +2142,9 @@
     <t>We were sent here after the LQ Fort Worth North overbooked rooms and left us without a place to stay.  So, La Quinta paid for the room, thus I cannot attest to the value.  However, I can say that we were grateful for the front desk's friendly service and the comfortable bed at 3:30 am.  They accepted pets, which was also a big plus for us.  There was evidence of a lot of wear in the room, though.  The chairs were faded with torn up corners.  The stovetop didn't work and the bathroom tile was a little moldy.  Also, having stayed at Residence Inns in the past, I was surprised there was no desk in the room.  That said, the bed was comfortable, the shower pleasant and we had no problems with noise, etc...More</t>
   </si>
   <si>
+    <t>HeatherScoob30</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r14858008-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1923,6 +2163,9 @@
     <t>February 2007</t>
   </si>
   <si>
+    <t>pgfan4ever</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r12260406-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1942,6 +2185,9 @@
   </si>
   <si>
     <t>My husband and I decided at the last moment to drive down to Ft. Worth the night before an event instead of a drive down and back from OKC in one day.  We lucked on to this hotel!  We were looking for one close to Cabela's (where my husband just had to go) and this hotel was minutes from there.  I drove in because I have stayed at Marriot hotels before and they have all been very nice.I was not disappointed in the least!  The price was great, the room was great, bed was comfortable and breakfast was awesome!  I read in some of the other reviews that there was noise, but we didnt hear any noise at all, from planes, or the highway.  I will definitely stay here any time I am in the DFW area.More</t>
+  </si>
+  <si>
+    <t>Ellyanne</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r6731405-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
@@ -1991,6 +2237,9 @@
 You get...We stayed at this hotel Jan 26-28th for our quick weekend in Texas for a wedding reception. I have to first say that if I traveled back to the area I would most likely try to find another hotel to stay at...if none were available I would stay here again. Pros of this hotel:They do have full kitchens, living room and bedroom separate if you wish. They are located close to just about anything and close to where our family lives in Trophy Club.They do have a hot tub and pool and a fitness center.Very comfortable PillowsCons: Bear with me on theseVery loud hotel...every morning it sounded like a stampede coming from the cleaning crew. We were located across the hall from the laundry room so the constant slamming of the door there throughout the night was horrible. We also had the loudest restroom facilities in the building. The breakfast was absolutely horrible. I was grateful that this was a complimentary breakfast because if I had paid extra for this I would have wanted my money back. I'm not trying to be rude it was just that bad. We ate one morning but didn't even try the next morning. The cleaning crew put carpet freshing powder in the elevators and lobby area and left it there for about 2 hours we almost choked riding down the elevator it was so strong. In conclusion:You get what you pay for at hotels. Remember that. We knew we weren't staying at the Hilton or similar. We have stayed at many marriott hotels and love the marriott just wouldn't chose this one first. It was a place to rest our heads and that is all it was good for in my opinion.More</t>
   </si>
   <si>
+    <t>Middle-aged_Madman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r4993155-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2004,6 +2253,9 @@
   </si>
   <si>
     <t>We stayed at this Residence Inn on a recent visit to Texas Motor Speedway.  Rooms were quiet, well-kept, and roomy.  Complementary breakfast was a notch above the norm for a hotel of this type.  The staff was friendly and very willing to help.  Easy access to I-35E, but located far enough back from the highway that road noise was not an issue.  Several restaraunts within easy walking distance across the highway; nice on-site pool, hot tub, sport court, and workout room.  As the hotel is normally marketed at businesspeople, weekend rates are very reasonable.</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d223890-r1126947-Residence_Inn_Fort_Worth_Alliance_Airport-Fort_Worth_Texas.html</t>
@@ -2526,43 +2778,47 @@
       <c r="A2" t="n">
         <v>39139</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>93360</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2582,50 +2838,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>39139</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>175922</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2645,50 +2905,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>39139</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>19716</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>61</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>59</v>
-      </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -2706,50 +2970,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>39139</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>175923</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2761,56 +3029,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>39139</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>175924</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -2830,50 +3102,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>39139</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>175925</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>86</v>
       </c>
-      <c r="L7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>81</v>
-      </c>
       <c r="O7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -2891,50 +3167,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>39139</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>10891</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2952,50 +3232,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>39139</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>175926</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -3013,50 +3297,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>39139</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>175927</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -3076,50 +3364,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>39139</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>175928</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3137,56 +3429,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="X11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="Y11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>39139</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>175929</v>
+      </c>
+      <c r="C12" t="s">
+        <v>127</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="K12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3198,56 +3494,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="X12" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="Y12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>39139</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>21798</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J13" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
         <v>123</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
-        <v>124</v>
-      </c>
-      <c r="J13" t="s">
-        <v>125</v>
-      </c>
-      <c r="K13" t="s">
-        <v>126</v>
-      </c>
-      <c r="L13" t="s">
-        <v>127</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="s">
-        <v>113</v>
-      </c>
       <c r="O13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3263,56 +3563,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="X13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="Y13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>39139</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>175930</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="J14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="K14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="L14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3324,56 +3628,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="X14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="Y14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>39139</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>54799</v>
+      </c>
+      <c r="C15" t="s">
+        <v>154</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="J15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="K15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="L15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3385,56 +3693,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="X15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="Y15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>39139</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>23668</v>
+      </c>
+      <c r="C16" t="s">
+        <v>164</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="J16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="K16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="L16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="O16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3446,56 +3758,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="X16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="Y16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>39139</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>22578</v>
+      </c>
+      <c r="C17" t="s">
+        <v>173</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="J17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="K17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="O17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -3513,56 +3829,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="X17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="Y17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>39139</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>175931</v>
+      </c>
+      <c r="C18" t="s">
+        <v>183</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="J18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="K18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="O18" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -3580,56 +3900,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="X18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="Y18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>39139</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>175932</v>
+      </c>
+      <c r="C19" t="s">
+        <v>192</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="J19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="K19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s">
+        <v>197</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
         <v>179</v>
       </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>163</v>
-      </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -3647,56 +3971,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="X19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="Y19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>39139</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>115574</v>
+      </c>
+      <c r="C20" t="s">
+        <v>201</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="J20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="K20" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -3714,56 +4042,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="X20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="Y20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>39139</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>175933</v>
+      </c>
+      <c r="C21" t="s">
+        <v>211</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="J21" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="K21" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="L21" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="O21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3775,47 +4107,51 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="X21" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="Y21" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>39139</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>175934</v>
+      </c>
+      <c r="C22" t="s">
+        <v>221</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="J22" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="K22" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="L22" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
@@ -3832,56 +4168,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="X22" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="Y22" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>39139</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>175935</v>
+      </c>
+      <c r="C23" t="s">
+        <v>230</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="J23" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="K23" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="L23" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="O23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P23" t="n">
         <v>4</v>
@@ -3899,56 +4239,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="X23" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="Y23" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>39139</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>175936</v>
+      </c>
+      <c r="C24" t="s">
+        <v>240</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="J24" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="K24" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="L24" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="O24" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3960,56 +4304,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="X24" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="Y24" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>39139</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>997</v>
+      </c>
+      <c r="C25" t="s">
+        <v>250</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="J25" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="K25" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="L25" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4027,56 +4375,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="X25" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="Y25" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>39139</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>175937</v>
+      </c>
+      <c r="C26" t="s">
+        <v>258</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="J26" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="K26" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="L26" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="O26" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -4094,56 +4446,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="X26" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="Y26" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>39139</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>58729</v>
+      </c>
+      <c r="C27" t="s">
+        <v>268</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="J27" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="K27" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="L27" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="O27" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P27" t="n">
         <v>2</v>
@@ -4163,50 +4519,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>39139</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>175938</v>
+      </c>
+      <c r="C28" t="s">
+        <v>276</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="J28" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="K28" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="L28" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="O28" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4226,41 +4586,45 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>39139</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>4043</v>
+      </c>
+      <c r="C29" t="s">
+        <v>284</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="J29" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="K29" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="L29" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
@@ -4277,56 +4641,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="X29" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="Y29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>39139</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>175939</v>
+      </c>
+      <c r="C30" t="s">
+        <v>293</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="J30" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="K30" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="L30" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="O30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4340,50 +4708,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>39139</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>117141</v>
+      </c>
+      <c r="C31" t="s">
+        <v>300</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="J31" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="K31" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="L31" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="O31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4395,47 +4767,51 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="X31" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="Y31" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>39139</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>175940</v>
+      </c>
+      <c r="C32" t="s">
+        <v>310</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="J32" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="K32" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="L32" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
@@ -4452,56 +4828,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="X32" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="Y32" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>39139</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>175941</v>
+      </c>
+      <c r="C33" t="s">
+        <v>319</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="J33" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="K33" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="L33" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="O33" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4519,56 +4899,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="X33" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="Y33" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>39139</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>175942</v>
+      </c>
+      <c r="C34" t="s">
+        <v>327</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="J34" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="K34" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="L34" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4580,56 +4964,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="X34" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="Y34" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>39139</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>19891</v>
+      </c>
+      <c r="C35" t="s">
+        <v>335</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="J35" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="K35" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="L35" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>3</v>
@@ -4649,50 +5037,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>39139</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>175943</v>
+      </c>
+      <c r="C36" t="s">
+        <v>343</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="J36" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="K36" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="L36" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -4712,50 +5104,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>39139</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>175944</v>
+      </c>
+      <c r="C37" t="s">
+        <v>350</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="J37" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="K37" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="L37" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="O37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4767,56 +5163,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="X37" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="Y37" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>39139</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>91046</v>
+      </c>
+      <c r="C38" t="s">
+        <v>360</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="J38" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="K38" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="L38" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
@@ -4838,56 +5238,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="X38" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="Y38" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>39139</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>16663</v>
+      </c>
+      <c r="C39" t="s">
+        <v>370</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="J39" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="K39" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="L39" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="O39" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4909,56 +5313,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="X39" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="Y39" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>39139</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>175945</v>
+      </c>
+      <c r="C40" t="s">
+        <v>376</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="J40" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="K40" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="L40" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="O40" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
@@ -4980,56 +5388,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="X40" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="Y40" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>39139</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>175946</v>
+      </c>
+      <c r="C41" t="s">
+        <v>384</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="J41" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="K41" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="L41" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="O41" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="P41" t="n">
         <v>4</v>
@@ -5051,56 +5463,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="X41" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="Y41" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>39139</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>175947</v>
+      </c>
+      <c r="C42" t="s">
+        <v>394</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="J42" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="K42" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="L42" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5112,47 +5528,51 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="X42" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="Y42" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>39139</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>175948</v>
+      </c>
+      <c r="C43" t="s">
+        <v>402</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="J43" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="K43" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="L43" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
@@ -5179,56 +5599,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="X43" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="Y43" t="s">
-        <v>366</v>
+        <v>408</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>39139</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>175949</v>
+      </c>
+      <c r="C44" t="s">
+        <v>409</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="J44" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="K44" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="L44" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="O44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -5250,56 +5674,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
       <c r="X44" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
       <c r="Y44" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>39139</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>10047</v>
+      </c>
+      <c r="C45" t="s">
+        <v>419</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>376</v>
+        <v>420</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="J45" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="K45" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="L45" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="O45" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5321,56 +5749,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
       <c r="X45" t="s">
-        <v>382</v>
+        <v>426</v>
       </c>
       <c r="Y45" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>39139</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>97096</v>
+      </c>
+      <c r="C46" t="s">
+        <v>428</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>385</v>
+        <v>430</v>
       </c>
       <c r="J46" t="s">
-        <v>386</v>
+        <v>431</v>
       </c>
       <c r="K46" t="s">
-        <v>387</v>
+        <v>432</v>
       </c>
       <c r="L46" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5382,56 +5814,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
       <c r="X46" t="s">
-        <v>382</v>
+        <v>426</v>
       </c>
       <c r="Y46" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>39139</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>6841</v>
+      </c>
+      <c r="C47" t="s">
+        <v>435</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>390</v>
+        <v>436</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>391</v>
+        <v>437</v>
       </c>
       <c r="J47" t="s">
-        <v>392</v>
+        <v>438</v>
       </c>
       <c r="K47" t="s">
-        <v>393</v>
+        <v>439</v>
       </c>
       <c r="L47" t="s">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="O47" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5453,56 +5889,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
       <c r="X47" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="Y47" t="s">
-        <v>398</v>
+        <v>444</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>39139</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>10413</v>
+      </c>
+      <c r="C48" t="s">
+        <v>445</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>399</v>
+        <v>446</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="J48" t="s">
-        <v>401</v>
+        <v>448</v>
       </c>
       <c r="K48" t="s">
-        <v>402</v>
+        <v>449</v>
       </c>
       <c r="L48" t="s">
-        <v>403</v>
+        <v>450</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="O48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -5524,56 +5964,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
       <c r="X48" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="Y48" t="s">
-        <v>404</v>
+        <v>451</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>39139</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>175950</v>
+      </c>
+      <c r="C49" t="s">
+        <v>452</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>405</v>
+        <v>453</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>406</v>
+        <v>454</v>
       </c>
       <c r="J49" t="s">
-        <v>407</v>
+        <v>455</v>
       </c>
       <c r="K49" t="s">
-        <v>408</v>
+        <v>456</v>
       </c>
       <c r="L49" t="s">
-        <v>409</v>
+        <v>457</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5595,56 +6039,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
       <c r="X49" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="Y49" t="s">
-        <v>410</v>
+        <v>458</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>39139</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>175951</v>
+      </c>
+      <c r="C50" t="s">
+        <v>459</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>411</v>
+        <v>460</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>412</v>
+        <v>461</v>
       </c>
       <c r="J50" t="s">
-        <v>413</v>
+        <v>462</v>
       </c>
       <c r="K50" t="s">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="L50" t="s">
-        <v>415</v>
+        <v>464</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5666,56 +6114,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
       <c r="X50" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="Y50" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>39139</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>175952</v>
+      </c>
+      <c r="C51" t="s">
+        <v>469</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>420</v>
+        <v>470</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>421</v>
+        <v>471</v>
       </c>
       <c r="J51" t="s">
-        <v>422</v>
+        <v>472</v>
       </c>
       <c r="K51" t="s">
-        <v>423</v>
+        <v>473</v>
       </c>
       <c r="L51" t="s">
-        <v>424</v>
+        <v>474</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5737,56 +6189,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
       <c r="X51" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="Y51" t="s">
-        <v>425</v>
+        <v>475</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>39139</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>175953</v>
+      </c>
+      <c r="C52" t="s">
+        <v>476</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="J52" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="K52" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="L52" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5808,56 +6264,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
       <c r="X52" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="Y52" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>39139</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>34674</v>
+      </c>
+      <c r="C53" t="s">
+        <v>483</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>432</v>
+        <v>484</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>433</v>
+        <v>485</v>
       </c>
       <c r="J53" t="s">
-        <v>434</v>
+        <v>486</v>
       </c>
       <c r="K53" t="s">
-        <v>435</v>
+        <v>487</v>
       </c>
       <c r="L53" t="s">
-        <v>436</v>
+        <v>488</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>437</v>
+        <v>489</v>
       </c>
       <c r="O53" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5879,47 +6339,51 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="X53" t="s">
-        <v>439</v>
+        <v>491</v>
       </c>
       <c r="Y53" t="s">
-        <v>440</v>
+        <v>492</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>39139</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>175954</v>
+      </c>
+      <c r="C54" t="s">
+        <v>493</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>441</v>
+        <v>494</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>442</v>
+        <v>495</v>
       </c>
       <c r="J54" t="s">
-        <v>443</v>
+        <v>496</v>
       </c>
       <c r="K54" t="s">
-        <v>444</v>
+        <v>497</v>
       </c>
       <c r="L54" t="s">
-        <v>445</v>
+        <v>498</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
@@ -5946,56 +6410,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>446</v>
+        <v>499</v>
       </c>
       <c r="X54" t="s">
-        <v>447</v>
+        <v>500</v>
       </c>
       <c r="Y54" t="s">
-        <v>448</v>
+        <v>501</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>39139</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>1270</v>
+      </c>
+      <c r="C55" t="s">
+        <v>502</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>449</v>
+        <v>503</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
       <c r="J55" t="s">
-        <v>451</v>
+        <v>505</v>
       </c>
       <c r="K55" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
       <c r="L55" t="s">
-        <v>453</v>
+        <v>507</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>454</v>
+        <v>508</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -6017,47 +6485,51 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
       <c r="X55" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="Y55" t="s">
-        <v>455</v>
+        <v>509</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>39139</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>175955</v>
+      </c>
+      <c r="C56" t="s">
+        <v>510</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>456</v>
+        <v>511</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>457</v>
+        <v>512</v>
       </c>
       <c r="J56" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="K56" t="s">
-        <v>459</v>
+        <v>514</v>
       </c>
       <c r="L56" t="s">
-        <v>460</v>
+        <v>515</v>
       </c>
       <c r="M56" t="n">
         <v>2</v>
@@ -6084,56 +6556,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>461</v>
+        <v>516</v>
       </c>
       <c r="X56" t="s">
-        <v>462</v>
+        <v>517</v>
       </c>
       <c r="Y56" t="s">
-        <v>463</v>
+        <v>518</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>39139</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>10096</v>
+      </c>
+      <c r="C57" t="s">
+        <v>519</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>464</v>
+        <v>520</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>465</v>
+        <v>521</v>
       </c>
       <c r="J57" t="s">
-        <v>466</v>
+        <v>522</v>
       </c>
       <c r="K57" t="s">
-        <v>467</v>
+        <v>523</v>
       </c>
       <c r="L57" t="s">
-        <v>468</v>
+        <v>524</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>469</v>
+        <v>525</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6155,47 +6631,51 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>461</v>
+        <v>516</v>
       </c>
       <c r="X57" t="s">
-        <v>462</v>
+        <v>517</v>
       </c>
       <c r="Y57" t="s">
-        <v>470</v>
+        <v>526</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>39139</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>175956</v>
+      </c>
+      <c r="C58" t="s">
+        <v>527</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>471</v>
+        <v>528</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
       <c r="J58" t="s">
-        <v>473</v>
+        <v>530</v>
       </c>
       <c r="K58" t="s">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="L58" t="s">
-        <v>475</v>
+        <v>532</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
@@ -6222,56 +6702,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>461</v>
+        <v>516</v>
       </c>
       <c r="X58" t="s">
-        <v>462</v>
+        <v>517</v>
       </c>
       <c r="Y58" t="s">
-        <v>476</v>
+        <v>533</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>39139</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>175957</v>
+      </c>
+      <c r="C59" t="s">
+        <v>534</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>477</v>
+        <v>535</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>478</v>
+        <v>536</v>
       </c>
       <c r="J59" t="s">
-        <v>479</v>
+        <v>537</v>
       </c>
       <c r="K59" t="s">
-        <v>480</v>
+        <v>538</v>
       </c>
       <c r="L59" t="s">
-        <v>481</v>
+        <v>539</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>469</v>
+        <v>525</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -6293,47 +6777,51 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>482</v>
+        <v>540</v>
       </c>
       <c r="X59" t="s">
-        <v>483</v>
+        <v>541</v>
       </c>
       <c r="Y59" t="s">
-        <v>484</v>
+        <v>542</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>39139</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>175958</v>
+      </c>
+      <c r="C60" t="s">
+        <v>543</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>485</v>
+        <v>544</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>486</v>
+        <v>545</v>
       </c>
       <c r="J60" t="s">
-        <v>487</v>
+        <v>546</v>
       </c>
       <c r="K60" t="s">
-        <v>488</v>
+        <v>547</v>
       </c>
       <c r="L60" t="s">
-        <v>489</v>
+        <v>548</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
@@ -6360,56 +6848,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>490</v>
+        <v>549</v>
       </c>
       <c r="X60" t="s">
-        <v>491</v>
+        <v>550</v>
       </c>
       <c r="Y60" t="s">
-        <v>492</v>
+        <v>551</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>39139</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>175959</v>
+      </c>
+      <c r="C61" t="s">
+        <v>552</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>493</v>
+        <v>553</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>494</v>
+        <v>554</v>
       </c>
       <c r="J61" t="s">
-        <v>495</v>
+        <v>555</v>
       </c>
       <c r="K61" t="s">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="L61" t="s">
-        <v>497</v>
+        <v>557</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>498</v>
+        <v>558</v>
       </c>
       <c r="O61" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6431,56 +6923,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>490</v>
+        <v>549</v>
       </c>
       <c r="X61" t="s">
-        <v>491</v>
+        <v>550</v>
       </c>
       <c r="Y61" t="s">
-        <v>499</v>
+        <v>559</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>39139</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>175960</v>
+      </c>
+      <c r="C62" t="s">
+        <v>560</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>500</v>
+        <v>561</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>501</v>
+        <v>562</v>
       </c>
       <c r="J62" t="s">
-        <v>502</v>
+        <v>563</v>
       </c>
       <c r="K62" t="s">
-        <v>503</v>
+        <v>564</v>
       </c>
       <c r="L62" t="s">
-        <v>504</v>
+        <v>565</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>505</v>
+        <v>566</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -6502,56 +6998,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>490</v>
+        <v>549</v>
       </c>
       <c r="X62" t="s">
-        <v>491</v>
+        <v>550</v>
       </c>
       <c r="Y62" t="s">
-        <v>506</v>
+        <v>567</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>39139</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>175961</v>
+      </c>
+      <c r="C63" t="s">
+        <v>568</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>507</v>
+        <v>569</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>508</v>
+        <v>570</v>
       </c>
       <c r="J63" t="s">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="K63" t="s">
-        <v>510</v>
+        <v>572</v>
       </c>
       <c r="L63" t="s">
-        <v>511</v>
+        <v>573</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>512</v>
+        <v>574</v>
       </c>
       <c r="O63" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6573,56 +7073,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>490</v>
+        <v>549</v>
       </c>
       <c r="X63" t="s">
-        <v>491</v>
+        <v>550</v>
       </c>
       <c r="Y63" t="s">
-        <v>513</v>
+        <v>575</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>39139</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>175962</v>
+      </c>
+      <c r="C64" t="s">
+        <v>576</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>514</v>
+        <v>577</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>515</v>
+        <v>578</v>
       </c>
       <c r="J64" t="s">
-        <v>516</v>
+        <v>579</v>
       </c>
       <c r="K64" t="s">
-        <v>517</v>
+        <v>580</v>
       </c>
       <c r="L64" t="s">
-        <v>518</v>
+        <v>581</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>519</v>
+        <v>582</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -6644,56 +7148,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>520</v>
+        <v>583</v>
       </c>
       <c r="X64" t="s">
-        <v>521</v>
+        <v>584</v>
       </c>
       <c r="Y64" t="s">
-        <v>522</v>
+        <v>585</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>39139</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>175963</v>
+      </c>
+      <c r="C65" t="s">
+        <v>586</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>524</v>
+        <v>588</v>
       </c>
       <c r="J65" t="s">
-        <v>525</v>
+        <v>589</v>
       </c>
       <c r="K65" t="s">
-        <v>526</v>
+        <v>590</v>
       </c>
       <c r="L65" t="s">
-        <v>527</v>
+        <v>591</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>528</v>
+        <v>592</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -6715,56 +7223,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>529</v>
+        <v>593</v>
       </c>
       <c r="X65" t="s">
-        <v>530</v>
+        <v>594</v>
       </c>
       <c r="Y65" t="s">
-        <v>531</v>
+        <v>595</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>39139</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>27952</v>
+      </c>
+      <c r="C66" t="s">
+        <v>596</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>532</v>
+        <v>597</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>533</v>
+        <v>598</v>
       </c>
       <c r="J66" t="s">
-        <v>534</v>
+        <v>599</v>
       </c>
       <c r="K66" t="s">
-        <v>535</v>
+        <v>600</v>
       </c>
       <c r="L66" t="s">
-        <v>536</v>
+        <v>601</v>
       </c>
       <c r="M66" t="n">
         <v>3</v>
       </c>
       <c r="N66" t="s">
-        <v>528</v>
+        <v>592</v>
       </c>
       <c r="O66" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P66" t="n">
         <v>3</v>
@@ -6786,56 +7298,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>529</v>
+        <v>593</v>
       </c>
       <c r="X66" t="s">
-        <v>530</v>
+        <v>594</v>
       </c>
       <c r="Y66" t="s">
-        <v>537</v>
+        <v>602</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>39139</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>42704</v>
+      </c>
+      <c r="C67" t="s">
+        <v>603</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>538</v>
+        <v>604</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>539</v>
+        <v>605</v>
       </c>
       <c r="J67" t="s">
-        <v>540</v>
+        <v>606</v>
       </c>
       <c r="K67" t="s">
-        <v>541</v>
+        <v>607</v>
       </c>
       <c r="L67" t="s">
-        <v>542</v>
+        <v>608</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>543</v>
+        <v>609</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6857,50 +7373,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>544</v>
+        <v>610</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>39139</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>175964</v>
+      </c>
+      <c r="C68" t="s">
+        <v>611</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>545</v>
+        <v>612</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>546</v>
+        <v>613</v>
       </c>
       <c r="J68" t="s">
-        <v>547</v>
+        <v>614</v>
       </c>
       <c r="K68" t="s">
-        <v>548</v>
+        <v>615</v>
       </c>
       <c r="L68" t="s">
-        <v>549</v>
+        <v>616</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>550</v>
+        <v>617</v>
       </c>
       <c r="O68" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6920,50 +7440,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>549</v>
+        <v>616</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>39139</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>175965</v>
+      </c>
+      <c r="C69" t="s">
+        <v>618</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>551</v>
+        <v>619</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>552</v>
+        <v>620</v>
       </c>
       <c r="J69" t="s">
-        <v>553</v>
+        <v>621</v>
       </c>
       <c r="K69" t="s">
-        <v>554</v>
+        <v>622</v>
       </c>
       <c r="L69" t="s">
-        <v>555</v>
+        <v>623</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>550</v>
+        <v>617</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6983,50 +7507,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>555</v>
+        <v>623</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>39139</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>175966</v>
+      </c>
+      <c r="C70" t="s">
+        <v>624</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>556</v>
+        <v>625</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>557</v>
+        <v>626</v>
       </c>
       <c r="J70" t="s">
-        <v>558</v>
+        <v>627</v>
       </c>
       <c r="K70" t="s">
-        <v>559</v>
+        <v>628</v>
       </c>
       <c r="L70" t="s">
-        <v>560</v>
+        <v>629</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>561</v>
+        <v>630</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="n">
         <v>4</v>
@@ -7050,50 +7578,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>560</v>
+        <v>629</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>39139</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>175967</v>
+      </c>
+      <c r="C71" t="s">
+        <v>631</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>562</v>
+        <v>632</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>563</v>
+        <v>633</v>
       </c>
       <c r="J71" t="s">
-        <v>564</v>
+        <v>634</v>
       </c>
       <c r="K71" t="s">
-        <v>565</v>
+        <v>635</v>
       </c>
       <c r="L71" t="s">
-        <v>566</v>
+        <v>636</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>561</v>
+        <v>630</v>
       </c>
       <c r="O71" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7117,50 +7649,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>567</v>
+        <v>637</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>39139</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>175968</v>
+      </c>
+      <c r="C72" t="s">
+        <v>638</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>568</v>
+        <v>639</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>569</v>
+        <v>640</v>
       </c>
       <c r="J72" t="s">
-        <v>570</v>
+        <v>641</v>
       </c>
       <c r="K72" t="s">
-        <v>571</v>
+        <v>642</v>
       </c>
       <c r="L72" t="s">
-        <v>572</v>
+        <v>643</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>573</v>
+        <v>644</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7184,50 +7720,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>574</v>
+        <v>645</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>39139</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>175969</v>
+      </c>
+      <c r="C73" t="s">
+        <v>646</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>575</v>
+        <v>647</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>576</v>
+        <v>648</v>
       </c>
       <c r="J73" t="s">
-        <v>577</v>
+        <v>649</v>
       </c>
       <c r="K73" t="s">
-        <v>578</v>
+        <v>650</v>
       </c>
       <c r="L73" t="s">
-        <v>579</v>
+        <v>651</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>519</v>
+        <v>582</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>4</v>
@@ -7251,50 +7791,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>579</v>
+        <v>651</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>39139</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>175970</v>
+      </c>
+      <c r="C74" t="s">
+        <v>652</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>580</v>
+        <v>653</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>581</v>
+        <v>654</v>
       </c>
       <c r="J74" t="s">
-        <v>582</v>
+        <v>655</v>
       </c>
       <c r="K74" t="s">
-        <v>583</v>
+        <v>656</v>
       </c>
       <c r="L74" t="s">
-        <v>584</v>
+        <v>657</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>573</v>
+        <v>644</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>4</v>
@@ -7318,50 +7862,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>584</v>
+        <v>657</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>39139</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>175971</v>
+      </c>
+      <c r="C75" t="s">
+        <v>658</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>585</v>
+        <v>659</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>586</v>
+        <v>660</v>
       </c>
       <c r="J75" t="s">
-        <v>587</v>
+        <v>661</v>
       </c>
       <c r="K75" t="s">
-        <v>588</v>
+        <v>662</v>
       </c>
       <c r="L75" t="s">
-        <v>589</v>
+        <v>663</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>573</v>
+        <v>644</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7385,50 +7933,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>590</v>
+        <v>664</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>39139</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>175972</v>
+      </c>
+      <c r="C76" t="s">
+        <v>665</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>591</v>
+        <v>666</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>592</v>
+        <v>667</v>
       </c>
       <c r="J76" t="s">
-        <v>587</v>
+        <v>661</v>
       </c>
       <c r="K76" t="s">
-        <v>593</v>
+        <v>668</v>
       </c>
       <c r="L76" t="s">
-        <v>594</v>
+        <v>669</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>573</v>
+        <v>644</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7452,50 +8004,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>594</v>
+        <v>669</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>39139</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>175973</v>
+      </c>
+      <c r="C77" t="s">
+        <v>670</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>595</v>
+        <v>671</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>596</v>
+        <v>672</v>
       </c>
       <c r="J77" t="s">
-        <v>597</v>
+        <v>673</v>
       </c>
       <c r="K77" t="s">
-        <v>598</v>
+        <v>674</v>
       </c>
       <c r="L77" t="s">
-        <v>599</v>
+        <v>675</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>600</v>
+        <v>676</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -7519,50 +8075,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>599</v>
+        <v>675</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>39139</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>115630</v>
+      </c>
+      <c r="C78" t="s">
+        <v>677</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>601</v>
+        <v>678</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>602</v>
+        <v>679</v>
       </c>
       <c r="J78" t="s">
-        <v>603</v>
+        <v>680</v>
       </c>
       <c r="K78" t="s">
-        <v>604</v>
+        <v>681</v>
       </c>
       <c r="L78" t="s">
-        <v>605</v>
+        <v>682</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>600</v>
+        <v>676</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7586,50 +8146,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>606</v>
+        <v>683</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>39139</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>175974</v>
+      </c>
+      <c r="C79" t="s">
+        <v>684</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>607</v>
+        <v>685</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>608</v>
+        <v>686</v>
       </c>
       <c r="J79" t="s">
-        <v>609</v>
+        <v>687</v>
       </c>
       <c r="K79" t="s">
-        <v>610</v>
+        <v>688</v>
       </c>
       <c r="L79" t="s">
-        <v>611</v>
+        <v>689</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>600</v>
+        <v>676</v>
       </c>
       <c r="O79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -7653,50 +8217,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>611</v>
+        <v>689</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>39139</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>175975</v>
+      </c>
+      <c r="C80" t="s">
+        <v>690</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>612</v>
+        <v>691</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>613</v>
+        <v>692</v>
       </c>
       <c r="J80" t="s">
-        <v>614</v>
+        <v>693</v>
       </c>
       <c r="K80" t="s">
-        <v>615</v>
+        <v>694</v>
       </c>
       <c r="L80" t="s">
-        <v>616</v>
+        <v>695</v>
       </c>
       <c r="M80" t="n">
         <v>3</v>
       </c>
       <c r="N80" t="s">
-        <v>617</v>
+        <v>696</v>
       </c>
       <c r="O80" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P80" t="s"/>
       <c r="Q80" t="n">
@@ -7716,50 +8284,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>618</v>
+        <v>697</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>39139</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>175976</v>
+      </c>
+      <c r="C81" t="s">
+        <v>698</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>619</v>
+        <v>699</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>620</v>
+        <v>700</v>
       </c>
       <c r="J81" t="s">
-        <v>621</v>
+        <v>701</v>
       </c>
       <c r="K81" t="s">
-        <v>622</v>
+        <v>702</v>
       </c>
       <c r="L81" t="s">
-        <v>623</v>
+        <v>703</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>624</v>
+        <v>704</v>
       </c>
       <c r="O81" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -7783,50 +8355,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>623</v>
+        <v>703</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>39139</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>175977</v>
+      </c>
+      <c r="C82" t="s">
+        <v>705</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>625</v>
+        <v>706</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>626</v>
+        <v>707</v>
       </c>
       <c r="J82" t="s">
-        <v>627</v>
+        <v>708</v>
       </c>
       <c r="K82" t="s">
-        <v>628</v>
+        <v>709</v>
       </c>
       <c r="L82" t="s">
-        <v>629</v>
+        <v>710</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>630</v>
+        <v>711</v>
       </c>
       <c r="O82" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -7850,50 +8426,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>631</v>
+        <v>712</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>39139</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>175978</v>
+      </c>
+      <c r="C83" t="s">
+        <v>713</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>632</v>
+        <v>714</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>633</v>
+        <v>715</v>
       </c>
       <c r="J83" t="s">
-        <v>634</v>
+        <v>716</v>
       </c>
       <c r="K83" t="s">
-        <v>635</v>
+        <v>717</v>
       </c>
       <c r="L83" t="s">
-        <v>636</v>
+        <v>718</v>
       </c>
       <c r="M83" t="n">
         <v>3</v>
       </c>
       <c r="N83" t="s">
-        <v>637</v>
+        <v>719</v>
       </c>
       <c r="O83" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P83" t="n">
         <v>3</v>
@@ -7915,41 +8495,45 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>638</v>
+        <v>720</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>39139</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>175979</v>
+      </c>
+      <c r="C84" t="s">
+        <v>721</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>639</v>
+        <v>722</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>640</v>
+        <v>723</v>
       </c>
       <c r="J84" t="s">
-        <v>641</v>
+        <v>724</v>
       </c>
       <c r="K84" t="s">
-        <v>642</v>
+        <v>725</v>
       </c>
       <c r="L84" t="s">
-        <v>643</v>
+        <v>726</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
@@ -7976,41 +8560,45 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>643</v>
+        <v>726</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>39139</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>727</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>644</v>
+        <v>728</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>645</v>
+        <v>729</v>
       </c>
       <c r="J85" t="s">
-        <v>646</v>
+        <v>730</v>
       </c>
       <c r="K85" t="s">
-        <v>647</v>
+        <v>731</v>
       </c>
       <c r="L85" t="s">
-        <v>648</v>
+        <v>732</v>
       </c>
       <c r="M85" t="n">
         <v>1</v>
@@ -8029,7 +8617,7 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>649</v>
+        <v>733</v>
       </c>
     </row>
   </sheetData>
